--- a/Tennis/ATP Tour/Jannik Sinner.xlsx
+++ b/Tennis/ATP Tour/Jannik Sinner.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Tennis/Clean Up YTD Leaderboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12046" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ED476DC-CEE2-466D-A475-38722C5AE506}"/>
+  <xr:revisionPtr revIDLastSave="12057" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1A28A22-38D1-409E-A225-B6C255267196}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="17625" yWindow="45" windowWidth="18885" windowHeight="15285" firstSheet="1" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="390" yWindow="390" windowWidth="18585" windowHeight="17820" firstSheet="1" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="14" r:id="rId1"/>
@@ -8024,7 +8024,7 @@
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A88" activeCellId="3" sqref="A11 A65 A78 A88"/>
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9238,13 +9238,13 @@
         <v>407</v>
       </c>
       <c r="D97" t="s">
-        <v>432</v>
+        <v>292</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F97" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -9252,13 +9252,13 @@
         <v>407</v>
       </c>
       <c r="D98" t="s">
-        <v>292</v>
+        <v>91</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F98" t="s">
-        <v>25</v>
+        <v>210</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -9266,13 +9266,13 @@
         <v>407</v>
       </c>
       <c r="D99" t="s">
-        <v>91</v>
+        <v>432</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F99" t="s">
-        <v>210</v>
+        <v>70</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -9356,7 +9356,7 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -9507,7 +9507,7 @@
   </sheetPr>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/ATP Tour/Jannik Sinner.xlsx
+++ b/Tennis/ATP Tour/Jannik Sinner.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vajjh\OneDrive\Documents\Personal\Website\Soumya's Website\Tennis\ATP Tour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12057" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1A28A22-38D1-409E-A225-B6C255267196}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAADD05-1470-488F-A8B7-54C6C98C696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="390" yWindow="390" windowWidth="18585" windowHeight="17820" firstSheet="1" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="14" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="469">
   <si>
     <t>6-2 6-3</t>
   </si>
@@ -1440,6 +1440,15 @@
   </si>
   <si>
     <t>Marcos Giron (USA)</t>
+  </si>
+  <si>
+    <t>Tallon Griekspoor</t>
+  </si>
+  <si>
+    <t>Milos Raonic (CANADA)</t>
+  </si>
+  <si>
+    <t>7-6(4) 1-1 RETIRED</t>
   </si>
 </sst>
 </file>
@@ -1717,7 +1726,7 @@
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3790,10 +3799,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8023,8 +8028,8 @@
   </sheetPr>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9354,10 +9359,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" activeCellId="1" sqref="E2:E8 E10:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9494,6 +9499,82 @@
         <v>96</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>336</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
+        <v>327</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
+        <v>467</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" t="s">
+        <v>466</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" t="s">
+        <v>356</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -9507,8 +9588,8 @@
   </sheetPr>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9674,13 +9755,13 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9696,15 +9777,15 @@
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ref="C9:E9" si="1">SUM(C2:C8)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
@@ -9712,7 +9793,7 @@
       </c>
       <c r="F9" s="3">
         <f>(D9-E9)/D9</f>
-        <v>0.61504424778761058</v>
+        <v>0.62337662337662336</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -9721,15 +9802,15 @@
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>15.285714285714286</v>
+        <v>15.428571428571429</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ref="C10:E10" si="2">AVERAGE(C2:C8)</f>
-        <v>1.5714285714285714</v>
+        <v>1.7142857142857142</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="2"/>
-        <v>32.285714285714285</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
@@ -9737,7 +9818,7 @@
       </c>
       <c r="F10" s="3">
         <f t="shared" ref="F10" si="3">(D10-E10)/D10</f>
-        <v>0.61504424778761058</v>
+        <v>0.62337662337662336</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Jannik Sinner.xlsx
+++ b/Tennis/ATP Tour/Jannik Sinner.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vajjh\OneDrive\Documents\Personal\Website\Soumya's Website\Tennis\ATP Tour\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAADD05-1470-488F-A8B7-54C6C98C696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{CDAADD05-1470-488F-A8B7-54C6C98C696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A36DBCBF-F0A3-4B77-88F9-2CFB3E708ABF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="471">
   <si>
     <t>6-2 6-3</t>
   </si>
@@ -1449,6 +1449,12 @@
   </si>
   <si>
     <t>7-6(4) 1-1 RETIRED</t>
+  </si>
+  <si>
+    <t>Jan-Lennard Struff (GERMANY)</t>
+  </si>
+  <si>
+    <t>1-6 6-3 6-2</t>
   </si>
 </sst>
 </file>
@@ -1726,7 +1732,7 @@
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1816,7 +1822,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2310,7 +2316,7 @@
                   <c:v>0.765625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.9375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3800,9 +3806,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3840,7 +3846,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3946,7 +3952,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4088,7 +4094,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4223,8 +4229,8 @@
   </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8028,8 +8034,8 @@
   </sheetPr>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9359,20 +9365,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" activeCellId="1" sqref="E2:E8 E10:E14"/>
+      <selection activeCell="E16" activeCellId="2" sqref="E2:E8 E10:E14 E16:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -9573,6 +9579,82 @@
       </c>
       <c r="F14" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>396</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" t="s">
+        <v>437</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
+        <v>469</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" t="s">
+        <v>257</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" t="s">
+        <v>287</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" t="s">
+        <v>249</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" t="s">
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -9589,7 +9671,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9755,20 +9837,20 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -9777,7 +9859,7 @@
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ref="C9:E9" si="1">SUM(C2:C8)</f>
@@ -9785,15 +9867,15 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F9" s="3">
         <f>(D9-E9)/D9</f>
-        <v>0.62337662337662336</v>
+        <v>0.62553191489361704</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -9802,7 +9884,7 @@
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>15.428571428571429</v>
+        <v>15.571428571428571</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ref="C10:E10" si="2">AVERAGE(C2:C8)</f>
@@ -9810,15 +9892,15 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>33.571428571428569</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
-        <v>12.428571428571429</v>
+        <v>12.571428571428571</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" ref="F10" si="3">(D10-E10)/D10</f>
-        <v>0.62337662337662336</v>
+        <v>0.62553191489361704</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Jannik Sinner.xlsx
+++ b/Tennis/ATP Tour/Jannik Sinner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{CDAADD05-1470-488F-A8B7-54C6C98C696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A36DBCBF-F0A3-4B77-88F9-2CFB3E708ABF}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{CDAADD05-1470-488F-A8B7-54C6C98C696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5E97F30-080A-47F2-A6D3-EA4DA4B79A9F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="14" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="473">
   <si>
     <t>6-2 6-3</t>
   </si>
@@ -1442,9 +1442,6 @@
     <t>Marcos Giron (USA)</t>
   </si>
   <si>
-    <t>Tallon Griekspoor</t>
-  </si>
-  <si>
     <t>Milos Raonic (CANADA)</t>
   </si>
   <si>
@@ -1455,6 +1452,15 @@
   </si>
   <si>
     <t>1-6 6-3 6-2</t>
+  </si>
+  <si>
+    <t>Andrea Vavassori (ITALY)</t>
+  </si>
+  <si>
+    <t>Tomáš Macháč (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>5-7 7-5 6-1</t>
   </si>
 </sst>
 </file>
@@ -1732,7 +1738,7 @@
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2316,7 +2322,7 @@
                   <c:v>0.765625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9375</c:v>
+                  <c:v>0.95454545454545459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4111,17 +4117,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -4141,7 +4147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>259</v>
       </c>
@@ -4161,7 +4167,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>264</v>
       </c>
@@ -4181,7 +4187,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>84</v>
       </c>
@@ -4195,7 +4201,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>265</v>
       </c>
@@ -4233,17 +4239,17 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -4263,7 +4269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>266</v>
       </c>
@@ -4283,7 +4289,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>83</v>
       </c>
@@ -4297,7 +4303,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>84</v>
       </c>
@@ -4311,7 +4317,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>85</v>
       </c>
@@ -4325,7 +4331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>86</v>
       </c>
@@ -4339,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>87</v>
       </c>
@@ -4353,7 +4359,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>273</v>
       </c>
@@ -4373,7 +4379,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>274</v>
       </c>
@@ -4393,7 +4399,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>83</v>
       </c>
@@ -4407,7 +4413,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>277</v>
       </c>
@@ -4427,7 +4433,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>279</v>
       </c>
@@ -4441,7 +4447,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>83</v>
       </c>
@@ -4455,7 +4461,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>84</v>
       </c>
@@ -4469,7 +4475,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>284</v>
       </c>
@@ -4489,7 +4495,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>83</v>
       </c>
@@ -4503,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>84</v>
       </c>
@@ -4517,7 +4523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>85</v>
       </c>
@@ -4531,7 +4537,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>86</v>
       </c>
@@ -4545,7 +4551,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>87</v>
       </c>
@@ -4559,7 +4565,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>291</v>
       </c>
@@ -4579,7 +4585,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>83</v>
       </c>
@@ -4593,7 +4599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>293</v>
       </c>
@@ -4613,7 +4619,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>83</v>
       </c>
@@ -4627,7 +4633,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>295</v>
       </c>
@@ -4647,7 +4653,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>279</v>
       </c>
@@ -4661,7 +4667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>83</v>
       </c>
@@ -4675,7 +4681,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>299</v>
       </c>
@@ -4695,7 +4701,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>301</v>
       </c>
@@ -4715,7 +4721,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>245</v>
       </c>
@@ -4735,7 +4741,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>84</v>
       </c>
@@ -4749,7 +4755,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>305</v>
       </c>
@@ -4769,7 +4775,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>84</v>
       </c>
@@ -4783,7 +4789,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>308</v>
       </c>
@@ -4803,7 +4809,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>84</v>
       </c>
@@ -4817,7 +4823,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>85</v>
       </c>
@@ -4831,7 +4837,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>86</v>
       </c>
@@ -4845,7 +4851,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>87</v>
       </c>
@@ -4859,7 +4865,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>312</v>
       </c>
@@ -4879,7 +4885,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>83</v>
       </c>
@@ -4893,7 +4899,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>315</v>
       </c>
@@ -4913,7 +4919,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>279</v>
       </c>
@@ -4927,7 +4933,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>316</v>
       </c>
@@ -4941,7 +4947,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>88</v>
       </c>
@@ -4955,7 +4961,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>320</v>
       </c>
@@ -4975,7 +4981,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>322</v>
       </c>
@@ -4995,7 +5001,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>84</v>
       </c>
@@ -5009,7 +5015,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>323</v>
       </c>
@@ -5029,7 +5035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>84</v>
       </c>
@@ -5043,7 +5049,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>85</v>
       </c>
@@ -5057,7 +5063,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>86</v>
       </c>
@@ -5071,7 +5077,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>326</v>
       </c>
@@ -5091,7 +5097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>84</v>
       </c>
@@ -5105,7 +5111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>85</v>
       </c>
@@ -5119,7 +5125,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>86</v>
       </c>
@@ -5133,7 +5139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>256</v>
       </c>
@@ -5153,7 +5159,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>84</v>
       </c>
@@ -5167,7 +5173,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>264</v>
       </c>
@@ -5187,7 +5193,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>84</v>
       </c>
@@ -5201,7 +5207,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>85</v>
       </c>
@@ -5215,7 +5221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>86</v>
       </c>
@@ -5229,7 +5235,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>87</v>
       </c>
@@ -5261,17 +5267,17 @@
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -5291,7 +5297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>331</v>
       </c>
@@ -5311,7 +5317,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>359</v>
       </c>
@@ -5331,7 +5337,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -5351,7 +5357,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>90</v>
       </c>
@@ -5365,7 +5371,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>250</v>
       </c>
@@ -5385,7 +5391,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>336</v>
       </c>
@@ -5405,7 +5411,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>84</v>
       </c>
@@ -5419,7 +5425,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>85</v>
       </c>
@@ -5433,7 +5439,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>341</v>
       </c>
@@ -5453,7 +5459,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>84</v>
       </c>
@@ -5467,7 +5473,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>342</v>
       </c>
@@ -5487,7 +5493,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>84</v>
       </c>
@@ -5501,7 +5507,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>344</v>
       </c>
@@ -5521,7 +5527,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>315</v>
       </c>
@@ -5541,7 +5547,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>345</v>
       </c>
@@ -5561,7 +5567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>84</v>
       </c>
@@ -5575,7 +5581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>291</v>
       </c>
@@ -5595,7 +5601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>83</v>
       </c>
@@ -5609,7 +5615,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>84</v>
       </c>
@@ -5623,7 +5629,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>347</v>
       </c>
@@ -5643,7 +5649,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>90</v>
       </c>
@@ -5657,7 +5663,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>83</v>
       </c>
@@ -5671,7 +5677,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>84</v>
       </c>
@@ -5685,7 +5691,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>85</v>
       </c>
@@ -5699,7 +5705,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>256</v>
       </c>
@@ -5719,7 +5725,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>84</v>
       </c>
@@ -5733,7 +5739,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>354</v>
       </c>
@@ -5753,7 +5759,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>84</v>
       </c>
@@ -5767,7 +5773,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>85</v>
       </c>
@@ -5781,7 +5787,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>86</v>
       </c>
@@ -5795,7 +5801,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>87</v>
       </c>
@@ -5826,17 +5832,17 @@
       <selection activeCell="A2" activeCellId="3" sqref="A55 A71 A80 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -5856,7 +5862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>360</v>
       </c>
@@ -5876,7 +5882,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>84</v>
       </c>
@@ -5890,7 +5896,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>85</v>
       </c>
@@ -5904,7 +5910,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>86</v>
       </c>
@@ -5918,7 +5924,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>87</v>
       </c>
@@ -5932,7 +5938,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -5952,7 +5958,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>250</v>
       </c>
@@ -5972,7 +5978,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>341</v>
       </c>
@@ -5992,7 +5998,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>84</v>
       </c>
@@ -6006,7 +6012,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>85</v>
       </c>
@@ -6020,7 +6026,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>367</v>
       </c>
@@ -6040,7 +6046,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>84</v>
       </c>
@@ -6054,7 +6060,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>85</v>
       </c>
@@ -6068,7 +6074,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>372</v>
       </c>
@@ -6088,7 +6094,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>83</v>
       </c>
@@ -6102,7 +6108,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>84</v>
       </c>
@@ -6116,7 +6122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>85</v>
       </c>
@@ -6130,7 +6136,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>86</v>
       </c>
@@ -6144,7 +6150,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>87</v>
       </c>
@@ -6158,7 +6164,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>373</v>
       </c>
@@ -6178,7 +6184,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>83</v>
       </c>
@@ -6192,7 +6198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>375</v>
       </c>
@@ -6212,7 +6218,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>84</v>
       </c>
@@ -6226,7 +6232,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>85</v>
       </c>
@@ -6240,7 +6246,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>86</v>
       </c>
@@ -6254,7 +6260,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>377</v>
       </c>
@@ -6274,7 +6280,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>83</v>
       </c>
@@ -6288,7 +6294,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>291</v>
       </c>
@@ -6308,7 +6314,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>83</v>
       </c>
@@ -6322,7 +6328,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>293</v>
       </c>
@@ -6342,7 +6348,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>84</v>
       </c>
@@ -6356,7 +6362,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>347</v>
       </c>
@@ -6376,7 +6382,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>90</v>
       </c>
@@ -6390,7 +6396,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>83</v>
       </c>
@@ -6404,7 +6410,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>84</v>
       </c>
@@ -6418,7 +6424,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>387</v>
       </c>
@@ -6438,7 +6444,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>301</v>
       </c>
@@ -6458,7 +6464,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>389</v>
       </c>
@@ -6478,7 +6484,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>244</v>
       </c>
@@ -6498,7 +6504,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>84</v>
       </c>
@@ -6512,7 +6518,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>85</v>
       </c>
@@ -6526,7 +6532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>86</v>
       </c>
@@ -6540,7 +6546,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>87</v>
       </c>
@@ -6554,7 +6560,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>390</v>
       </c>
@@ -6574,7 +6580,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>344</v>
       </c>
@@ -6594,7 +6600,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>83</v>
       </c>
@@ -6608,7 +6614,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>315</v>
       </c>
@@ -6628,7 +6634,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>90</v>
       </c>
@@ -6642,7 +6648,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>83</v>
       </c>
@@ -6656,7 +6662,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>84</v>
       </c>
@@ -6670,7 +6676,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>354</v>
       </c>
@@ -6690,7 +6696,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>85</v>
       </c>
@@ -6704,7 +6710,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>86</v>
       </c>
@@ -6718,7 +6724,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>87</v>
       </c>
@@ -6732,7 +6738,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>396</v>
       </c>
@@ -6752,7 +6758,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>83</v>
       </c>
@@ -6766,7 +6772,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>84</v>
       </c>
@@ -6780,7 +6786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>326</v>
       </c>
@@ -6800,7 +6806,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>85</v>
       </c>
@@ -6814,7 +6820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>86</v>
       </c>
@@ -6828,7 +6834,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>87</v>
       </c>
@@ -6842,7 +6848,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>256</v>
       </c>
@@ -6862,7 +6868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>84</v>
       </c>
@@ -6876,7 +6882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>85</v>
       </c>
@@ -6890,7 +6896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>86</v>
       </c>
@@ -6904,7 +6910,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>404</v>
       </c>
@@ -6924,7 +6930,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>405</v>
       </c>
@@ -6944,7 +6950,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>406</v>
       </c>
@@ -6964,7 +6970,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>407</v>
       </c>
@@ -6978,7 +6984,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>408</v>
       </c>
@@ -6995,7 +7001,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D98" t="s">
         <v>409</v>
       </c>
@@ -7006,7 +7012,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
         <v>410</v>
       </c>
@@ -7034,17 +7040,17 @@
       <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -7064,7 +7070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -7084,7 +7090,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>90</v>
       </c>
@@ -7098,7 +7104,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>83</v>
       </c>
@@ -7112,7 +7118,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>84</v>
       </c>
@@ -7126,7 +7132,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>85</v>
       </c>
@@ -7140,7 +7146,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>367</v>
       </c>
@@ -7160,7 +7166,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>84</v>
       </c>
@@ -7174,7 +7180,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>85</v>
       </c>
@@ -7188,7 +7194,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>408</v>
       </c>
@@ -7205,7 +7211,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>340</v>
       </c>
@@ -7216,7 +7222,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>396</v>
       </c>
@@ -7236,7 +7242,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>83</v>
       </c>
@@ -7250,7 +7256,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>84</v>
       </c>
@@ -7264,7 +7270,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>372</v>
       </c>
@@ -7284,7 +7290,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>83</v>
       </c>
@@ -7298,7 +7304,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>84</v>
       </c>
@@ -7312,7 +7318,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>85</v>
       </c>
@@ -7326,7 +7332,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>373</v>
       </c>
@@ -7346,7 +7352,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>83</v>
       </c>
@@ -7360,7 +7366,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>84</v>
       </c>
@@ -7374,7 +7380,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>85</v>
       </c>
@@ -7388,7 +7394,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>377</v>
       </c>
@@ -7408,7 +7414,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>83</v>
       </c>
@@ -7422,7 +7428,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>84</v>
       </c>
@@ -7436,7 +7442,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>291</v>
       </c>
@@ -7456,7 +7462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>83</v>
       </c>
@@ -7470,7 +7476,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>84</v>
       </c>
@@ -7484,7 +7490,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>85</v>
       </c>
@@ -7498,7 +7504,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>347</v>
       </c>
@@ -7518,7 +7524,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>90</v>
       </c>
@@ -7532,7 +7538,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>83</v>
       </c>
@@ -7546,7 +7552,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>84</v>
       </c>
@@ -7560,7 +7566,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>422</v>
       </c>
@@ -7580,7 +7586,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>301</v>
       </c>
@@ -7600,7 +7606,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>90</v>
       </c>
@@ -7614,7 +7620,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>83</v>
       </c>
@@ -7628,7 +7634,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>84</v>
       </c>
@@ -7642,7 +7648,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>85</v>
       </c>
@@ -7656,7 +7662,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>245</v>
       </c>
@@ -7676,7 +7682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>85</v>
       </c>
@@ -7690,7 +7696,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>86</v>
       </c>
@@ -7704,7 +7710,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>87</v>
       </c>
@@ -7718,7 +7724,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>390</v>
       </c>
@@ -7738,7 +7744,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>84</v>
       </c>
@@ -7752,7 +7758,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>344</v>
       </c>
@@ -7772,7 +7778,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>83</v>
       </c>
@@ -7786,7 +7792,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>84</v>
       </c>
@@ -7800,7 +7806,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>315</v>
       </c>
@@ -7820,7 +7826,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>90</v>
       </c>
@@ -7834,7 +7840,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>83</v>
       </c>
@@ -7848,7 +7854,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>84</v>
       </c>
@@ -7862,7 +7868,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>85</v>
       </c>
@@ -7876,7 +7882,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>408</v>
       </c>
@@ -7893,7 +7899,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>335</v>
       </c>
@@ -7904,7 +7910,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>354</v>
       </c>
@@ -7924,7 +7930,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>85</v>
       </c>
@@ -7938,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>86</v>
       </c>
@@ -7952,7 +7958,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>256</v>
       </c>
@@ -7972,7 +7978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>84</v>
       </c>
@@ -7986,7 +7992,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>85</v>
       </c>
@@ -8000,7 +8006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>404</v>
       </c>
@@ -8038,17 +8044,17 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -8068,7 +8074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>435</v>
       </c>
@@ -8088,7 +8094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>84</v>
       </c>
@@ -8102,7 +8108,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>85</v>
       </c>
@@ -8116,7 +8122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -8136,7 +8142,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>90</v>
       </c>
@@ -8150,7 +8156,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>83</v>
       </c>
@@ -8164,7 +8170,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>84</v>
       </c>
@@ -8178,7 +8184,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>250</v>
       </c>
@@ -8198,7 +8204,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>85</v>
       </c>
@@ -8212,7 +8218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>86</v>
       </c>
@@ -8226,7 +8232,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>87</v>
       </c>
@@ -8240,7 +8246,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>336</v>
       </c>
@@ -8260,7 +8266,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>84</v>
       </c>
@@ -8274,7 +8280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>85</v>
       </c>
@@ -8288,7 +8294,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>86</v>
       </c>
@@ -8302,7 +8308,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>87</v>
       </c>
@@ -8316,7 +8322,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>396</v>
       </c>
@@ -8336,7 +8342,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>83</v>
       </c>
@@ -8350,7 +8356,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>84</v>
       </c>
@@ -8364,7 +8370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>85</v>
       </c>
@@ -8378,7 +8384,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>86</v>
       </c>
@@ -8392,7 +8398,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>372</v>
       </c>
@@ -8412,7 +8418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>83</v>
       </c>
@@ -8426,7 +8432,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>84</v>
       </c>
@@ -8440,7 +8446,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>85</v>
       </c>
@@ -8454,7 +8460,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>86</v>
       </c>
@@ -8468,7 +8474,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>87</v>
       </c>
@@ -8482,7 +8488,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>444</v>
       </c>
@@ -8502,7 +8508,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>84</v>
       </c>
@@ -8516,7 +8522,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>85</v>
       </c>
@@ -8530,7 +8536,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>86</v>
       </c>
@@ -8544,7 +8550,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>375</v>
       </c>
@@ -8564,7 +8570,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>84</v>
       </c>
@@ -8578,7 +8584,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>85</v>
       </c>
@@ -8592,7 +8598,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>291</v>
       </c>
@@ -8612,7 +8618,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>83</v>
       </c>
@@ -8626,7 +8632,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>84</v>
       </c>
@@ -8640,7 +8646,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>347</v>
       </c>
@@ -8660,7 +8666,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>90</v>
       </c>
@@ -8674,7 +8680,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>295</v>
       </c>
@@ -8694,7 +8700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>85</v>
       </c>
@@ -8708,7 +8714,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>299</v>
       </c>
@@ -8728,7 +8734,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>84</v>
       </c>
@@ -8742,7 +8748,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>85</v>
       </c>
@@ -8756,7 +8762,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>301</v>
       </c>
@@ -8776,7 +8782,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>90</v>
       </c>
@@ -8790,7 +8796,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>83</v>
       </c>
@@ -8804,7 +8810,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>84</v>
       </c>
@@ -8818,7 +8824,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>85</v>
       </c>
@@ -8832,7 +8838,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>86</v>
       </c>
@@ -8846,7 +8852,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>390</v>
       </c>
@@ -8866,7 +8872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>84</v>
       </c>
@@ -8880,7 +8886,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>85</v>
       </c>
@@ -8894,7 +8900,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>86</v>
       </c>
@@ -8908,7 +8914,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>87</v>
       </c>
@@ -8922,7 +8928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>344</v>
       </c>
@@ -8942,7 +8948,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>315</v>
       </c>
@@ -8962,7 +8968,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>90</v>
       </c>
@@ -8976,7 +8982,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>83</v>
       </c>
@@ -8990,7 +8996,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>84</v>
       </c>
@@ -9004,7 +9010,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>461</v>
       </c>
@@ -9024,7 +9030,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>84</v>
       </c>
@@ -9038,7 +9044,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>85</v>
       </c>
@@ -9052,7 +9058,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>86</v>
       </c>
@@ -9066,7 +9072,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>87</v>
       </c>
@@ -9080,7 +9086,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>464</v>
       </c>
@@ -9100,7 +9106,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>83</v>
       </c>
@@ -9114,7 +9120,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>84</v>
       </c>
@@ -9128,7 +9134,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>256</v>
       </c>
@@ -9148,7 +9154,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>84</v>
       </c>
@@ -9162,7 +9168,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>85</v>
       </c>
@@ -9176,7 +9182,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>86</v>
       </c>
@@ -9190,7 +9196,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>87</v>
       </c>
@@ -9204,7 +9210,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>404</v>
       </c>
@@ -9224,7 +9230,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>84</v>
       </c>
@@ -9238,7 +9244,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>406</v>
       </c>
@@ -9258,7 +9264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>407</v>
       </c>
@@ -9272,7 +9278,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>407</v>
       </c>
@@ -9286,7 +9292,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>86</v>
       </c>
@@ -9300,7 +9306,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>87</v>
       </c>
@@ -9314,7 +9320,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>408</v>
       </c>
@@ -9331,7 +9337,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D104" t="s">
         <v>91</v>
       </c>
@@ -9342,7 +9348,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D105" t="s">
         <v>356</v>
       </c>
@@ -9365,23 +9371,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" activeCellId="2" sqref="E2:E8 E10:E14 E16:E19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E22" activeCellId="3" sqref="E2:E8 E10:E14 E16:E19 E22:E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -9401,7 +9407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -9421,7 +9427,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>90</v>
       </c>
@@ -9435,7 +9441,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>83</v>
       </c>
@@ -9449,7 +9455,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>84</v>
       </c>
@@ -9463,7 +9469,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>85</v>
       </c>
@@ -9477,7 +9483,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>86</v>
       </c>
@@ -9491,7 +9497,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>87</v>
       </c>
@@ -9505,7 +9511,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>336</v>
       </c>
@@ -9525,7 +9531,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>84</v>
       </c>
@@ -9539,26 +9545,26 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>85</v>
       </c>
       <c r="D12" t="s">
+        <v>466</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" t="s">
         <v>467</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>81</v>
@@ -9567,7 +9573,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>87</v>
       </c>
@@ -9581,7 +9587,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>396</v>
       </c>
@@ -9601,12 +9607,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>81</v>
@@ -9615,7 +9621,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>84</v>
       </c>
@@ -9629,7 +9635,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>85</v>
       </c>
@@ -9643,7 +9649,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>86</v>
       </c>
@@ -9654,7 +9660,97 @@
         <v>80</v>
       </c>
       <c r="F20" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>372</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" t="s">
         <v>470</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" t="s">
+        <v>441</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" t="s">
+        <v>388</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
+        <v>471</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
+        <v>346</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -9671,20 +9767,20 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -9704,7 +9800,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -9726,7 +9822,7 @@
       </c>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -9748,7 +9844,7 @@
       </c>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -9769,7 +9865,7 @@
         <v>0.23529411764705882</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -9790,7 +9886,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -9811,7 +9907,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -9832,42 +9928,42 @@
         <v>0.765625</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
       <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
       <c r="D8">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.95454545454545459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ref="C9:E9" si="1">SUM(C2:C8)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
@@ -9875,24 +9971,24 @@
       </c>
       <c r="F9" s="3">
         <f>(D9-E9)/D9</f>
-        <v>0.62553191489361704</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.63485477178423233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>15.571428571428571</v>
+        <v>15.714285714285714</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ref="C10:E10" si="2">AVERAGE(C2:C8)</f>
-        <v>1.7142857142857142</v>
+        <v>1.8571428571428572</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="2"/>
-        <v>33.571428571428569</v>
+        <v>34.428571428571431</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
@@ -9900,7 +9996,7 @@
       </c>
       <c r="F10" s="3">
         <f t="shared" ref="F10" si="3">(D10-E10)/D10</f>
-        <v>0.62553191489361704</v>
+        <v>0.63485477178423244</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Jannik Sinner.xlsx
+++ b/Tennis/ATP Tour/Jannik Sinner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{CDAADD05-1470-488F-A8B7-54C6C98C696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5E97F30-080A-47F2-A6D3-EA4DA4B79A9F}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{CDAADD05-1470-488F-A8B7-54C6C98C696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B66C35E-A66B-47E6-9773-DDEB7ED11F94}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="474">
   <si>
     <t>6-2 6-3</t>
   </si>
@@ -1461,6 +1461,9 @@
   </si>
   <si>
     <t>5-7 7-5 6-1</t>
+  </si>
+  <si>
+    <t>6-4 6-7(8) 6-3</t>
   </si>
 </sst>
 </file>
@@ -1738,7 +1741,7 @@
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1828,7 +1831,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2322,7 +2325,7 @@
                   <c:v>0.765625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95454545454545459</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3811,6 +3814,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -8040,8 +8047,8 @@
   </sheetPr>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9371,10 +9378,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E22" activeCellId="3" sqref="E2:E8 E10:E14 E16:E19 E22:E27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E29" activeCellId="4" sqref="E2:E8 E10:E14 E16:E19 E22:E27 E29:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9753,6 +9760,68 @@
         <v>34</v>
       </c>
     </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>444</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" t="s">
+        <v>240</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
+        <v>468</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" t="s">
+        <v>432</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" t="s">
+        <v>292</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -9767,7 +9836,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9933,20 +10002,20 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>0.95454545454545459</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -9955,7 +10024,7 @@
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ref="C9:E9" si="1">SUM(C2:C8)</f>
@@ -9963,15 +10032,15 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F9" s="3">
         <f>(D9-E9)/D9</f>
-        <v>0.63485477178423233</v>
+        <v>0.63524590163934425</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -9980,7 +10049,7 @@
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>15.714285714285714</v>
+        <v>15.857142857142858</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ref="C10:E10" si="2">AVERAGE(C2:C8)</f>
@@ -9988,15 +10057,15 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" si="2"/>
-        <v>34.428571428571431</v>
+        <v>34.857142857142854</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
-        <v>12.571428571428571</v>
+        <v>12.714285714285714</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" ref="F10" si="3">(D10-E10)/D10</f>
-        <v>0.63485477178423244</v>
+        <v>0.63524590163934425</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Jannik Sinner.xlsx
+++ b/Tennis/ATP Tour/Jannik Sinner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{CDAADD05-1470-488F-A8B7-54C6C98C696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B66C35E-A66B-47E6-9773-DDEB7ED11F94}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{CDAADD05-1470-488F-A8B7-54C6C98C696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AA5E220-1CB1-42F3-9C30-8A749E8541CF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="14" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="477">
   <si>
     <t>6-2 6-3</t>
   </si>
@@ -1464,6 +1464,15 @@
   </si>
   <si>
     <t>6-4 6-7(8) 6-3</t>
+  </si>
+  <si>
+    <t>6-0 6-3</t>
+  </si>
+  <si>
+    <t>5-7 6-3 6-3</t>
+  </si>
+  <si>
+    <t>Pavel Kotov (RUSSIA)</t>
   </si>
 </sst>
 </file>
@@ -1741,7 +1750,7 @@
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2325,7 +2334,7 @@
                   <c:v>0.765625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.92</c:v>
+                  <c:v>0.9285714285714286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3814,10 +3823,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4124,17 +4129,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -4154,7 +4159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>259</v>
       </c>
@@ -4174,7 +4179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>264</v>
       </c>
@@ -4194,7 +4199,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>84</v>
       </c>
@@ -4208,7 +4213,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>265</v>
       </c>
@@ -4246,17 +4251,17 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -4276,7 +4281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>266</v>
       </c>
@@ -4296,7 +4301,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>83</v>
       </c>
@@ -4310,7 +4315,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>84</v>
       </c>
@@ -4324,7 +4329,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>85</v>
       </c>
@@ -4338,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>86</v>
       </c>
@@ -4352,7 +4357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>87</v>
       </c>
@@ -4366,7 +4371,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>273</v>
       </c>
@@ -4386,7 +4391,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>274</v>
       </c>
@@ -4406,7 +4411,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>83</v>
       </c>
@@ -4420,7 +4425,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>277</v>
       </c>
@@ -4440,7 +4445,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>279</v>
       </c>
@@ -4454,7 +4459,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>83</v>
       </c>
@@ -4468,7 +4473,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>84</v>
       </c>
@@ -4482,7 +4487,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>284</v>
       </c>
@@ -4502,7 +4507,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>83</v>
       </c>
@@ -4516,7 +4521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>84</v>
       </c>
@@ -4530,7 +4535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>85</v>
       </c>
@@ -4544,7 +4549,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>86</v>
       </c>
@@ -4558,7 +4563,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>87</v>
       </c>
@@ -4572,7 +4577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>291</v>
       </c>
@@ -4592,7 +4597,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>83</v>
       </c>
@@ -4606,7 +4611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>293</v>
       </c>
@@ -4626,7 +4631,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>83</v>
       </c>
@@ -4640,7 +4645,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>295</v>
       </c>
@@ -4660,7 +4665,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>279</v>
       </c>
@@ -4674,7 +4679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>83</v>
       </c>
@@ -4688,7 +4693,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>299</v>
       </c>
@@ -4708,7 +4713,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>301</v>
       </c>
@@ -4728,7 +4733,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>245</v>
       </c>
@@ -4748,7 +4753,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>84</v>
       </c>
@@ -4762,7 +4767,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>305</v>
       </c>
@@ -4782,7 +4787,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>84</v>
       </c>
@@ -4796,7 +4801,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>308</v>
       </c>
@@ -4816,7 +4821,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>84</v>
       </c>
@@ -4830,7 +4835,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>85</v>
       </c>
@@ -4844,7 +4849,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>86</v>
       </c>
@@ -4858,7 +4863,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>87</v>
       </c>
@@ -4872,7 +4877,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>312</v>
       </c>
@@ -4892,7 +4897,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>83</v>
       </c>
@@ -4906,7 +4911,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>315</v>
       </c>
@@ -4926,7 +4931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>279</v>
       </c>
@@ -4940,7 +4945,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>316</v>
       </c>
@@ -4954,7 +4959,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>88</v>
       </c>
@@ -4968,7 +4973,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>320</v>
       </c>
@@ -4988,7 +4993,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>322</v>
       </c>
@@ -5008,7 +5013,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>84</v>
       </c>
@@ -5022,7 +5027,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>323</v>
       </c>
@@ -5042,7 +5047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>84</v>
       </c>
@@ -5056,7 +5061,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>85</v>
       </c>
@@ -5070,7 +5075,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>86</v>
       </c>
@@ -5084,7 +5089,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>326</v>
       </c>
@@ -5104,7 +5109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>84</v>
       </c>
@@ -5118,7 +5123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>85</v>
       </c>
@@ -5132,7 +5137,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>86</v>
       </c>
@@ -5146,7 +5151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>256</v>
       </c>
@@ -5166,7 +5171,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>84</v>
       </c>
@@ -5180,7 +5185,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>264</v>
       </c>
@@ -5200,7 +5205,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>84</v>
       </c>
@@ -5214,7 +5219,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>85</v>
       </c>
@@ -5228,7 +5233,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>86</v>
       </c>
@@ -5242,7 +5247,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>87</v>
       </c>
@@ -5274,17 +5279,17 @@
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -5304,7 +5309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>331</v>
       </c>
@@ -5324,7 +5329,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>359</v>
       </c>
@@ -5344,7 +5349,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -5364,7 +5369,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>90</v>
       </c>
@@ -5378,7 +5383,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>250</v>
       </c>
@@ -5398,7 +5403,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>336</v>
       </c>
@@ -5418,7 +5423,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>84</v>
       </c>
@@ -5432,7 +5437,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>85</v>
       </c>
@@ -5446,7 +5451,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>341</v>
       </c>
@@ -5466,7 +5471,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>84</v>
       </c>
@@ -5480,7 +5485,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>342</v>
       </c>
@@ -5500,7 +5505,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>84</v>
       </c>
@@ -5514,7 +5519,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>344</v>
       </c>
@@ -5534,7 +5539,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>315</v>
       </c>
@@ -5554,7 +5559,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>345</v>
       </c>
@@ -5574,7 +5579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>84</v>
       </c>
@@ -5588,7 +5593,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>291</v>
       </c>
@@ -5608,7 +5613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>83</v>
       </c>
@@ -5622,7 +5627,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>84</v>
       </c>
@@ -5636,7 +5641,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>347</v>
       </c>
@@ -5656,7 +5661,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>90</v>
       </c>
@@ -5670,7 +5675,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>83</v>
       </c>
@@ -5684,7 +5689,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>84</v>
       </c>
@@ -5698,7 +5703,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>85</v>
       </c>
@@ -5712,7 +5717,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>256</v>
       </c>
@@ -5732,7 +5737,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>84</v>
       </c>
@@ -5746,7 +5751,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>354</v>
       </c>
@@ -5766,7 +5771,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>84</v>
       </c>
@@ -5780,7 +5785,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>85</v>
       </c>
@@ -5794,7 +5799,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>86</v>
       </c>
@@ -5808,7 +5813,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>87</v>
       </c>
@@ -5839,17 +5844,17 @@
       <selection activeCell="A2" activeCellId="3" sqref="A55 A71 A80 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -5869,7 +5874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>360</v>
       </c>
@@ -5889,7 +5894,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>84</v>
       </c>
@@ -5903,7 +5908,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>85</v>
       </c>
@@ -5917,7 +5922,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>86</v>
       </c>
@@ -5931,7 +5936,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>87</v>
       </c>
@@ -5945,7 +5950,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -5965,7 +5970,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>250</v>
       </c>
@@ -5985,7 +5990,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>341</v>
       </c>
@@ -6005,7 +6010,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>84</v>
       </c>
@@ -6019,7 +6024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>85</v>
       </c>
@@ -6033,7 +6038,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>367</v>
       </c>
@@ -6053,7 +6058,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>84</v>
       </c>
@@ -6067,7 +6072,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>85</v>
       </c>
@@ -6081,7 +6086,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>372</v>
       </c>
@@ -6101,7 +6106,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>83</v>
       </c>
@@ -6115,7 +6120,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>84</v>
       </c>
@@ -6129,7 +6134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>85</v>
       </c>
@@ -6143,7 +6148,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>86</v>
       </c>
@@ -6157,7 +6162,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>87</v>
       </c>
@@ -6171,7 +6176,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>373</v>
       </c>
@@ -6191,7 +6196,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>83</v>
       </c>
@@ -6205,7 +6210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>375</v>
       </c>
@@ -6225,7 +6230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>84</v>
       </c>
@@ -6239,7 +6244,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>85</v>
       </c>
@@ -6253,7 +6258,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>86</v>
       </c>
@@ -6267,7 +6272,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>377</v>
       </c>
@@ -6287,7 +6292,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>83</v>
       </c>
@@ -6301,7 +6306,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>291</v>
       </c>
@@ -6321,7 +6326,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>83</v>
       </c>
@@ -6335,7 +6340,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>293</v>
       </c>
@@ -6355,7 +6360,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>84</v>
       </c>
@@ -6369,7 +6374,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>347</v>
       </c>
@@ -6389,7 +6394,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>90</v>
       </c>
@@ -6403,7 +6408,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>83</v>
       </c>
@@ -6417,7 +6422,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>84</v>
       </c>
@@ -6431,7 +6436,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>387</v>
       </c>
@@ -6451,7 +6456,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>301</v>
       </c>
@@ -6471,7 +6476,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>389</v>
       </c>
@@ -6491,7 +6496,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>244</v>
       </c>
@@ -6511,7 +6516,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>84</v>
       </c>
@@ -6525,7 +6530,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>85</v>
       </c>
@@ -6539,7 +6544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>86</v>
       </c>
@@ -6553,7 +6558,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>87</v>
       </c>
@@ -6567,7 +6572,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>390</v>
       </c>
@@ -6587,7 +6592,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>344</v>
       </c>
@@ -6607,7 +6612,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>83</v>
       </c>
@@ -6621,7 +6626,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>315</v>
       </c>
@@ -6641,7 +6646,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>90</v>
       </c>
@@ -6655,7 +6660,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>83</v>
       </c>
@@ -6669,7 +6674,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>84</v>
       </c>
@@ -6683,7 +6688,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>354</v>
       </c>
@@ -6703,7 +6708,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>85</v>
       </c>
@@ -6717,7 +6722,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>86</v>
       </c>
@@ -6731,7 +6736,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>87</v>
       </c>
@@ -6745,7 +6750,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>396</v>
       </c>
@@ -6765,7 +6770,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>83</v>
       </c>
@@ -6779,7 +6784,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>84</v>
       </c>
@@ -6793,7 +6798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>326</v>
       </c>
@@ -6813,7 +6818,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>85</v>
       </c>
@@ -6827,7 +6832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>86</v>
       </c>
@@ -6841,7 +6846,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>87</v>
       </c>
@@ -6855,7 +6860,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>256</v>
       </c>
@@ -6875,7 +6880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>84</v>
       </c>
@@ -6889,7 +6894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>85</v>
       </c>
@@ -6903,7 +6908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>86</v>
       </c>
@@ -6917,7 +6922,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>404</v>
       </c>
@@ -6937,7 +6942,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>405</v>
       </c>
@@ -6957,7 +6962,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>406</v>
       </c>
@@ -6977,7 +6982,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>407</v>
       </c>
@@ -6991,7 +6996,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>408</v>
       </c>
@@ -7008,7 +7013,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
         <v>409</v>
       </c>
@@ -7019,7 +7024,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
         <v>410</v>
       </c>
@@ -7043,21 +7048,21 @@
   </sheetPr>
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -7077,7 +7082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -7097,7 +7102,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>90</v>
       </c>
@@ -7111,7 +7116,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>83</v>
       </c>
@@ -7125,7 +7130,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>84</v>
       </c>
@@ -7139,7 +7144,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>85</v>
       </c>
@@ -7153,7 +7158,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>367</v>
       </c>
@@ -7173,7 +7178,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>84</v>
       </c>
@@ -7187,7 +7192,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>85</v>
       </c>
@@ -7201,7 +7206,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>408</v>
       </c>
@@ -7218,7 +7223,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>340</v>
       </c>
@@ -7229,7 +7234,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>396</v>
       </c>
@@ -7249,7 +7254,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>83</v>
       </c>
@@ -7263,7 +7268,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>84</v>
       </c>
@@ -7277,7 +7282,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>372</v>
       </c>
@@ -7297,7 +7302,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>83</v>
       </c>
@@ -7311,7 +7316,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>84</v>
       </c>
@@ -7325,7 +7330,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>85</v>
       </c>
@@ -7339,7 +7344,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>373</v>
       </c>
@@ -7359,7 +7364,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>83</v>
       </c>
@@ -7373,7 +7378,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>84</v>
       </c>
@@ -7387,7 +7392,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>85</v>
       </c>
@@ -7401,7 +7406,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>377</v>
       </c>
@@ -7421,7 +7426,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>83</v>
       </c>
@@ -7435,7 +7440,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>84</v>
       </c>
@@ -7449,7 +7454,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>291</v>
       </c>
@@ -7469,7 +7474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>83</v>
       </c>
@@ -7483,7 +7488,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>84</v>
       </c>
@@ -7497,7 +7502,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>85</v>
       </c>
@@ -7511,7 +7516,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>347</v>
       </c>
@@ -7531,7 +7536,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>90</v>
       </c>
@@ -7545,7 +7550,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>83</v>
       </c>
@@ -7559,7 +7564,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>84</v>
       </c>
@@ -7573,7 +7578,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>422</v>
       </c>
@@ -7593,7 +7598,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>301</v>
       </c>
@@ -7613,7 +7618,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>90</v>
       </c>
@@ -7627,7 +7632,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>83</v>
       </c>
@@ -7641,7 +7646,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>84</v>
       </c>
@@ -7655,7 +7660,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>85</v>
       </c>
@@ -7669,7 +7674,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>245</v>
       </c>
@@ -7689,7 +7694,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>85</v>
       </c>
@@ -7703,7 +7708,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>86</v>
       </c>
@@ -7717,7 +7722,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>87</v>
       </c>
@@ -7731,7 +7736,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>390</v>
       </c>
@@ -7751,7 +7756,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>84</v>
       </c>
@@ -7765,7 +7770,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>344</v>
       </c>
@@ -7785,7 +7790,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>83</v>
       </c>
@@ -7799,7 +7804,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>84</v>
       </c>
@@ -7813,7 +7818,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>315</v>
       </c>
@@ -7833,7 +7838,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>90</v>
       </c>
@@ -7847,7 +7852,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>83</v>
       </c>
@@ -7861,7 +7866,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>84</v>
       </c>
@@ -7875,7 +7880,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>85</v>
       </c>
@@ -7889,7 +7894,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>408</v>
       </c>
@@ -7906,7 +7911,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
         <v>335</v>
       </c>
@@ -7917,7 +7922,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>354</v>
       </c>
@@ -7937,7 +7942,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>85</v>
       </c>
@@ -7951,7 +7956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>86</v>
       </c>
@@ -7965,7 +7970,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>256</v>
       </c>
@@ -7985,7 +7990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>84</v>
       </c>
@@ -7999,7 +8004,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>85</v>
       </c>
@@ -8013,7 +8018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>404</v>
       </c>
@@ -8051,17 +8056,17 @@
       <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -8081,7 +8086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>435</v>
       </c>
@@ -8101,7 +8106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>84</v>
       </c>
@@ -8115,7 +8120,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>85</v>
       </c>
@@ -8129,7 +8134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -8149,7 +8154,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>90</v>
       </c>
@@ -8163,7 +8168,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>83</v>
       </c>
@@ -8177,7 +8182,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>84</v>
       </c>
@@ -8191,7 +8196,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>250</v>
       </c>
@@ -8211,7 +8216,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>85</v>
       </c>
@@ -8225,7 +8230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>86</v>
       </c>
@@ -8239,7 +8244,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>87</v>
       </c>
@@ -8253,7 +8258,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>336</v>
       </c>
@@ -8273,7 +8278,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>84</v>
       </c>
@@ -8287,7 +8292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>85</v>
       </c>
@@ -8301,7 +8306,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>86</v>
       </c>
@@ -8315,7 +8320,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>87</v>
       </c>
@@ -8329,7 +8334,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>396</v>
       </c>
@@ -8349,7 +8354,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>83</v>
       </c>
@@ -8363,7 +8368,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>84</v>
       </c>
@@ -8377,7 +8382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>85</v>
       </c>
@@ -8391,7 +8396,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>86</v>
       </c>
@@ -8405,7 +8410,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>372</v>
       </c>
@@ -8425,7 +8430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>83</v>
       </c>
@@ -8439,7 +8444,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>84</v>
       </c>
@@ -8453,7 +8458,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>85</v>
       </c>
@@ -8467,7 +8472,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>86</v>
       </c>
@@ -8481,7 +8486,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>87</v>
       </c>
@@ -8495,7 +8500,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>444</v>
       </c>
@@ -8515,7 +8520,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>84</v>
       </c>
@@ -8529,7 +8534,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>85</v>
       </c>
@@ -8543,7 +8548,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>86</v>
       </c>
@@ -8557,7 +8562,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>375</v>
       </c>
@@ -8577,7 +8582,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>84</v>
       </c>
@@ -8591,7 +8596,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>85</v>
       </c>
@@ -8605,7 +8610,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>291</v>
       </c>
@@ -8625,7 +8630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>83</v>
       </c>
@@ -8639,7 +8644,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>84</v>
       </c>
@@ -8653,7 +8658,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>347</v>
       </c>
@@ -8673,7 +8678,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>90</v>
       </c>
@@ -8687,7 +8692,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>295</v>
       </c>
@@ -8707,7 +8712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>85</v>
       </c>
@@ -8721,7 +8726,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>299</v>
       </c>
@@ -8741,7 +8746,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>84</v>
       </c>
@@ -8755,7 +8760,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>85</v>
       </c>
@@ -8769,7 +8774,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>301</v>
       </c>
@@ -8789,7 +8794,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>90</v>
       </c>
@@ -8803,7 +8808,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>83</v>
       </c>
@@ -8817,7 +8822,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>84</v>
       </c>
@@ -8831,7 +8836,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>85</v>
       </c>
@@ -8845,7 +8850,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>86</v>
       </c>
@@ -8859,7 +8864,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>390</v>
       </c>
@@ -8879,7 +8884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>84</v>
       </c>
@@ -8893,7 +8898,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>85</v>
       </c>
@@ -8907,7 +8912,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>86</v>
       </c>
@@ -8921,7 +8926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>87</v>
       </c>
@@ -8935,7 +8940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>344</v>
       </c>
@@ -8955,7 +8960,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>315</v>
       </c>
@@ -8975,7 +8980,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>90</v>
       </c>
@@ -8989,7 +8994,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>83</v>
       </c>
@@ -9003,7 +9008,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>84</v>
       </c>
@@ -9017,7 +9022,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>461</v>
       </c>
@@ -9037,7 +9042,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>84</v>
       </c>
@@ -9051,7 +9056,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>85</v>
       </c>
@@ -9065,7 +9070,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>86</v>
       </c>
@@ -9079,7 +9084,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>87</v>
       </c>
@@ -9093,7 +9098,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>464</v>
       </c>
@@ -9113,7 +9118,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>83</v>
       </c>
@@ -9127,7 +9132,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>84</v>
       </c>
@@ -9141,7 +9146,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>256</v>
       </c>
@@ -9161,7 +9166,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>84</v>
       </c>
@@ -9175,7 +9180,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>85</v>
       </c>
@@ -9189,7 +9194,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>86</v>
       </c>
@@ -9203,7 +9208,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>87</v>
       </c>
@@ -9217,7 +9222,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>404</v>
       </c>
@@ -9237,7 +9242,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>84</v>
       </c>
@@ -9251,7 +9256,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>406</v>
       </c>
@@ -9271,7 +9276,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>407</v>
       </c>
@@ -9285,7 +9290,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>407</v>
       </c>
@@ -9299,7 +9304,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>86</v>
       </c>
@@ -9313,7 +9318,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>87</v>
       </c>
@@ -9327,7 +9332,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>408</v>
       </c>
@@ -9344,7 +9349,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
         <v>91</v>
       </c>
@@ -9355,7 +9360,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
         <v>356</v>
       </c>
@@ -9378,23 +9383,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E29" activeCellId="4" sqref="E2:E8 E10:E14 E16:E19 E22:E27 E29:E31"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E34" activeCellId="5" sqref="E2:E8 E10:E14 E16:E19 E22:E27 E29:E31 E34:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -9414,7 +9419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -9434,7 +9439,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>90</v>
       </c>
@@ -9448,7 +9453,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>83</v>
       </c>
@@ -9462,7 +9467,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>84</v>
       </c>
@@ -9476,7 +9481,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>85</v>
       </c>
@@ -9490,7 +9495,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>86</v>
       </c>
@@ -9504,7 +9509,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>87</v>
       </c>
@@ -9518,7 +9523,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>336</v>
       </c>
@@ -9538,7 +9543,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>84</v>
       </c>
@@ -9552,7 +9557,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>85</v>
       </c>
@@ -9566,7 +9571,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>86</v>
       </c>
@@ -9580,7 +9585,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>87</v>
       </c>
@@ -9594,7 +9599,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>396</v>
       </c>
@@ -9614,7 +9619,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>83</v>
       </c>
@@ -9628,7 +9633,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>84</v>
       </c>
@@ -9642,7 +9647,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>85</v>
       </c>
@@ -9656,7 +9661,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>86</v>
       </c>
@@ -9670,7 +9675,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>372</v>
       </c>
@@ -9690,7 +9695,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>83</v>
       </c>
@@ -9704,7 +9709,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>84</v>
       </c>
@@ -9718,7 +9723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>85</v>
       </c>
@@ -9732,7 +9737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>86</v>
       </c>
@@ -9746,7 +9751,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>87</v>
       </c>
@@ -9760,7 +9765,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>444</v>
       </c>
@@ -9780,7 +9785,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>84</v>
       </c>
@@ -9794,7 +9799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>85</v>
       </c>
@@ -9808,7 +9813,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>86</v>
       </c>
@@ -9820,6 +9825,68 @@
       </c>
       <c r="F32" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>377</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" t="s">
+        <v>476</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" t="s">
+        <v>418</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -9836,20 +9903,20 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -9869,7 +9936,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -9891,7 +9958,7 @@
       </c>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -9913,7 +9980,7 @@
       </c>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -9934,7 +10001,7 @@
         <v>0.23529411764705882</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -9955,7 +10022,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -9976,7 +10043,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -9997,34 +10064,34 @@
         <v>0.765625</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ref="C9:E9" si="1">SUM(C2:C8)</f>
@@ -10032,7 +10099,7 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
@@ -10040,16 +10107,16 @@
       </c>
       <c r="F9" s="3">
         <f>(D9-E9)/D9</f>
-        <v>0.63524590163934425</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.63967611336032393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>15.857142857142858</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ref="C10:E10" si="2">AVERAGE(C2:C8)</f>
@@ -10057,7 +10124,7 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" si="2"/>
-        <v>34.857142857142854</v>
+        <v>35.285714285714285</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
@@ -10065,7 +10132,7 @@
       </c>
       <c r="F10" s="3">
         <f t="shared" ref="F10" si="3">(D10-E10)/D10</f>
-        <v>0.63524590163934425</v>
+        <v>0.63967611336032382</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Jannik Sinner.xlsx
+++ b/Tennis/ATP Tour/Jannik Sinner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{CDAADD05-1470-488F-A8B7-54C6C98C696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AA5E220-1CB1-42F3-9C30-8A749E8541CF}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{CDAADD05-1470-488F-A8B7-54C6C98C696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E2848D8-5C2B-46E0-BCC2-F38581A65943}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="14" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="484">
   <si>
     <t>6-2 6-3</t>
   </si>
@@ -1473,6 +1473,27 @@
   </si>
   <si>
     <t>Pavel Kotov (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Chris Eubanks (USA)</t>
+  </si>
+  <si>
+    <t>2-6 6-3 3-6 6-4 6-3</t>
+  </si>
+  <si>
+    <t>6-2 6-4 7-6(3)</t>
+  </si>
+  <si>
+    <t>2-6 6-3 6-2 6-1</t>
+  </si>
+  <si>
+    <t>6-4 6-4 6-4</t>
+  </si>
+  <si>
+    <t>6-3 6-3 6-4</t>
+  </si>
+  <si>
+    <t>Corentin Moutet (FRANCE)</t>
   </si>
 </sst>
 </file>
@@ -1750,7 +1771,7 @@
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1840,7 +1861,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2334,7 +2355,7 @@
                   <c:v>0.765625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9285714285714286</c:v>
+                  <c:v>0.90909090909090906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3823,6 +3844,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4129,17 +4154,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -4159,7 +4184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>259</v>
       </c>
@@ -4179,7 +4204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>264</v>
       </c>
@@ -4199,7 +4224,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>84</v>
       </c>
@@ -4213,7 +4238,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>265</v>
       </c>
@@ -4251,17 +4276,17 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -4281,7 +4306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>266</v>
       </c>
@@ -4301,7 +4326,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>83</v>
       </c>
@@ -4315,7 +4340,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>84</v>
       </c>
@@ -4329,7 +4354,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>85</v>
       </c>
@@ -4343,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>86</v>
       </c>
@@ -4357,7 +4382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>87</v>
       </c>
@@ -4371,7 +4396,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>273</v>
       </c>
@@ -4391,7 +4416,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>274</v>
       </c>
@@ -4411,7 +4436,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>83</v>
       </c>
@@ -4425,7 +4450,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>277</v>
       </c>
@@ -4445,7 +4470,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>279</v>
       </c>
@@ -4459,7 +4484,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>83</v>
       </c>
@@ -4473,7 +4498,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>84</v>
       </c>
@@ -4487,7 +4512,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>284</v>
       </c>
@@ -4507,7 +4532,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>83</v>
       </c>
@@ -4521,7 +4546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>84</v>
       </c>
@@ -4535,7 +4560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>85</v>
       </c>
@@ -4549,7 +4574,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>86</v>
       </c>
@@ -4563,7 +4588,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>87</v>
       </c>
@@ -4577,7 +4602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>291</v>
       </c>
@@ -4597,7 +4622,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>83</v>
       </c>
@@ -4611,7 +4636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>293</v>
       </c>
@@ -4631,7 +4656,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>83</v>
       </c>
@@ -4645,7 +4670,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>295</v>
       </c>
@@ -4665,7 +4690,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>279</v>
       </c>
@@ -4679,7 +4704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>83</v>
       </c>
@@ -4693,7 +4718,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>299</v>
       </c>
@@ -4713,7 +4738,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>301</v>
       </c>
@@ -4733,7 +4758,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>245</v>
       </c>
@@ -4753,7 +4778,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>84</v>
       </c>
@@ -4767,7 +4792,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>305</v>
       </c>
@@ -4787,7 +4812,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>84</v>
       </c>
@@ -4801,7 +4826,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>308</v>
       </c>
@@ -4821,7 +4846,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>84</v>
       </c>
@@ -4835,7 +4860,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>85</v>
       </c>
@@ -4849,7 +4874,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>86</v>
       </c>
@@ -4863,7 +4888,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>87</v>
       </c>
@@ -4877,7 +4902,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>312</v>
       </c>
@@ -4897,7 +4922,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>83</v>
       </c>
@@ -4911,7 +4936,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>315</v>
       </c>
@@ -4931,7 +4956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>279</v>
       </c>
@@ -4945,7 +4970,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>316</v>
       </c>
@@ -4959,7 +4984,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>88</v>
       </c>
@@ -4973,7 +4998,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>320</v>
       </c>
@@ -4993,7 +5018,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>322</v>
       </c>
@@ -5013,7 +5038,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>84</v>
       </c>
@@ -5027,7 +5052,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>323</v>
       </c>
@@ -5047,7 +5072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>84</v>
       </c>
@@ -5061,7 +5086,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>85</v>
       </c>
@@ -5075,7 +5100,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>86</v>
       </c>
@@ -5089,7 +5114,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>326</v>
       </c>
@@ -5109,7 +5134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>84</v>
       </c>
@@ -5123,7 +5148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>85</v>
       </c>
@@ -5137,7 +5162,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>86</v>
       </c>
@@ -5151,7 +5176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>256</v>
       </c>
@@ -5171,7 +5196,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>84</v>
       </c>
@@ -5185,7 +5210,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>264</v>
       </c>
@@ -5205,7 +5230,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>84</v>
       </c>
@@ -5219,7 +5244,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>85</v>
       </c>
@@ -5233,7 +5258,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>86</v>
       </c>
@@ -5247,7 +5272,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>87</v>
       </c>
@@ -5279,17 +5304,17 @@
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -5309,7 +5334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>331</v>
       </c>
@@ -5329,7 +5354,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>359</v>
       </c>
@@ -5349,7 +5374,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -5369,7 +5394,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>90</v>
       </c>
@@ -5383,7 +5408,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>250</v>
       </c>
@@ -5403,7 +5428,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>336</v>
       </c>
@@ -5423,7 +5448,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>84</v>
       </c>
@@ -5437,7 +5462,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>85</v>
       </c>
@@ -5451,7 +5476,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>341</v>
       </c>
@@ -5471,7 +5496,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>84</v>
       </c>
@@ -5485,7 +5510,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>342</v>
       </c>
@@ -5505,7 +5530,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>84</v>
       </c>
@@ -5519,7 +5544,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>344</v>
       </c>
@@ -5539,7 +5564,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>315</v>
       </c>
@@ -5559,7 +5584,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>345</v>
       </c>
@@ -5579,7 +5604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>84</v>
       </c>
@@ -5593,7 +5618,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>291</v>
       </c>
@@ -5613,7 +5638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>83</v>
       </c>
@@ -5627,7 +5652,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>84</v>
       </c>
@@ -5641,7 +5666,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>347</v>
       </c>
@@ -5661,7 +5686,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>90</v>
       </c>
@@ -5675,7 +5700,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>83</v>
       </c>
@@ -5689,7 +5714,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>84</v>
       </c>
@@ -5703,7 +5728,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>85</v>
       </c>
@@ -5717,7 +5742,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>256</v>
       </c>
@@ -5737,7 +5762,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>84</v>
       </c>
@@ -5751,7 +5776,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>354</v>
       </c>
@@ -5771,7 +5796,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>84</v>
       </c>
@@ -5785,7 +5810,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>85</v>
       </c>
@@ -5799,7 +5824,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>86</v>
       </c>
@@ -5813,7 +5838,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>87</v>
       </c>
@@ -5844,17 +5869,17 @@
       <selection activeCell="A2" activeCellId="3" sqref="A55 A71 A80 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -5874,7 +5899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>360</v>
       </c>
@@ -5894,7 +5919,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>84</v>
       </c>
@@ -5908,7 +5933,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>85</v>
       </c>
@@ -5922,7 +5947,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>86</v>
       </c>
@@ -5936,7 +5961,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>87</v>
       </c>
@@ -5950,7 +5975,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -5970,7 +5995,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>250</v>
       </c>
@@ -5990,7 +6015,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>341</v>
       </c>
@@ -6010,7 +6035,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>84</v>
       </c>
@@ -6024,7 +6049,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>85</v>
       </c>
@@ -6038,7 +6063,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>367</v>
       </c>
@@ -6058,7 +6083,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>84</v>
       </c>
@@ -6072,7 +6097,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>85</v>
       </c>
@@ -6086,7 +6111,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>372</v>
       </c>
@@ -6106,7 +6131,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>83</v>
       </c>
@@ -6120,7 +6145,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>84</v>
       </c>
@@ -6134,7 +6159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>85</v>
       </c>
@@ -6148,7 +6173,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>86</v>
       </c>
@@ -6162,7 +6187,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>87</v>
       </c>
@@ -6176,7 +6201,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>373</v>
       </c>
@@ -6196,7 +6221,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>83</v>
       </c>
@@ -6210,7 +6235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>375</v>
       </c>
@@ -6230,7 +6255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>84</v>
       </c>
@@ -6244,7 +6269,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>85</v>
       </c>
@@ -6258,7 +6283,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>86</v>
       </c>
@@ -6272,7 +6297,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>377</v>
       </c>
@@ -6292,7 +6317,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>83</v>
       </c>
@@ -6306,7 +6331,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>291</v>
       </c>
@@ -6326,7 +6351,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>83</v>
       </c>
@@ -6340,7 +6365,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>293</v>
       </c>
@@ -6360,7 +6385,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>84</v>
       </c>
@@ -6374,7 +6399,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>347</v>
       </c>
@@ -6394,7 +6419,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>90</v>
       </c>
@@ -6408,7 +6433,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>83</v>
       </c>
@@ -6422,7 +6447,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>84</v>
       </c>
@@ -6436,7 +6461,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>387</v>
       </c>
@@ -6456,7 +6481,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>301</v>
       </c>
@@ -6476,7 +6501,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>389</v>
       </c>
@@ -6496,7 +6521,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>244</v>
       </c>
@@ -6516,7 +6541,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>84</v>
       </c>
@@ -6530,7 +6555,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>85</v>
       </c>
@@ -6544,7 +6569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>86</v>
       </c>
@@ -6558,7 +6583,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>87</v>
       </c>
@@ -6572,7 +6597,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>390</v>
       </c>
@@ -6592,7 +6617,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>344</v>
       </c>
@@ -6612,7 +6637,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>83</v>
       </c>
@@ -6626,7 +6651,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>315</v>
       </c>
@@ -6646,7 +6671,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>90</v>
       </c>
@@ -6660,7 +6685,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>83</v>
       </c>
@@ -6674,7 +6699,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>84</v>
       </c>
@@ -6688,7 +6713,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>354</v>
       </c>
@@ -6708,7 +6733,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>85</v>
       </c>
@@ -6722,7 +6747,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>86</v>
       </c>
@@ -6736,7 +6761,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>87</v>
       </c>
@@ -6750,7 +6775,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>396</v>
       </c>
@@ -6770,7 +6795,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>83</v>
       </c>
@@ -6784,7 +6809,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>84</v>
       </c>
@@ -6798,7 +6823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>326</v>
       </c>
@@ -6818,7 +6843,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>85</v>
       </c>
@@ -6832,7 +6857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>86</v>
       </c>
@@ -6846,7 +6871,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>87</v>
       </c>
@@ -6860,7 +6885,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>256</v>
       </c>
@@ -6880,7 +6905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>84</v>
       </c>
@@ -6894,7 +6919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>85</v>
       </c>
@@ -6908,7 +6933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>86</v>
       </c>
@@ -6922,7 +6947,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>404</v>
       </c>
@@ -6942,7 +6967,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>405</v>
       </c>
@@ -6962,7 +6987,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>406</v>
       </c>
@@ -6982,7 +7007,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>407</v>
       </c>
@@ -6996,7 +7021,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>408</v>
       </c>
@@ -7013,7 +7038,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D98" t="s">
         <v>409</v>
       </c>
@@ -7024,7 +7049,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
         <v>410</v>
       </c>
@@ -7052,17 +7077,17 @@
       <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -7082,7 +7107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -7102,7 +7127,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>90</v>
       </c>
@@ -7116,7 +7141,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>83</v>
       </c>
@@ -7130,7 +7155,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>84</v>
       </c>
@@ -7144,7 +7169,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>85</v>
       </c>
@@ -7158,7 +7183,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>367</v>
       </c>
@@ -7178,7 +7203,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>84</v>
       </c>
@@ -7192,7 +7217,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>85</v>
       </c>
@@ -7206,7 +7231,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>408</v>
       </c>
@@ -7223,7 +7248,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>340</v>
       </c>
@@ -7234,7 +7259,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>396</v>
       </c>
@@ -7254,7 +7279,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>83</v>
       </c>
@@ -7268,7 +7293,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>84</v>
       </c>
@@ -7282,7 +7307,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>372</v>
       </c>
@@ -7302,7 +7327,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>83</v>
       </c>
@@ -7316,7 +7341,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>84</v>
       </c>
@@ -7330,7 +7355,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>85</v>
       </c>
@@ -7344,7 +7369,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>373</v>
       </c>
@@ -7364,7 +7389,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>83</v>
       </c>
@@ -7378,7 +7403,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>84</v>
       </c>
@@ -7392,7 +7417,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>85</v>
       </c>
@@ -7406,7 +7431,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>377</v>
       </c>
@@ -7426,7 +7451,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>83</v>
       </c>
@@ -7440,7 +7465,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>84</v>
       </c>
@@ -7454,7 +7479,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>291</v>
       </c>
@@ -7474,7 +7499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>83</v>
       </c>
@@ -7488,7 +7513,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>84</v>
       </c>
@@ -7502,7 +7527,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>85</v>
       </c>
@@ -7516,7 +7541,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>347</v>
       </c>
@@ -7536,7 +7561,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>90</v>
       </c>
@@ -7550,7 +7575,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>83</v>
       </c>
@@ -7564,7 +7589,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>84</v>
       </c>
@@ -7578,7 +7603,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>422</v>
       </c>
@@ -7598,7 +7623,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>301</v>
       </c>
@@ -7618,7 +7643,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>90</v>
       </c>
@@ -7632,7 +7657,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>83</v>
       </c>
@@ -7646,7 +7671,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>84</v>
       </c>
@@ -7660,7 +7685,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>85</v>
       </c>
@@ -7674,7 +7699,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>245</v>
       </c>
@@ -7694,7 +7719,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>85</v>
       </c>
@@ -7708,7 +7733,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>86</v>
       </c>
@@ -7722,7 +7747,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>87</v>
       </c>
@@ -7736,7 +7761,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>390</v>
       </c>
@@ -7756,7 +7781,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>84</v>
       </c>
@@ -7770,7 +7795,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>344</v>
       </c>
@@ -7790,7 +7815,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>83</v>
       </c>
@@ -7804,7 +7829,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>84</v>
       </c>
@@ -7818,7 +7843,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>315</v>
       </c>
@@ -7838,7 +7863,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>90</v>
       </c>
@@ -7852,7 +7877,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>83</v>
       </c>
@@ -7866,7 +7891,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>84</v>
       </c>
@@ -7880,7 +7905,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>85</v>
       </c>
@@ -7894,7 +7919,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>408</v>
       </c>
@@ -7911,7 +7936,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>335</v>
       </c>
@@ -7922,7 +7947,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>354</v>
       </c>
@@ -7942,7 +7967,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>85</v>
       </c>
@@ -7956,7 +7981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>86</v>
       </c>
@@ -7970,7 +7995,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>256</v>
       </c>
@@ -7990,7 +8015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>84</v>
       </c>
@@ -8004,7 +8029,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>85</v>
       </c>
@@ -8018,7 +8043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>404</v>
       </c>
@@ -8056,17 +8081,17 @@
       <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -8086,7 +8111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>435</v>
       </c>
@@ -8106,7 +8131,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>84</v>
       </c>
@@ -8120,7 +8145,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>85</v>
       </c>
@@ -8134,7 +8159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -8154,7 +8179,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>90</v>
       </c>
@@ -8168,7 +8193,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>83</v>
       </c>
@@ -8182,7 +8207,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>84</v>
       </c>
@@ -8196,7 +8221,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>250</v>
       </c>
@@ -8216,7 +8241,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>85</v>
       </c>
@@ -8230,7 +8255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>86</v>
       </c>
@@ -8244,7 +8269,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>87</v>
       </c>
@@ -8258,7 +8283,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>336</v>
       </c>
@@ -8278,7 +8303,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>84</v>
       </c>
@@ -8292,7 +8317,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>85</v>
       </c>
@@ -8306,7 +8331,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>86</v>
       </c>
@@ -8320,7 +8345,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>87</v>
       </c>
@@ -8334,7 +8359,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>396</v>
       </c>
@@ -8354,7 +8379,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>83</v>
       </c>
@@ -8368,7 +8393,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>84</v>
       </c>
@@ -8382,7 +8407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>85</v>
       </c>
@@ -8396,7 +8421,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>86</v>
       </c>
@@ -8410,7 +8435,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>372</v>
       </c>
@@ -8430,7 +8455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>83</v>
       </c>
@@ -8444,7 +8469,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>84</v>
       </c>
@@ -8458,7 +8483,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>85</v>
       </c>
@@ -8472,7 +8497,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>86</v>
       </c>
@@ -8486,7 +8511,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>87</v>
       </c>
@@ -8500,7 +8525,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>444</v>
       </c>
@@ -8520,7 +8545,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>84</v>
       </c>
@@ -8534,7 +8559,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>85</v>
       </c>
@@ -8548,7 +8573,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>86</v>
       </c>
@@ -8562,7 +8587,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>375</v>
       </c>
@@ -8582,7 +8607,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>84</v>
       </c>
@@ -8596,7 +8621,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>85</v>
       </c>
@@ -8610,7 +8635,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>291</v>
       </c>
@@ -8630,7 +8655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>83</v>
       </c>
@@ -8644,7 +8669,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>84</v>
       </c>
@@ -8658,7 +8683,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>347</v>
       </c>
@@ -8678,7 +8703,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>90</v>
       </c>
@@ -8692,7 +8717,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>295</v>
       </c>
@@ -8712,7 +8737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>85</v>
       </c>
@@ -8726,7 +8751,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>299</v>
       </c>
@@ -8746,7 +8771,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>84</v>
       </c>
@@ -8760,7 +8785,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>85</v>
       </c>
@@ -8774,7 +8799,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>301</v>
       </c>
@@ -8794,7 +8819,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>90</v>
       </c>
@@ -8808,7 +8833,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>83</v>
       </c>
@@ -8822,7 +8847,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>84</v>
       </c>
@@ -8836,7 +8861,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>85</v>
       </c>
@@ -8850,7 +8875,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>86</v>
       </c>
@@ -8864,7 +8889,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>390</v>
       </c>
@@ -8884,7 +8909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>84</v>
       </c>
@@ -8898,7 +8923,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>85</v>
       </c>
@@ -8912,7 +8937,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>86</v>
       </c>
@@ -8926,7 +8951,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>87</v>
       </c>
@@ -8940,7 +8965,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>344</v>
       </c>
@@ -8960,7 +8985,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>315</v>
       </c>
@@ -8980,7 +9005,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>90</v>
       </c>
@@ -8994,7 +9019,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>83</v>
       </c>
@@ -9008,7 +9033,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>84</v>
       </c>
@@ -9022,7 +9047,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>461</v>
       </c>
@@ -9042,7 +9067,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>84</v>
       </c>
@@ -9056,7 +9081,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>85</v>
       </c>
@@ -9070,7 +9095,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>86</v>
       </c>
@@ -9084,7 +9109,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>87</v>
       </c>
@@ -9098,7 +9123,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>464</v>
       </c>
@@ -9118,7 +9143,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>83</v>
       </c>
@@ -9132,7 +9157,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>84</v>
       </c>
@@ -9146,7 +9171,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>256</v>
       </c>
@@ -9166,7 +9191,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>84</v>
       </c>
@@ -9180,7 +9205,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>85</v>
       </c>
@@ -9194,7 +9219,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>86</v>
       </c>
@@ -9208,7 +9233,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>87</v>
       </c>
@@ -9222,7 +9247,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>404</v>
       </c>
@@ -9242,7 +9267,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>84</v>
       </c>
@@ -9256,7 +9281,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>406</v>
       </c>
@@ -9276,7 +9301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>407</v>
       </c>
@@ -9290,7 +9315,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>407</v>
       </c>
@@ -9304,7 +9329,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>86</v>
       </c>
@@ -9318,7 +9343,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>87</v>
       </c>
@@ -9332,7 +9357,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>408</v>
       </c>
@@ -9349,7 +9374,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D104" t="s">
         <v>91</v>
       </c>
@@ -9360,7 +9385,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D105" t="s">
         <v>356</v>
       </c>
@@ -9383,23 +9408,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E34" activeCellId="5" sqref="E2:E8 E10:E14 E16:E19 E22:E27 E29:E31 E34:E36"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E39" activeCellId="6" sqref="E2:E8 E10:E14 E16:E19 E22:E27 E29:E31 E34:E36 E39:E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -9419,7 +9444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -9439,7 +9464,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>90</v>
       </c>
@@ -9453,7 +9478,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>83</v>
       </c>
@@ -9467,7 +9492,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>84</v>
       </c>
@@ -9481,7 +9506,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>85</v>
       </c>
@@ -9495,7 +9520,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>86</v>
       </c>
@@ -9509,7 +9534,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>87</v>
       </c>
@@ -9523,7 +9548,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>336</v>
       </c>
@@ -9543,7 +9568,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>84</v>
       </c>
@@ -9557,7 +9582,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>85</v>
       </c>
@@ -9571,7 +9596,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>86</v>
       </c>
@@ -9585,7 +9610,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>87</v>
       </c>
@@ -9599,7 +9624,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>396</v>
       </c>
@@ -9619,7 +9644,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>83</v>
       </c>
@@ -9633,7 +9658,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>84</v>
       </c>
@@ -9647,7 +9672,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>85</v>
       </c>
@@ -9661,7 +9686,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>86</v>
       </c>
@@ -9675,7 +9700,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>372</v>
       </c>
@@ -9695,7 +9720,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>83</v>
       </c>
@@ -9709,7 +9734,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>84</v>
       </c>
@@ -9723,7 +9748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>85</v>
       </c>
@@ -9737,7 +9762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>86</v>
       </c>
@@ -9751,7 +9776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>87</v>
       </c>
@@ -9765,7 +9790,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>444</v>
       </c>
@@ -9785,7 +9810,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>84</v>
       </c>
@@ -9799,7 +9824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>85</v>
       </c>
@@ -9813,7 +9838,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>86</v>
       </c>
@@ -9827,7 +9852,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>377</v>
       </c>
@@ -9847,7 +9872,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>83</v>
       </c>
@@ -9861,7 +9886,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>84</v>
       </c>
@@ -9875,7 +9900,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>85</v>
       </c>
@@ -9887,6 +9912,96 @@
       </c>
       <c r="F37" t="s">
         <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>347</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" t="s">
+        <v>477</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" t="s">
+        <v>452</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" t="s">
+        <v>476</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" t="s">
+        <v>483</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" t="s">
+        <v>346</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" t="s">
+        <v>249</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -9903,20 +10018,20 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -9936,7 +10051,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -9958,7 +10073,7 @@
       </c>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -9980,7 +10095,7 @@
       </c>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -10001,7 +10116,7 @@
         <v>0.23529411764705882</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -10022,7 +10137,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -10043,7 +10158,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -10064,34 +10179,34 @@
         <v>0.765625</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>0.9285714285714286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ref="C9:E9" si="1">SUM(C2:C8)</f>
@@ -10099,24 +10214,24 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F9" s="3">
         <f>(D9-E9)/D9</f>
-        <v>0.63967611336032393</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.6428571428571429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>16</v>
+        <v>16.142857142857142</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ref="C10:E10" si="2">AVERAGE(C2:C8)</f>
@@ -10124,15 +10239,15 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" si="2"/>
-        <v>35.285714285714285</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
-        <v>12.714285714285714</v>
+        <v>12.857142857142858</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" ref="F10" si="3">(D10-E10)/D10</f>
-        <v>0.63967611336032382</v>
+        <v>0.64285714285714279</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Jannik Sinner.xlsx
+++ b/Tennis/ATP Tour/Jannik Sinner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{CDAADD05-1470-488F-A8B7-54C6C98C696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E2848D8-5C2B-46E0-BCC2-F38581A65943}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="13_ncr:1_{CDAADD05-1470-488F-A8B7-54C6C98C696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4D6B034-09A0-4E99-AECD-898740846C6D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="14" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="491">
   <si>
     <t>6-2 6-3</t>
   </si>
@@ -1494,6 +1494,27 @@
   </si>
   <si>
     <t>Corentin Moutet (FRANCE)</t>
+  </si>
+  <si>
+    <t>Fábián Marozsán (HUNGARY)</t>
+  </si>
+  <si>
+    <t>ZZ Zhang (CHINA)</t>
+  </si>
+  <si>
+    <t>6-4 7-6(3)</t>
+  </si>
+  <si>
+    <t>7-6(8) 7-6(2)</t>
+  </si>
+  <si>
+    <t>6-7(8) 6-3 6-2</t>
+  </si>
+  <si>
+    <t>6-4 6-7(4) 6-3</t>
+  </si>
+  <si>
+    <t>6-2 6-7(1) 7-6(3)</t>
   </si>
 </sst>
 </file>
@@ -1771,7 +1792,7 @@
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2355,7 +2376,7 @@
                   <c:v>0.765625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.90909090909090906</c:v>
+                  <c:v>0.92105263157894735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4154,17 +4175,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -4184,7 +4205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>259</v>
       </c>
@@ -4204,7 +4225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>264</v>
       </c>
@@ -4224,7 +4245,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>84</v>
       </c>
@@ -4238,7 +4259,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>265</v>
       </c>
@@ -4276,17 +4297,17 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -4306,7 +4327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>266</v>
       </c>
@@ -4326,7 +4347,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>83</v>
       </c>
@@ -4340,7 +4361,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>84</v>
       </c>
@@ -4354,7 +4375,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>85</v>
       </c>
@@ -4368,7 +4389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>86</v>
       </c>
@@ -4382,7 +4403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>87</v>
       </c>
@@ -4396,7 +4417,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>273</v>
       </c>
@@ -4416,7 +4437,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>274</v>
       </c>
@@ -4436,7 +4457,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>83</v>
       </c>
@@ -4450,7 +4471,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>277</v>
       </c>
@@ -4470,7 +4491,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>279</v>
       </c>
@@ -4484,7 +4505,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>83</v>
       </c>
@@ -4498,7 +4519,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>84</v>
       </c>
@@ -4512,7 +4533,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>284</v>
       </c>
@@ -4532,7 +4553,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>83</v>
       </c>
@@ -4546,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>84</v>
       </c>
@@ -4560,7 +4581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>85</v>
       </c>
@@ -4574,7 +4595,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>86</v>
       </c>
@@ -4588,7 +4609,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>87</v>
       </c>
@@ -4602,7 +4623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>291</v>
       </c>
@@ -4622,7 +4643,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>83</v>
       </c>
@@ -4636,7 +4657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>293</v>
       </c>
@@ -4656,7 +4677,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>83</v>
       </c>
@@ -4670,7 +4691,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>295</v>
       </c>
@@ -4690,7 +4711,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>279</v>
       </c>
@@ -4704,7 +4725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>83</v>
       </c>
@@ -4718,7 +4739,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>299</v>
       </c>
@@ -4738,7 +4759,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>301</v>
       </c>
@@ -4758,7 +4779,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>245</v>
       </c>
@@ -4778,7 +4799,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>84</v>
       </c>
@@ -4792,7 +4813,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>305</v>
       </c>
@@ -4812,7 +4833,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>84</v>
       </c>
@@ -4826,7 +4847,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>308</v>
       </c>
@@ -4846,7 +4867,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>84</v>
       </c>
@@ -4860,7 +4881,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>85</v>
       </c>
@@ -4874,7 +4895,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>86</v>
       </c>
@@ -4888,7 +4909,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>87</v>
       </c>
@@ -4902,7 +4923,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>312</v>
       </c>
@@ -4922,7 +4943,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>83</v>
       </c>
@@ -4936,7 +4957,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>315</v>
       </c>
@@ -4956,7 +4977,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>279</v>
       </c>
@@ -4970,7 +4991,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>316</v>
       </c>
@@ -4984,7 +5005,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>88</v>
       </c>
@@ -4998,7 +5019,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>320</v>
       </c>
@@ -5018,7 +5039,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>322</v>
       </c>
@@ -5038,7 +5059,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>84</v>
       </c>
@@ -5052,7 +5073,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>323</v>
       </c>
@@ -5072,7 +5093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>84</v>
       </c>
@@ -5086,7 +5107,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>85</v>
       </c>
@@ -5100,7 +5121,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>86</v>
       </c>
@@ -5114,7 +5135,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>326</v>
       </c>
@@ -5134,7 +5155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>84</v>
       </c>
@@ -5148,7 +5169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>85</v>
       </c>
@@ -5162,7 +5183,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>86</v>
       </c>
@@ -5176,7 +5197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>256</v>
       </c>
@@ -5196,7 +5217,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>84</v>
       </c>
@@ -5210,7 +5231,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>264</v>
       </c>
@@ -5230,7 +5251,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>84</v>
       </c>
@@ -5244,7 +5265,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>85</v>
       </c>
@@ -5258,7 +5279,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>86</v>
       </c>
@@ -5272,7 +5293,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>87</v>
       </c>
@@ -5304,17 +5325,17 @@
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -5334,7 +5355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>331</v>
       </c>
@@ -5354,7 +5375,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>359</v>
       </c>
@@ -5374,7 +5395,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -5394,7 +5415,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>90</v>
       </c>
@@ -5408,7 +5429,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>250</v>
       </c>
@@ -5428,7 +5449,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>336</v>
       </c>
@@ -5448,7 +5469,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>84</v>
       </c>
@@ -5462,7 +5483,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>85</v>
       </c>
@@ -5476,7 +5497,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>341</v>
       </c>
@@ -5496,7 +5517,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>84</v>
       </c>
@@ -5510,7 +5531,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>342</v>
       </c>
@@ -5530,7 +5551,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>84</v>
       </c>
@@ -5544,7 +5565,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>344</v>
       </c>
@@ -5564,7 +5585,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>315</v>
       </c>
@@ -5584,7 +5605,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>345</v>
       </c>
@@ -5604,7 +5625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>84</v>
       </c>
@@ -5618,7 +5639,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>291</v>
       </c>
@@ -5638,7 +5659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>83</v>
       </c>
@@ -5652,7 +5673,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>84</v>
       </c>
@@ -5666,7 +5687,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>347</v>
       </c>
@@ -5686,7 +5707,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>90</v>
       </c>
@@ -5700,7 +5721,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>83</v>
       </c>
@@ -5714,7 +5735,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>84</v>
       </c>
@@ -5728,7 +5749,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>85</v>
       </c>
@@ -5742,7 +5763,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>256</v>
       </c>
@@ -5762,7 +5783,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>84</v>
       </c>
@@ -5776,7 +5797,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>354</v>
       </c>
@@ -5796,7 +5817,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>84</v>
       </c>
@@ -5810,7 +5831,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>85</v>
       </c>
@@ -5824,7 +5845,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>86</v>
       </c>
@@ -5838,7 +5859,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>87</v>
       </c>
@@ -5869,17 +5890,17 @@
       <selection activeCell="A2" activeCellId="3" sqref="A55 A71 A80 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -5899,7 +5920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>360</v>
       </c>
@@ -5919,7 +5940,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>84</v>
       </c>
@@ -5933,7 +5954,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>85</v>
       </c>
@@ -5947,7 +5968,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>86</v>
       </c>
@@ -5961,7 +5982,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>87</v>
       </c>
@@ -5975,7 +5996,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -5995,7 +6016,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>250</v>
       </c>
@@ -6015,7 +6036,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>341</v>
       </c>
@@ -6035,7 +6056,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>84</v>
       </c>
@@ -6049,7 +6070,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>85</v>
       </c>
@@ -6063,7 +6084,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>367</v>
       </c>
@@ -6083,7 +6104,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>84</v>
       </c>
@@ -6097,7 +6118,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>85</v>
       </c>
@@ -6111,7 +6132,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>372</v>
       </c>
@@ -6131,7 +6152,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>83</v>
       </c>
@@ -6145,7 +6166,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>84</v>
       </c>
@@ -6159,7 +6180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>85</v>
       </c>
@@ -6173,7 +6194,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>86</v>
       </c>
@@ -6187,7 +6208,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>87</v>
       </c>
@@ -6201,7 +6222,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>373</v>
       </c>
@@ -6221,7 +6242,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>83</v>
       </c>
@@ -6235,7 +6256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>375</v>
       </c>
@@ -6255,7 +6276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>84</v>
       </c>
@@ -6269,7 +6290,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>85</v>
       </c>
@@ -6283,7 +6304,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>86</v>
       </c>
@@ -6297,7 +6318,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>377</v>
       </c>
@@ -6317,7 +6338,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>83</v>
       </c>
@@ -6331,7 +6352,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>291</v>
       </c>
@@ -6351,7 +6372,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>83</v>
       </c>
@@ -6365,7 +6386,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>293</v>
       </c>
@@ -6385,7 +6406,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>84</v>
       </c>
@@ -6399,7 +6420,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>347</v>
       </c>
@@ -6419,7 +6440,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>90</v>
       </c>
@@ -6433,7 +6454,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>83</v>
       </c>
@@ -6447,7 +6468,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>84</v>
       </c>
@@ -6461,7 +6482,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>387</v>
       </c>
@@ -6481,7 +6502,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>301</v>
       </c>
@@ -6501,7 +6522,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>389</v>
       </c>
@@ -6521,7 +6542,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>244</v>
       </c>
@@ -6541,7 +6562,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>84</v>
       </c>
@@ -6555,7 +6576,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>85</v>
       </c>
@@ -6569,7 +6590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>86</v>
       </c>
@@ -6583,7 +6604,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>87</v>
       </c>
@@ -6597,7 +6618,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>390</v>
       </c>
@@ -6617,7 +6638,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>344</v>
       </c>
@@ -6637,7 +6658,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>83</v>
       </c>
@@ -6651,7 +6672,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>315</v>
       </c>
@@ -6671,7 +6692,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>90</v>
       </c>
@@ -6685,7 +6706,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>83</v>
       </c>
@@ -6699,7 +6720,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>84</v>
       </c>
@@ -6713,7 +6734,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>354</v>
       </c>
@@ -6733,7 +6754,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>85</v>
       </c>
@@ -6747,7 +6768,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>86</v>
       </c>
@@ -6761,7 +6782,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>87</v>
       </c>
@@ -6775,7 +6796,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>396</v>
       </c>
@@ -6795,7 +6816,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>83</v>
       </c>
@@ -6809,7 +6830,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>84</v>
       </c>
@@ -6823,7 +6844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>326</v>
       </c>
@@ -6843,7 +6864,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>85</v>
       </c>
@@ -6857,7 +6878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>86</v>
       </c>
@@ -6871,7 +6892,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>87</v>
       </c>
@@ -6885,7 +6906,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>256</v>
       </c>
@@ -6905,7 +6926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>84</v>
       </c>
@@ -6919,7 +6940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>85</v>
       </c>
@@ -6933,7 +6954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>86</v>
       </c>
@@ -6947,7 +6968,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>404</v>
       </c>
@@ -6967,7 +6988,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>405</v>
       </c>
@@ -6987,7 +7008,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>406</v>
       </c>
@@ -7007,7 +7028,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>407</v>
       </c>
@@ -7021,7 +7042,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>408</v>
       </c>
@@ -7038,7 +7059,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
         <v>409</v>
       </c>
@@ -7049,7 +7070,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
         <v>410</v>
       </c>
@@ -7077,17 +7098,17 @@
       <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -7107,7 +7128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -7127,7 +7148,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>90</v>
       </c>
@@ -7141,7 +7162,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>83</v>
       </c>
@@ -7155,7 +7176,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>84</v>
       </c>
@@ -7169,7 +7190,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>85</v>
       </c>
@@ -7183,7 +7204,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>367</v>
       </c>
@@ -7203,7 +7224,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>84</v>
       </c>
@@ -7217,7 +7238,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>85</v>
       </c>
@@ -7231,7 +7252,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>408</v>
       </c>
@@ -7248,7 +7269,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>340</v>
       </c>
@@ -7259,7 +7280,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>396</v>
       </c>
@@ -7279,7 +7300,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>83</v>
       </c>
@@ -7293,7 +7314,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>84</v>
       </c>
@@ -7307,7 +7328,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>372</v>
       </c>
@@ -7327,7 +7348,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>83</v>
       </c>
@@ -7341,7 +7362,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>84</v>
       </c>
@@ -7355,7 +7376,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>85</v>
       </c>
@@ -7369,7 +7390,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>373</v>
       </c>
@@ -7389,7 +7410,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>83</v>
       </c>
@@ -7403,7 +7424,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>84</v>
       </c>
@@ -7417,7 +7438,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>85</v>
       </c>
@@ -7431,7 +7452,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>377</v>
       </c>
@@ -7451,7 +7472,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>83</v>
       </c>
@@ -7465,7 +7486,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>84</v>
       </c>
@@ -7479,7 +7500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>291</v>
       </c>
@@ -7499,7 +7520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>83</v>
       </c>
@@ -7513,7 +7534,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>84</v>
       </c>
@@ -7527,7 +7548,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>85</v>
       </c>
@@ -7541,7 +7562,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>347</v>
       </c>
@@ -7561,7 +7582,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>90</v>
       </c>
@@ -7575,7 +7596,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>83</v>
       </c>
@@ -7589,7 +7610,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>84</v>
       </c>
@@ -7603,7 +7624,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>422</v>
       </c>
@@ -7623,7 +7644,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>301</v>
       </c>
@@ -7643,7 +7664,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>90</v>
       </c>
@@ -7657,7 +7678,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>83</v>
       </c>
@@ -7671,7 +7692,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>84</v>
       </c>
@@ -7685,7 +7706,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>85</v>
       </c>
@@ -7699,7 +7720,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>245</v>
       </c>
@@ -7719,7 +7740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>85</v>
       </c>
@@ -7733,7 +7754,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>86</v>
       </c>
@@ -7747,7 +7768,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>87</v>
       </c>
@@ -7761,7 +7782,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>390</v>
       </c>
@@ -7781,7 +7802,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>84</v>
       </c>
@@ -7795,7 +7816,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>344</v>
       </c>
@@ -7815,7 +7836,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>83</v>
       </c>
@@ -7829,7 +7850,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>84</v>
       </c>
@@ -7843,7 +7864,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>315</v>
       </c>
@@ -7863,7 +7884,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>90</v>
       </c>
@@ -7877,7 +7898,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>83</v>
       </c>
@@ -7891,7 +7912,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>84</v>
       </c>
@@ -7905,7 +7926,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>85</v>
       </c>
@@ -7919,7 +7940,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>408</v>
       </c>
@@ -7936,7 +7957,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
         <v>335</v>
       </c>
@@ -7947,7 +7968,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>354</v>
       </c>
@@ -7967,7 +7988,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>85</v>
       </c>
@@ -7981,7 +8002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>86</v>
       </c>
@@ -7995,7 +8016,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>256</v>
       </c>
@@ -8015,7 +8036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>84</v>
       </c>
@@ -8029,7 +8050,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>85</v>
       </c>
@@ -8043,7 +8064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>404</v>
       </c>
@@ -8081,17 +8102,17 @@
       <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -8111,7 +8132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>435</v>
       </c>
@@ -8131,7 +8152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>84</v>
       </c>
@@ -8145,7 +8166,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>85</v>
       </c>
@@ -8159,7 +8180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -8179,7 +8200,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>90</v>
       </c>
@@ -8193,7 +8214,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>83</v>
       </c>
@@ -8207,7 +8228,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>84</v>
       </c>
@@ -8221,7 +8242,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>250</v>
       </c>
@@ -8241,7 +8262,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>85</v>
       </c>
@@ -8255,7 +8276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>86</v>
       </c>
@@ -8269,7 +8290,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>87</v>
       </c>
@@ -8283,7 +8304,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>336</v>
       </c>
@@ -8303,7 +8324,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>84</v>
       </c>
@@ -8317,7 +8338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>85</v>
       </c>
@@ -8331,7 +8352,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>86</v>
       </c>
@@ -8345,7 +8366,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>87</v>
       </c>
@@ -8359,7 +8380,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>396</v>
       </c>
@@ -8379,7 +8400,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>83</v>
       </c>
@@ -8393,7 +8414,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>84</v>
       </c>
@@ -8407,7 +8428,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>85</v>
       </c>
@@ -8421,7 +8442,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>86</v>
       </c>
@@ -8435,7 +8456,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>372</v>
       </c>
@@ -8455,7 +8476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>83</v>
       </c>
@@ -8469,7 +8490,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>84</v>
       </c>
@@ -8483,7 +8504,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>85</v>
       </c>
@@ -8497,7 +8518,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>86</v>
       </c>
@@ -8511,7 +8532,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>87</v>
       </c>
@@ -8525,7 +8546,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>444</v>
       </c>
@@ -8545,7 +8566,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>84</v>
       </c>
@@ -8559,7 +8580,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>85</v>
       </c>
@@ -8573,7 +8594,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>86</v>
       </c>
@@ -8587,7 +8608,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>375</v>
       </c>
@@ -8607,7 +8628,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>84</v>
       </c>
@@ -8621,7 +8642,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>85</v>
       </c>
@@ -8635,7 +8656,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>291</v>
       </c>
@@ -8655,7 +8676,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>83</v>
       </c>
@@ -8669,7 +8690,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>84</v>
       </c>
@@ -8683,7 +8704,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>347</v>
       </c>
@@ -8703,7 +8724,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>90</v>
       </c>
@@ -8717,7 +8738,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>295</v>
       </c>
@@ -8737,7 +8758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>85</v>
       </c>
@@ -8751,7 +8772,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>299</v>
       </c>
@@ -8771,7 +8792,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>84</v>
       </c>
@@ -8785,7 +8806,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>85</v>
       </c>
@@ -8799,7 +8820,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>301</v>
       </c>
@@ -8819,7 +8840,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>90</v>
       </c>
@@ -8833,7 +8854,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>83</v>
       </c>
@@ -8847,7 +8868,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>84</v>
       </c>
@@ -8861,7 +8882,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>85</v>
       </c>
@@ -8875,7 +8896,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>86</v>
       </c>
@@ -8889,7 +8910,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>390</v>
       </c>
@@ -8909,7 +8930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>84</v>
       </c>
@@ -8923,7 +8944,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>85</v>
       </c>
@@ -8937,7 +8958,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>86</v>
       </c>
@@ -8951,7 +8972,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>87</v>
       </c>
@@ -8965,7 +8986,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>344</v>
       </c>
@@ -8985,7 +9006,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>315</v>
       </c>
@@ -9005,7 +9026,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>90</v>
       </c>
@@ -9019,7 +9040,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>83</v>
       </c>
@@ -9033,7 +9054,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>84</v>
       </c>
@@ -9047,7 +9068,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>461</v>
       </c>
@@ -9067,7 +9088,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>84</v>
       </c>
@@ -9081,7 +9102,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>85</v>
       </c>
@@ -9095,7 +9116,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>86</v>
       </c>
@@ -9109,7 +9130,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>87</v>
       </c>
@@ -9123,7 +9144,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>464</v>
       </c>
@@ -9143,7 +9164,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>83</v>
       </c>
@@ -9157,7 +9178,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>84</v>
       </c>
@@ -9171,7 +9192,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>256</v>
       </c>
@@ -9191,7 +9212,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>84</v>
       </c>
@@ -9205,7 +9226,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>85</v>
       </c>
@@ -9219,7 +9240,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>86</v>
       </c>
@@ -9233,7 +9254,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>87</v>
       </c>
@@ -9247,7 +9268,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>404</v>
       </c>
@@ -9267,7 +9288,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>84</v>
       </c>
@@ -9281,7 +9302,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>406</v>
       </c>
@@ -9301,7 +9322,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>407</v>
       </c>
@@ -9315,7 +9336,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>407</v>
       </c>
@@ -9329,7 +9350,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>86</v>
       </c>
@@ -9343,7 +9364,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>87</v>
       </c>
@@ -9357,7 +9378,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>408</v>
       </c>
@@ -9374,7 +9395,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
         <v>91</v>
       </c>
@@ -9385,7 +9406,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
         <v>356</v>
       </c>
@@ -9408,23 +9429,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E39" activeCellId="6" sqref="E2:E8 E10:E14 E16:E19 E22:E27 E29:E31 E34:E36 E39:E43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E46" activeCellId="7" sqref="E2:E8 E10:E14 E16:E19 E22:E27 E29:E31 E34:E36 E39:E43 E46:E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -9444,7 +9465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -9464,7 +9485,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>90</v>
       </c>
@@ -9478,7 +9499,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>83</v>
       </c>
@@ -9492,7 +9513,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>84</v>
       </c>
@@ -9506,7 +9527,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>85</v>
       </c>
@@ -9520,7 +9541,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>86</v>
       </c>
@@ -9534,7 +9555,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>87</v>
       </c>
@@ -9548,7 +9569,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>336</v>
       </c>
@@ -9568,7 +9589,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>84</v>
       </c>
@@ -9582,7 +9603,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>85</v>
       </c>
@@ -9596,7 +9617,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>86</v>
       </c>
@@ -9610,7 +9631,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>87</v>
       </c>
@@ -9624,7 +9645,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>396</v>
       </c>
@@ -9644,7 +9665,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>83</v>
       </c>
@@ -9658,7 +9679,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>84</v>
       </c>
@@ -9672,7 +9693,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>85</v>
       </c>
@@ -9686,7 +9707,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>86</v>
       </c>
@@ -9700,7 +9721,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>372</v>
       </c>
@@ -9720,7 +9741,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>83</v>
       </c>
@@ -9734,7 +9755,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>84</v>
       </c>
@@ -9748,7 +9769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>85</v>
       </c>
@@ -9762,7 +9783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>86</v>
       </c>
@@ -9776,7 +9797,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>87</v>
       </c>
@@ -9790,7 +9811,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>444</v>
       </c>
@@ -9810,7 +9831,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>84</v>
       </c>
@@ -9824,7 +9845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>85</v>
       </c>
@@ -9838,7 +9859,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>86</v>
       </c>
@@ -9852,7 +9873,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>377</v>
       </c>
@@ -9872,7 +9893,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>83</v>
       </c>
@@ -9886,7 +9907,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>84</v>
       </c>
@@ -9900,7 +9921,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>85</v>
       </c>
@@ -9914,7 +9935,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>347</v>
       </c>
@@ -9934,7 +9955,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>90</v>
       </c>
@@ -9948,7 +9969,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>83</v>
       </c>
@@ -9962,7 +9983,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>84</v>
       </c>
@@ -9976,7 +9997,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>85</v>
       </c>
@@ -9990,7 +10011,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>86</v>
       </c>
@@ -10002,6 +10023,82 @@
       </c>
       <c r="F44" t="s">
         <v>478</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>299</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" t="s">
+        <v>441</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" t="s">
+        <v>484</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" t="s">
+        <v>468</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" t="s">
+        <v>485</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" t="s">
+        <v>371</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -10018,20 +10115,20 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -10051,7 +10148,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -10073,7 +10170,7 @@
       </c>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -10095,7 +10192,7 @@
       </c>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -10116,7 +10213,7 @@
         <v>0.23529411764705882</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -10137,7 +10234,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -10158,7 +10255,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -10179,42 +10276,42 @@
         <v>0.765625</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>0.90909090909090906</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.92105263157894735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ref="C9:E9" si="1">SUM(C2:C8)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
@@ -10222,24 +10319,24 @@
       </c>
       <c r="F9" s="3">
         <f>(D9-E9)/D9</f>
-        <v>0.6428571428571429</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.64980544747081714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>16.142857142857142</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ref="C10:E10" si="2">AVERAGE(C2:C8)</f>
-        <v>1.8571428571428572</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>36.714285714285715</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
@@ -10247,7 +10344,7 @@
       </c>
       <c r="F10" s="3">
         <f t="shared" ref="F10" si="3">(D10-E10)/D10</f>
-        <v>0.64285714285714279</v>
+        <v>0.64980544747081714</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Jannik Sinner.xlsx
+++ b/Tennis/ATP Tour/Jannik Sinner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="13_ncr:1_{CDAADD05-1470-488F-A8B7-54C6C98C696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4D6B034-09A0-4E99-AECD-898740846C6D}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="13_ncr:1_{CDAADD05-1470-488F-A8B7-54C6C98C696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1705674-E5D1-443B-81A0-9D134465C2E9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="14" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="498">
   <si>
     <t>6-2 6-3</t>
   </si>
@@ -1515,6 +1515,27 @@
   </si>
   <si>
     <t>6-2 6-7(1) 7-6(3)</t>
+  </si>
+  <si>
+    <t>Yannick Hanfmann (GERMANY)</t>
+  </si>
+  <si>
+    <t>6-3 6-4 3-6 6-3</t>
+  </si>
+  <si>
+    <t>7-6(3) 7-6(4) 2-6 7-6(4)</t>
+  </si>
+  <si>
+    <t>6-1 6-4 6-2</t>
+  </si>
+  <si>
+    <t>6-2 6-4 7-6(9)</t>
+  </si>
+  <si>
+    <t>6-7(7) 6-4 7-6(4) 2-6 6-3</t>
+  </si>
+  <si>
+    <t>Matteo Berrettini (ITALY)</t>
   </si>
 </sst>
 </file>
@@ -1792,7 +1813,7 @@
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1882,7 +1903,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2376,7 +2397,7 @@
                   <c:v>0.765625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.92105263157894735</c:v>
+                  <c:v>0.90476190476190477</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4172,20 +4193,20 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -4205,7 +4226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>259</v>
       </c>
@@ -4225,7 +4246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>264</v>
       </c>
@@ -4245,7 +4266,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>84</v>
       </c>
@@ -4259,7 +4280,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>265</v>
       </c>
@@ -4294,20 +4315,20 @@
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -4327,7 +4348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>266</v>
       </c>
@@ -4347,7 +4368,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>83</v>
       </c>
@@ -4361,7 +4382,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>84</v>
       </c>
@@ -4375,7 +4396,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>85</v>
       </c>
@@ -4389,7 +4410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>86</v>
       </c>
@@ -4403,7 +4424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>87</v>
       </c>
@@ -4417,7 +4438,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>273</v>
       </c>
@@ -4437,7 +4458,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>274</v>
       </c>
@@ -4457,7 +4478,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>83</v>
       </c>
@@ -4471,7 +4492,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>277</v>
       </c>
@@ -4491,7 +4512,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>279</v>
       </c>
@@ -4505,7 +4526,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>83</v>
       </c>
@@ -4519,7 +4540,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>84</v>
       </c>
@@ -4533,7 +4554,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>284</v>
       </c>
@@ -4553,7 +4574,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>83</v>
       </c>
@@ -4567,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>84</v>
       </c>
@@ -4581,7 +4602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>85</v>
       </c>
@@ -4595,7 +4616,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>86</v>
       </c>
@@ -4609,7 +4630,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>87</v>
       </c>
@@ -4623,7 +4644,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>291</v>
       </c>
@@ -4643,7 +4664,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>83</v>
       </c>
@@ -4657,7 +4678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>293</v>
       </c>
@@ -4677,7 +4698,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>83</v>
       </c>
@@ -4691,7 +4712,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>295</v>
       </c>
@@ -4711,7 +4732,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>279</v>
       </c>
@@ -4725,7 +4746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>83</v>
       </c>
@@ -4739,7 +4760,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>299</v>
       </c>
@@ -4759,7 +4780,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>301</v>
       </c>
@@ -4779,7 +4800,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>245</v>
       </c>
@@ -4799,7 +4820,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>84</v>
       </c>
@@ -4813,7 +4834,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>305</v>
       </c>
@@ -4833,7 +4854,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>84</v>
       </c>
@@ -4847,7 +4868,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>308</v>
       </c>
@@ -4867,7 +4888,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>84</v>
       </c>
@@ -4881,7 +4902,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>85</v>
       </c>
@@ -4895,7 +4916,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>86</v>
       </c>
@@ -4909,7 +4930,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>87</v>
       </c>
@@ -4923,7 +4944,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>312</v>
       </c>
@@ -4943,7 +4964,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>83</v>
       </c>
@@ -4957,7 +4978,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>315</v>
       </c>
@@ -4977,7 +4998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>279</v>
       </c>
@@ -4991,7 +5012,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>316</v>
       </c>
@@ -5005,7 +5026,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>88</v>
       </c>
@@ -5019,7 +5040,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>320</v>
       </c>
@@ -5039,7 +5060,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>322</v>
       </c>
@@ -5059,7 +5080,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>84</v>
       </c>
@@ -5073,7 +5094,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>323</v>
       </c>
@@ -5093,7 +5114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>84</v>
       </c>
@@ -5107,7 +5128,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>85</v>
       </c>
@@ -5121,7 +5142,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>86</v>
       </c>
@@ -5135,7 +5156,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>326</v>
       </c>
@@ -5155,7 +5176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>84</v>
       </c>
@@ -5169,7 +5190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>85</v>
       </c>
@@ -5183,7 +5204,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>86</v>
       </c>
@@ -5197,7 +5218,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>256</v>
       </c>
@@ -5217,7 +5238,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>84</v>
       </c>
@@ -5231,7 +5252,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>264</v>
       </c>
@@ -5251,7 +5272,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>84</v>
       </c>
@@ -5265,7 +5286,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>85</v>
       </c>
@@ -5279,7 +5300,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>86</v>
       </c>
@@ -5293,7 +5314,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>87</v>
       </c>
@@ -5322,20 +5343,20 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -5355,7 +5376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>331</v>
       </c>
@@ -5375,7 +5396,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>359</v>
       </c>
@@ -5395,7 +5416,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -5415,7 +5436,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>90</v>
       </c>
@@ -5429,7 +5450,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>250</v>
       </c>
@@ -5449,7 +5470,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>336</v>
       </c>
@@ -5469,7 +5490,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>84</v>
       </c>
@@ -5483,7 +5504,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>85</v>
       </c>
@@ -5497,7 +5518,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>341</v>
       </c>
@@ -5517,7 +5538,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>84</v>
       </c>
@@ -5531,7 +5552,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>342</v>
       </c>
@@ -5551,7 +5572,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>84</v>
       </c>
@@ -5565,7 +5586,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>344</v>
       </c>
@@ -5585,7 +5606,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>315</v>
       </c>
@@ -5605,7 +5626,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>345</v>
       </c>
@@ -5625,7 +5646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>84</v>
       </c>
@@ -5639,7 +5660,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>291</v>
       </c>
@@ -5659,7 +5680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>83</v>
       </c>
@@ -5673,7 +5694,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>84</v>
       </c>
@@ -5687,7 +5708,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>347</v>
       </c>
@@ -5707,7 +5728,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>90</v>
       </c>
@@ -5721,7 +5742,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>83</v>
       </c>
@@ -5735,7 +5756,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>84</v>
       </c>
@@ -5749,7 +5770,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>85</v>
       </c>
@@ -5763,7 +5784,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>256</v>
       </c>
@@ -5783,7 +5804,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>84</v>
       </c>
@@ -5797,7 +5818,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>354</v>
       </c>
@@ -5817,7 +5838,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>84</v>
       </c>
@@ -5831,7 +5852,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>85</v>
       </c>
@@ -5845,7 +5866,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>86</v>
       </c>
@@ -5859,7 +5880,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>87</v>
       </c>
@@ -5887,20 +5908,20 @@
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" activeCellId="3" sqref="A55 A71 A80 A2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -5920,7 +5941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>360</v>
       </c>
@@ -5940,7 +5961,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>84</v>
       </c>
@@ -5954,7 +5975,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>85</v>
       </c>
@@ -5968,7 +5989,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>86</v>
       </c>
@@ -5982,7 +6003,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>87</v>
       </c>
@@ -5996,7 +6017,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -6016,7 +6037,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>250</v>
       </c>
@@ -6036,7 +6057,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>341</v>
       </c>
@@ -6056,7 +6077,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>84</v>
       </c>
@@ -6070,7 +6091,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>85</v>
       </c>
@@ -6084,7 +6105,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>367</v>
       </c>
@@ -6104,7 +6125,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>84</v>
       </c>
@@ -6118,7 +6139,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>85</v>
       </c>
@@ -6132,7 +6153,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>372</v>
       </c>
@@ -6152,7 +6173,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>83</v>
       </c>
@@ -6166,7 +6187,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>84</v>
       </c>
@@ -6180,7 +6201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>85</v>
       </c>
@@ -6194,7 +6215,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>86</v>
       </c>
@@ -6208,7 +6229,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>87</v>
       </c>
@@ -6222,7 +6243,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>373</v>
       </c>
@@ -6242,7 +6263,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>83</v>
       </c>
@@ -6256,7 +6277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>375</v>
       </c>
@@ -6276,7 +6297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>84</v>
       </c>
@@ -6290,7 +6311,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>85</v>
       </c>
@@ -6304,7 +6325,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>86</v>
       </c>
@@ -6318,7 +6339,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>377</v>
       </c>
@@ -6338,7 +6359,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>83</v>
       </c>
@@ -6352,7 +6373,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>291</v>
       </c>
@@ -6372,7 +6393,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>83</v>
       </c>
@@ -6386,7 +6407,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>293</v>
       </c>
@@ -6406,7 +6427,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>84</v>
       </c>
@@ -6420,7 +6441,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>347</v>
       </c>
@@ -6440,7 +6461,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>90</v>
       </c>
@@ -6454,7 +6475,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>83</v>
       </c>
@@ -6468,7 +6489,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>84</v>
       </c>
@@ -6482,7 +6503,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>387</v>
       </c>
@@ -6502,7 +6523,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>301</v>
       </c>
@@ -6522,7 +6543,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>389</v>
       </c>
@@ -6542,7 +6563,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>244</v>
       </c>
@@ -6562,7 +6583,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>84</v>
       </c>
@@ -6576,7 +6597,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>85</v>
       </c>
@@ -6590,7 +6611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>86</v>
       </c>
@@ -6604,7 +6625,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>87</v>
       </c>
@@ -6618,7 +6639,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>390</v>
       </c>
@@ -6638,7 +6659,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>344</v>
       </c>
@@ -6658,7 +6679,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>83</v>
       </c>
@@ -6672,7 +6693,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>315</v>
       </c>
@@ -6692,7 +6713,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>90</v>
       </c>
@@ -6706,7 +6727,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>83</v>
       </c>
@@ -6720,7 +6741,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>84</v>
       </c>
@@ -6734,7 +6755,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>354</v>
       </c>
@@ -6754,7 +6775,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>85</v>
       </c>
@@ -6768,7 +6789,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>86</v>
       </c>
@@ -6782,7 +6803,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>87</v>
       </c>
@@ -6796,7 +6817,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>396</v>
       </c>
@@ -6816,7 +6837,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>83</v>
       </c>
@@ -6830,7 +6851,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>84</v>
       </c>
@@ -6844,7 +6865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>326</v>
       </c>
@@ -6864,7 +6885,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>85</v>
       </c>
@@ -6878,7 +6899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>86</v>
       </c>
@@ -6892,7 +6913,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>87</v>
       </c>
@@ -6906,7 +6927,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>256</v>
       </c>
@@ -6926,7 +6947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>84</v>
       </c>
@@ -6940,7 +6961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>85</v>
       </c>
@@ -6954,7 +6975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>86</v>
       </c>
@@ -6968,7 +6989,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>404</v>
       </c>
@@ -6988,7 +7009,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>405</v>
       </c>
@@ -7008,7 +7029,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>406</v>
       </c>
@@ -7028,7 +7049,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>407</v>
       </c>
@@ -7042,7 +7063,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>408</v>
       </c>
@@ -7059,7 +7080,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D98" t="s">
         <v>409</v>
       </c>
@@ -7070,7 +7091,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
         <v>410</v>
       </c>
@@ -7095,20 +7116,20 @@
   <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -7128,7 +7149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -7148,7 +7169,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>90</v>
       </c>
@@ -7162,7 +7183,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>83</v>
       </c>
@@ -7176,7 +7197,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>84</v>
       </c>
@@ -7190,7 +7211,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>85</v>
       </c>
@@ -7204,7 +7225,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>367</v>
       </c>
@@ -7224,7 +7245,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>84</v>
       </c>
@@ -7238,7 +7259,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>85</v>
       </c>
@@ -7252,7 +7273,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>408</v>
       </c>
@@ -7269,7 +7290,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>340</v>
       </c>
@@ -7280,7 +7301,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>396</v>
       </c>
@@ -7300,7 +7321,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>83</v>
       </c>
@@ -7314,7 +7335,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>84</v>
       </c>
@@ -7328,7 +7349,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>372</v>
       </c>
@@ -7348,7 +7369,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>83</v>
       </c>
@@ -7362,7 +7383,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>84</v>
       </c>
@@ -7376,7 +7397,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>85</v>
       </c>
@@ -7390,7 +7411,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>373</v>
       </c>
@@ -7410,7 +7431,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>83</v>
       </c>
@@ -7424,7 +7445,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>84</v>
       </c>
@@ -7438,7 +7459,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>85</v>
       </c>
@@ -7452,7 +7473,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>377</v>
       </c>
@@ -7472,7 +7493,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>83</v>
       </c>
@@ -7486,7 +7507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>84</v>
       </c>
@@ -7500,7 +7521,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>291</v>
       </c>
@@ -7520,7 +7541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>83</v>
       </c>
@@ -7534,7 +7555,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>84</v>
       </c>
@@ -7548,7 +7569,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>85</v>
       </c>
@@ -7562,7 +7583,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>347</v>
       </c>
@@ -7582,7 +7603,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>90</v>
       </c>
@@ -7596,7 +7617,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>83</v>
       </c>
@@ -7610,7 +7631,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>84</v>
       </c>
@@ -7624,7 +7645,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>422</v>
       </c>
@@ -7644,7 +7665,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>301</v>
       </c>
@@ -7664,7 +7685,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>90</v>
       </c>
@@ -7678,7 +7699,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>83</v>
       </c>
@@ -7692,7 +7713,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>84</v>
       </c>
@@ -7706,7 +7727,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>85</v>
       </c>
@@ -7720,7 +7741,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>245</v>
       </c>
@@ -7740,7 +7761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>85</v>
       </c>
@@ -7754,7 +7775,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>86</v>
       </c>
@@ -7768,7 +7789,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>87</v>
       </c>
@@ -7782,7 +7803,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>390</v>
       </c>
@@ -7802,7 +7823,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>84</v>
       </c>
@@ -7816,7 +7837,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>344</v>
       </c>
@@ -7836,7 +7857,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>83</v>
       </c>
@@ -7850,7 +7871,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>84</v>
       </c>
@@ -7864,7 +7885,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>315</v>
       </c>
@@ -7884,7 +7905,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>90</v>
       </c>
@@ -7898,7 +7919,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>83</v>
       </c>
@@ -7912,7 +7933,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>84</v>
       </c>
@@ -7926,7 +7947,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>85</v>
       </c>
@@ -7940,7 +7961,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>408</v>
       </c>
@@ -7957,7 +7978,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>335</v>
       </c>
@@ -7968,7 +7989,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>354</v>
       </c>
@@ -7988,7 +8009,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>85</v>
       </c>
@@ -8002,7 +8023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>86</v>
       </c>
@@ -8016,7 +8037,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>256</v>
       </c>
@@ -8036,7 +8057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>84</v>
       </c>
@@ -8050,7 +8071,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>85</v>
       </c>
@@ -8064,7 +8085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>404</v>
       </c>
@@ -8099,20 +8120,20 @@
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -8132,7 +8153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>435</v>
       </c>
@@ -8152,7 +8173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>84</v>
       </c>
@@ -8166,7 +8187,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>85</v>
       </c>
@@ -8180,7 +8201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -8200,7 +8221,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>90</v>
       </c>
@@ -8214,7 +8235,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>83</v>
       </c>
@@ -8228,7 +8249,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>84</v>
       </c>
@@ -8242,7 +8263,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>250</v>
       </c>
@@ -8262,7 +8283,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>85</v>
       </c>
@@ -8276,7 +8297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>86</v>
       </c>
@@ -8290,7 +8311,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>87</v>
       </c>
@@ -8304,7 +8325,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>336</v>
       </c>
@@ -8324,7 +8345,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>84</v>
       </c>
@@ -8338,7 +8359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>85</v>
       </c>
@@ -8352,7 +8373,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>86</v>
       </c>
@@ -8366,7 +8387,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>87</v>
       </c>
@@ -8380,7 +8401,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>396</v>
       </c>
@@ -8400,7 +8421,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>83</v>
       </c>
@@ -8414,7 +8435,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>84</v>
       </c>
@@ -8428,7 +8449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>85</v>
       </c>
@@ -8442,7 +8463,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>86</v>
       </c>
@@ -8456,7 +8477,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>372</v>
       </c>
@@ -8476,7 +8497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>83</v>
       </c>
@@ -8490,7 +8511,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>84</v>
       </c>
@@ -8504,7 +8525,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>85</v>
       </c>
@@ -8518,7 +8539,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>86</v>
       </c>
@@ -8532,7 +8553,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>87</v>
       </c>
@@ -8546,7 +8567,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>444</v>
       </c>
@@ -8566,7 +8587,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>84</v>
       </c>
@@ -8580,7 +8601,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>85</v>
       </c>
@@ -8594,7 +8615,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>86</v>
       </c>
@@ -8608,7 +8629,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>375</v>
       </c>
@@ -8628,7 +8649,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>84</v>
       </c>
@@ -8642,7 +8663,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>85</v>
       </c>
@@ -8656,7 +8677,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>291</v>
       </c>
@@ -8676,7 +8697,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>83</v>
       </c>
@@ -8690,7 +8711,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>84</v>
       </c>
@@ -8704,7 +8725,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>347</v>
       </c>
@@ -8724,7 +8745,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>90</v>
       </c>
@@ -8738,7 +8759,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>295</v>
       </c>
@@ -8758,7 +8779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>85</v>
       </c>
@@ -8772,7 +8793,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>299</v>
       </c>
@@ -8792,7 +8813,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>84</v>
       </c>
@@ -8806,7 +8827,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>85</v>
       </c>
@@ -8820,7 +8841,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>301</v>
       </c>
@@ -8840,7 +8861,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>90</v>
       </c>
@@ -8854,7 +8875,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>83</v>
       </c>
@@ -8868,7 +8889,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>84</v>
       </c>
@@ -8882,7 +8903,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>85</v>
       </c>
@@ -8896,7 +8917,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>86</v>
       </c>
@@ -8910,7 +8931,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>390</v>
       </c>
@@ -8930,7 +8951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>84</v>
       </c>
@@ -8944,7 +8965,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>85</v>
       </c>
@@ -8958,7 +8979,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>86</v>
       </c>
@@ -8972,7 +8993,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>87</v>
       </c>
@@ -8986,7 +9007,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>344</v>
       </c>
@@ -9006,7 +9027,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>315</v>
       </c>
@@ -9026,7 +9047,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>90</v>
       </c>
@@ -9040,7 +9061,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>83</v>
       </c>
@@ -9054,7 +9075,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>84</v>
       </c>
@@ -9068,7 +9089,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>461</v>
       </c>
@@ -9088,7 +9109,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>84</v>
       </c>
@@ -9102,7 +9123,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>85</v>
       </c>
@@ -9116,7 +9137,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>86</v>
       </c>
@@ -9130,7 +9151,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>87</v>
       </c>
@@ -9144,7 +9165,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>464</v>
       </c>
@@ -9164,7 +9185,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>83</v>
       </c>
@@ -9178,7 +9199,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>84</v>
       </c>
@@ -9192,7 +9213,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>256</v>
       </c>
@@ -9212,7 +9233,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>84</v>
       </c>
@@ -9226,7 +9247,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>85</v>
       </c>
@@ -9240,7 +9261,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>86</v>
       </c>
@@ -9254,7 +9275,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>87</v>
       </c>
@@ -9268,7 +9289,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>404</v>
       </c>
@@ -9288,7 +9309,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>84</v>
       </c>
@@ -9302,7 +9323,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>406</v>
       </c>
@@ -9322,7 +9343,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>407</v>
       </c>
@@ -9336,7 +9357,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>407</v>
       </c>
@@ -9350,7 +9371,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>86</v>
       </c>
@@ -9364,7 +9385,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>87</v>
       </c>
@@ -9378,7 +9399,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>408</v>
       </c>
@@ -9395,7 +9416,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D104" t="s">
         <v>91</v>
       </c>
@@ -9406,7 +9427,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D105" t="s">
         <v>356</v>
       </c>
@@ -9429,23 +9450,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E46" activeCellId="7" sqref="E2:E8 E10:E14 E16:E19 E22:E27 E29:E31 E34:E36 E39:E43 E46:E50"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A37" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -9465,7 +9486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -9485,7 +9506,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>90</v>
       </c>
@@ -9499,7 +9520,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>83</v>
       </c>
@@ -9513,7 +9534,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>84</v>
       </c>
@@ -9527,7 +9548,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>85</v>
       </c>
@@ -9541,7 +9562,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>86</v>
       </c>
@@ -9555,7 +9576,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>87</v>
       </c>
@@ -9569,7 +9590,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>336</v>
       </c>
@@ -9589,7 +9610,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>84</v>
       </c>
@@ -9603,7 +9624,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>85</v>
       </c>
@@ -9617,7 +9638,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>86</v>
       </c>
@@ -9631,7 +9652,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>87</v>
       </c>
@@ -9645,7 +9666,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>396</v>
       </c>
@@ -9665,7 +9686,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>83</v>
       </c>
@@ -9679,7 +9700,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>84</v>
       </c>
@@ -9693,7 +9714,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>85</v>
       </c>
@@ -9707,7 +9728,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>86</v>
       </c>
@@ -9721,7 +9742,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>372</v>
       </c>
@@ -9741,7 +9762,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>83</v>
       </c>
@@ -9755,7 +9776,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>84</v>
       </c>
@@ -9769,7 +9790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>85</v>
       </c>
@@ -9783,7 +9804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>86</v>
       </c>
@@ -9797,7 +9818,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>87</v>
       </c>
@@ -9811,7 +9832,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>444</v>
       </c>
@@ -9831,7 +9852,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>84</v>
       </c>
@@ -9845,7 +9866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>85</v>
       </c>
@@ -9859,7 +9880,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>86</v>
       </c>
@@ -9873,7 +9894,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>377</v>
       </c>
@@ -9893,7 +9914,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>83</v>
       </c>
@@ -9907,7 +9928,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>84</v>
       </c>
@@ -9921,7 +9942,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>85</v>
       </c>
@@ -9935,7 +9956,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>347</v>
       </c>
@@ -9955,7 +9976,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>90</v>
       </c>
@@ -9969,7 +9990,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>83</v>
       </c>
@@ -9983,7 +10004,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>84</v>
       </c>
@@ -9997,7 +10018,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>85</v>
       </c>
@@ -10011,7 +10032,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>86</v>
       </c>
@@ -10025,7 +10046,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>299</v>
       </c>
@@ -10045,7 +10066,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>84</v>
       </c>
@@ -10059,7 +10080,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>85</v>
       </c>
@@ -10073,7 +10094,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>86</v>
       </c>
@@ -10087,7 +10108,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>87</v>
       </c>
@@ -10099,6 +10120,82 @@
       </c>
       <c r="F50" t="s">
         <v>487</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>301</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" t="s">
+        <v>491</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" t="s">
+        <v>497</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F53" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" t="s">
+        <v>362</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F54" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" t="s">
+        <v>257</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F55" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F56" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -10115,20 +10212,21 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -10148,7 +10246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -10170,7 +10268,7 @@
       </c>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -10192,7 +10290,7 @@
       </c>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -10213,7 +10311,7 @@
         <v>0.23529411764705882</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -10234,7 +10332,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -10255,7 +10353,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -10276,34 +10374,34 @@
         <v>0.765625</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>0.92105263157894735</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.90476190476190477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ref="C9:E9" si="1">SUM(C2:C8)</f>
@@ -10311,24 +10409,24 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F9" s="3">
         <f>(D9-E9)/D9</f>
-        <v>0.64980544747081714</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.65134099616858232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>16.285714285714285</v>
+        <v>16.428571428571427</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ref="C10:E10" si="2">AVERAGE(C2:C8)</f>
@@ -10336,15 +10434,15 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" si="2"/>
-        <v>36.714285714285715</v>
+        <v>37.285714285714285</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
-        <v>12.857142857142858</v>
+        <v>13</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" ref="F10" si="3">(D10-E10)/D10</f>
-        <v>0.64980544747081714</v>
+        <v>0.65134099616858232</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Jannik Sinner.xlsx
+++ b/Tennis/ATP Tour/Jannik Sinner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="13_ncr:1_{CDAADD05-1470-488F-A8B7-54C6C98C696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1705674-E5D1-443B-81A0-9D134465C2E9}"/>
+  <xr:revisionPtr revIDLastSave="292" documentId="13_ncr:1_{CDAADD05-1470-488F-A8B7-54C6C98C696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5445D11D-80D1-45E1-9421-E9C22EB75D24}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="1980" yWindow="6135" windowWidth="8625" windowHeight="15285" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="14" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="522">
   <si>
     <t>6-2 6-3</t>
   </si>
@@ -1076,9 +1076,6 @@
     <t>Denis Kudla (USA)</t>
   </si>
   <si>
-    <t>CINCINNATI MASTERS</t>
-  </si>
-  <si>
     <t>AUSTRIAN OPEN</t>
   </si>
   <si>
@@ -1536,6 +1533,81 @@
   </si>
   <si>
     <t>Matteo Berrettini (ITALY)</t>
+  </si>
+  <si>
+    <t>7-6(4) 6-2</t>
+  </si>
+  <si>
+    <t>7-6(9) 5-7 7-6(4)</t>
+  </si>
+  <si>
+    <t>4-6 7-5 6-4</t>
+  </si>
+  <si>
+    <t>6-4 7-5</t>
+  </si>
+  <si>
+    <t>6-3 1-6 6-2</t>
+  </si>
+  <si>
+    <t>CINCINNATI OPEN</t>
+  </si>
+  <si>
+    <t>Alejandro Tabilo (CHILE)</t>
+  </si>
+  <si>
+    <t>Alex Michelsen (USA)</t>
+  </si>
+  <si>
+    <t>Jordan Thompson (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>2-6 6-2 6-1 6-2</t>
+  </si>
+  <si>
+    <t>7-6(3) 7-6(5) 6-1</t>
+  </si>
+  <si>
+    <t>6-2 1-6 6-1 6-4</t>
+  </si>
+  <si>
+    <t>7-5 7-6(3) 6-2</t>
+  </si>
+  <si>
+    <t>6-3 6-4 7-5</t>
+  </si>
+  <si>
+    <t>Bu Yunchaokete (CHINA)</t>
+  </si>
+  <si>
+    <t>Nicolas Jarry (CHILE)</t>
+  </si>
+  <si>
+    <t>Roman Safiullin (RUSSIA)</t>
+  </si>
+  <si>
+    <t>3-6 6-2 6-3</t>
+  </si>
+  <si>
+    <t>6-3 7-6(3)</t>
+  </si>
+  <si>
+    <t>6-7(6) 6-4 7-6(3)</t>
+  </si>
+  <si>
+    <t>Taro Daniel</t>
+  </si>
+  <si>
+    <t>(14) Ben Shelton</t>
+  </si>
+  <si>
+    <t>(5) Daniil Medvedev</t>
+  </si>
+  <si>
+    <t>6-7(3) 6-4 6-2</t>
+  </si>
+  <si>
+    <t>6-4 7-6(1)</t>
   </si>
 </sst>
 </file>
@@ -1624,7 +1696,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1633,6 +1705,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1813,7 +1887,7 @@
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1903,7 +1977,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2397,7 +2471,7 @@
                   <c:v>0.765625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.90476190476190477</c:v>
+                  <c:v>0.90769230769230769</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4196,17 +4270,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -4226,7 +4300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>259</v>
       </c>
@@ -4246,7 +4320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>264</v>
       </c>
@@ -4266,7 +4340,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>84</v>
       </c>
@@ -4280,7 +4354,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>265</v>
       </c>
@@ -4318,17 +4392,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -4348,7 +4422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>266</v>
       </c>
@@ -4368,7 +4442,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>83</v>
       </c>
@@ -4382,7 +4456,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>84</v>
       </c>
@@ -4396,7 +4470,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>85</v>
       </c>
@@ -4410,7 +4484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>86</v>
       </c>
@@ -4424,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>87</v>
       </c>
@@ -4438,7 +4512,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>273</v>
       </c>
@@ -4458,7 +4532,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>274</v>
       </c>
@@ -4478,7 +4552,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>83</v>
       </c>
@@ -4492,7 +4566,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>277</v>
       </c>
@@ -4512,7 +4586,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>279</v>
       </c>
@@ -4526,7 +4600,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>83</v>
       </c>
@@ -4540,7 +4614,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>84</v>
       </c>
@@ -4554,7 +4628,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>284</v>
       </c>
@@ -4574,7 +4648,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>83</v>
       </c>
@@ -4588,7 +4662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>84</v>
       </c>
@@ -4602,7 +4676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>85</v>
       </c>
@@ -4616,7 +4690,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>86</v>
       </c>
@@ -4630,7 +4704,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>87</v>
       </c>
@@ -4644,7 +4718,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>291</v>
       </c>
@@ -4664,7 +4738,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>83</v>
       </c>
@@ -4678,7 +4752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>293</v>
       </c>
@@ -4698,7 +4772,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>83</v>
       </c>
@@ -4712,7 +4786,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>295</v>
       </c>
@@ -4732,7 +4806,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>279</v>
       </c>
@@ -4746,7 +4820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>83</v>
       </c>
@@ -4760,7 +4834,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>299</v>
       </c>
@@ -4780,7 +4854,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>301</v>
       </c>
@@ -4800,7 +4874,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>245</v>
       </c>
@@ -4820,7 +4894,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>84</v>
       </c>
@@ -4834,7 +4908,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>305</v>
       </c>
@@ -4854,7 +4928,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>84</v>
       </c>
@@ -4868,7 +4942,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>308</v>
       </c>
@@ -4888,7 +4962,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>84</v>
       </c>
@@ -4902,7 +4976,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>85</v>
       </c>
@@ -4916,7 +4990,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>86</v>
       </c>
@@ -4930,7 +5004,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>87</v>
       </c>
@@ -4944,7 +5018,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>312</v>
       </c>
@@ -4964,7 +5038,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>83</v>
       </c>
@@ -4978,7 +5052,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>315</v>
       </c>
@@ -4998,7 +5072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>279</v>
       </c>
@@ -5012,7 +5086,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>316</v>
       </c>
@@ -5026,7 +5100,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>88</v>
       </c>
@@ -5040,7 +5114,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>320</v>
       </c>
@@ -5060,7 +5134,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>322</v>
       </c>
@@ -5080,7 +5154,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>84</v>
       </c>
@@ -5094,7 +5168,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>323</v>
       </c>
@@ -5114,7 +5188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>84</v>
       </c>
@@ -5128,7 +5202,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>85</v>
       </c>
@@ -5142,7 +5216,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>86</v>
       </c>
@@ -5156,7 +5230,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>326</v>
       </c>
@@ -5176,7 +5250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>84</v>
       </c>
@@ -5190,7 +5264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>85</v>
       </c>
@@ -5204,7 +5278,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>86</v>
       </c>
@@ -5218,7 +5292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>256</v>
       </c>
@@ -5238,7 +5312,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>84</v>
       </c>
@@ -5252,7 +5326,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>264</v>
       </c>
@@ -5272,7 +5346,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>84</v>
       </c>
@@ -5286,7 +5360,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>85</v>
       </c>
@@ -5300,7 +5374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>86</v>
       </c>
@@ -5314,7 +5388,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>87</v>
       </c>
@@ -5346,17 +5420,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -5376,7 +5450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>331</v>
       </c>
@@ -5396,9 +5470,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -5416,7 +5490,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -5436,7 +5510,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>90</v>
       </c>
@@ -5450,7 +5524,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>250</v>
       </c>
@@ -5470,7 +5544,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>336</v>
       </c>
@@ -5490,7 +5564,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>84</v>
       </c>
@@ -5504,7 +5578,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>85</v>
       </c>
@@ -5518,7 +5592,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>341</v>
       </c>
@@ -5538,7 +5612,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>84</v>
       </c>
@@ -5552,7 +5626,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>342</v>
       </c>
@@ -5572,7 +5646,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>84</v>
       </c>
@@ -5586,9 +5660,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>344</v>
+        <v>502</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -5606,7 +5680,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>315</v>
       </c>
@@ -5626,9 +5700,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -5646,7 +5720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>84</v>
       </c>
@@ -5660,7 +5734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>291</v>
       </c>
@@ -5680,7 +5754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>83</v>
       </c>
@@ -5694,12 +5768,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>80</v>
@@ -5708,9 +5782,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
@@ -5728,12 +5802,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>90</v>
       </c>
       <c r="D33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>81</v>
@@ -5742,12 +5816,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>83</v>
       </c>
       <c r="D34" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>81</v>
@@ -5756,12 +5830,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>81</v>
@@ -5770,12 +5844,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>85</v>
       </c>
       <c r="D36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>80</v>
@@ -5784,7 +5858,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>256</v>
       </c>
@@ -5795,7 +5869,7 @@
         <v>83</v>
       </c>
       <c r="D38" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>81</v>
@@ -5804,7 +5878,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>84</v>
       </c>
@@ -5815,12 +5889,12 @@
         <v>80</v>
       </c>
       <c r="F39" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>353</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>354</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -5838,12 +5912,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>81</v>
@@ -5852,12 +5926,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>85</v>
       </c>
       <c r="D43" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>81</v>
@@ -5866,12 +5940,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>86</v>
       </c>
       <c r="D44" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>81</v>
@@ -5880,12 +5954,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>87</v>
       </c>
       <c r="D45" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>81</v>
@@ -5907,21 +5981,21 @@
   </sheetPr>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -5941,9 +6015,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -5952,7 +6026,7 @@
         <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>81</v>
@@ -5961,7 +6035,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>84</v>
       </c>
@@ -5975,12 +6049,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>81</v>
@@ -5989,7 +6063,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>86</v>
       </c>
@@ -6003,12 +6077,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>81</v>
@@ -6017,7 +6091,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -6028,7 +6102,7 @@
         <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>80</v>
@@ -6037,7 +6111,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>250</v>
       </c>
@@ -6057,7 +6131,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>341</v>
       </c>
@@ -6068,7 +6142,7 @@
         <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>81</v>
@@ -6077,12 +6151,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>81</v>
@@ -6091,7 +6165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>85</v>
       </c>
@@ -6105,9 +6179,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -6116,7 +6190,7 @@
         <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>81</v>
@@ -6125,12 +6199,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>81</v>
@@ -6139,12 +6213,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>80</v>
@@ -6153,9 +6227,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -6164,7 +6238,7 @@
         <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>81</v>
@@ -6173,7 +6247,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>83</v>
       </c>
@@ -6187,7 +6261,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>84</v>
       </c>
@@ -6201,12 +6275,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>81</v>
@@ -6215,12 +6289,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>81</v>
@@ -6229,12 +6303,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>80</v>
@@ -6243,9 +6317,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
@@ -6254,7 +6328,7 @@
         <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>81</v>
@@ -6263,7 +6337,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>83</v>
       </c>
@@ -6277,9 +6351,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
@@ -6288,7 +6362,7 @@
         <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>81</v>
@@ -6297,12 +6371,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>81</v>
@@ -6311,7 +6385,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>85</v>
       </c>
@@ -6325,7 +6399,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>86</v>
       </c>
@@ -6339,9 +6413,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
@@ -6350,21 +6424,21 @@
         <v>90</v>
       </c>
       <c r="D35" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F35" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>83</v>
       </c>
       <c r="D36" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>80</v>
@@ -6373,7 +6447,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>291</v>
       </c>
@@ -6384,7 +6458,7 @@
         <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>81</v>
@@ -6393,12 +6467,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>83</v>
       </c>
       <c r="D39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>80</v>
@@ -6407,7 +6481,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>293</v>
       </c>
@@ -6418,7 +6492,7 @@
         <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>81</v>
@@ -6427,12 +6501,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>80</v>
@@ -6441,9 +6515,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
@@ -6452,7 +6526,7 @@
         <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>81</v>
@@ -6461,12 +6535,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>90</v>
       </c>
       <c r="D45" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>81</v>
@@ -6475,7 +6549,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>83</v>
       </c>
@@ -6489,12 +6563,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>84</v>
       </c>
       <c r="D47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>80</v>
@@ -6503,9 +6577,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B49" t="s">
         <v>29</v>
@@ -6514,7 +6588,7 @@
         <v>83</v>
       </c>
       <c r="D49" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>80</v>
@@ -6523,7 +6597,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>301</v>
       </c>
@@ -6543,9 +6617,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -6554,7 +6628,7 @@
         <v>84</v>
       </c>
       <c r="D53" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>80</v>
@@ -6563,7 +6637,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>244</v>
       </c>
@@ -6583,7 +6657,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>84</v>
       </c>
@@ -6597,7 +6671,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>85</v>
       </c>
@@ -6611,7 +6685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>86</v>
       </c>
@@ -6625,7 +6699,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>87</v>
       </c>
@@ -6639,9 +6713,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
@@ -6650,7 +6724,7 @@
         <v>83</v>
       </c>
       <c r="D61" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>80</v>
@@ -6659,9 +6733,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>344</v>
+        <v>502</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
@@ -6670,7 +6744,7 @@
         <v>90</v>
       </c>
       <c r="D63" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>81</v>
@@ -6679,12 +6753,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>83</v>
       </c>
       <c r="D64" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>80</v>
@@ -6693,7 +6767,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>315</v>
       </c>
@@ -6713,12 +6787,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>90</v>
       </c>
       <c r="D67" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>81</v>
@@ -6727,7 +6801,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>83</v>
       </c>
@@ -6741,12 +6815,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>84</v>
       </c>
       <c r="D69" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>80</v>
@@ -6755,9 +6829,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
@@ -6766,7 +6840,7 @@
         <v>84</v>
       </c>
       <c r="D71" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>81</v>
@@ -6775,12 +6849,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>85</v>
       </c>
       <c r="D72" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>81</v>
@@ -6789,12 +6863,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>86</v>
       </c>
       <c r="D73" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>81</v>
@@ -6803,7 +6877,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>87</v>
       </c>
@@ -6817,9 +6891,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
@@ -6828,7 +6902,7 @@
         <v>90</v>
       </c>
       <c r="D76" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>81</v>
@@ -6837,12 +6911,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>83</v>
       </c>
       <c r="D77" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>81</v>
@@ -6851,12 +6925,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>84</v>
       </c>
       <c r="D78" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>80</v>
@@ -6865,7 +6939,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>326</v>
       </c>
@@ -6876,7 +6950,7 @@
         <v>84</v>
       </c>
       <c r="D80" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>81</v>
@@ -6885,12 +6959,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>85</v>
       </c>
       <c r="D81" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>81</v>
@@ -6899,12 +6973,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>86</v>
       </c>
       <c r="D82" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>81</v>
@@ -6913,12 +6987,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>87</v>
       </c>
       <c r="D83" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>81</v>
@@ -6927,7 +7001,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>256</v>
       </c>
@@ -6938,7 +7012,7 @@
         <v>83</v>
       </c>
       <c r="D85" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>81</v>
@@ -6947,12 +7021,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>84</v>
       </c>
       <c r="D86" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>81</v>
@@ -6961,12 +7035,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>85</v>
       </c>
       <c r="D87" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>81</v>
@@ -6975,7 +7049,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>86</v>
       </c>
@@ -6989,9 +7063,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -7009,9 +7083,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
@@ -7020,7 +7094,7 @@
         <v>84</v>
       </c>
       <c r="D92" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>80</v>
@@ -7029,15 +7103,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D94" t="s">
         <v>92</v>
@@ -7049,12 +7123,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D95" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>81</v>
@@ -7063,15 +7137,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>81</v>
@@ -7080,9 +7154,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>81</v>
@@ -7091,9 +7165,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>81</v>
@@ -7119,17 +7193,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -7149,7 +7223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -7169,7 +7243,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>90</v>
       </c>
@@ -7183,12 +7257,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>81</v>
@@ -7197,12 +7271,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>81</v>
@@ -7211,7 +7285,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>85</v>
       </c>
@@ -7225,9 +7299,9 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -7236,7 +7310,7 @@
         <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>81</v>
@@ -7245,12 +7319,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>81</v>
@@ -7259,12 +7333,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>80</v>
@@ -7273,15 +7347,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>81</v>
@@ -7290,7 +7364,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>340</v>
       </c>
@@ -7301,9 +7375,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -7321,12 +7395,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>81</v>
@@ -7335,12 +7409,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>82</v>
@@ -7349,9 +7423,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -7369,7 +7443,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>83</v>
       </c>
@@ -7383,12 +7457,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>81</v>
@@ -7397,23 +7471,23 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -7422,7 +7496,7 @@
         <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>81</v>
@@ -7431,7 +7505,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>83</v>
       </c>
@@ -7445,7 +7519,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>84</v>
       </c>
@@ -7459,12 +7533,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>80</v>
@@ -7473,9 +7547,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
@@ -7484,7 +7558,7 @@
         <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>81</v>
@@ -7493,12 +7567,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>81</v>
@@ -7507,12 +7581,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>80</v>
@@ -7521,7 +7595,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>291</v>
       </c>
@@ -7532,7 +7606,7 @@
         <v>90</v>
       </c>
       <c r="D33" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>81</v>
@@ -7541,12 +7615,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>83</v>
       </c>
       <c r="D34" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>81</v>
@@ -7555,12 +7629,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>81</v>
@@ -7569,7 +7643,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>85</v>
       </c>
@@ -7583,9 +7657,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
@@ -7603,7 +7677,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>90</v>
       </c>
@@ -7617,7 +7691,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>83</v>
       </c>
@@ -7631,7 +7705,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>84</v>
       </c>
@@ -7642,12 +7716,12 @@
         <v>80</v>
       </c>
       <c r="F41" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>421</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>422</v>
       </c>
       <c r="B43" t="s">
         <v>29</v>
@@ -7656,7 +7730,7 @@
         <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>80</v>
@@ -7665,7 +7739,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>301</v>
       </c>
@@ -7685,7 +7759,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>90</v>
       </c>
@@ -7699,12 +7773,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>83</v>
       </c>
       <c r="D47" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>81</v>
@@ -7713,7 +7787,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>84</v>
       </c>
@@ -7727,7 +7801,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>85</v>
       </c>
@@ -7741,7 +7815,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>245</v>
       </c>
@@ -7761,7 +7835,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>85</v>
       </c>
@@ -7775,7 +7849,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>86</v>
       </c>
@@ -7789,7 +7863,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>87</v>
       </c>
@@ -7803,9 +7877,9 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -7814,7 +7888,7 @@
         <v>83</v>
       </c>
       <c r="D56" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>81</v>
@@ -7823,7 +7897,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>84</v>
       </c>
@@ -7837,9 +7911,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>344</v>
+        <v>502</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
@@ -7848,7 +7922,7 @@
         <v>90</v>
       </c>
       <c r="D59" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>81</v>
@@ -7857,26 +7931,26 @@
         <v>185</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>83</v>
       </c>
       <c r="D60" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F60" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>84</v>
       </c>
       <c r="D61" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>80</v>
@@ -7885,7 +7959,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>315</v>
       </c>
@@ -7896,7 +7970,7 @@
         <v>88</v>
       </c>
       <c r="D63" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>81</v>
@@ -7905,12 +7979,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>90</v>
       </c>
       <c r="D64" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>81</v>
@@ -7919,12 +7993,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>83</v>
       </c>
       <c r="D65" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>81</v>
@@ -7933,12 +8007,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>84</v>
       </c>
       <c r="D66" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>81</v>
@@ -7947,7 +8021,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>85</v>
       </c>
@@ -7961,15 +8035,15 @@
         <v>179</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>81</v>
@@ -7978,7 +8052,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
         <v>335</v>
       </c>
@@ -7989,9 +8063,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
@@ -8000,7 +8074,7 @@
         <v>84</v>
       </c>
       <c r="D72" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>81</v>
@@ -8009,12 +8083,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>85</v>
       </c>
       <c r="D73" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>81</v>
@@ -8023,21 +8097,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>86</v>
       </c>
       <c r="D74" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F74" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>256</v>
       </c>
@@ -8048,7 +8122,7 @@
         <v>83</v>
       </c>
       <c r="D76" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>81</v>
@@ -8057,12 +8131,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>84</v>
       </c>
       <c r="D77" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>81</v>
@@ -8071,7 +8145,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>85</v>
       </c>
@@ -8085,9 +8159,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -8096,7 +8170,7 @@
         <v>90</v>
       </c>
       <c r="D80" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>80</v>
@@ -8119,21 +8193,21 @@
   </sheetPr>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -8153,9 +8227,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -8164,7 +8238,7 @@
         <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>81</v>
@@ -8173,12 +8247,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>81</v>
@@ -8187,12 +8261,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>80</v>
@@ -8201,7 +8275,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -8212,7 +8286,7 @@
         <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>81</v>
@@ -8221,12 +8295,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>81</v>
@@ -8235,7 +8309,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>83</v>
       </c>
@@ -8249,12 +8323,12 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>80</v>
@@ -8263,7 +8337,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>250</v>
       </c>
@@ -8283,7 +8357,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>85</v>
       </c>
@@ -8297,7 +8371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>86</v>
       </c>
@@ -8311,7 +8385,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>87</v>
       </c>
@@ -8325,7 +8399,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>336</v>
       </c>
@@ -8336,7 +8410,7 @@
         <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>81</v>
@@ -8345,12 +8419,12 @@
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>81</v>
@@ -8359,7 +8433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>85</v>
       </c>
@@ -8373,12 +8447,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>81</v>
@@ -8387,7 +8461,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>87</v>
       </c>
@@ -8401,9 +8475,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -8412,7 +8486,7 @@
         <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>81</v>
@@ -8421,12 +8495,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>81</v>
@@ -8435,7 +8509,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>84</v>
       </c>
@@ -8449,12 +8523,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>81</v>
@@ -8463,7 +8537,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>86</v>
       </c>
@@ -8477,9 +8551,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -8497,12 +8571,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>81</v>
@@ -8511,7 +8585,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>84</v>
       </c>
@@ -8525,7 +8599,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>85</v>
       </c>
@@ -8539,7 +8613,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>86</v>
       </c>
@@ -8553,7 +8627,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>87</v>
       </c>
@@ -8567,9 +8641,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
@@ -8578,21 +8652,21 @@
         <v>83</v>
       </c>
       <c r="D35" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F35" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>81</v>
@@ -8601,12 +8675,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>81</v>
@@ -8615,12 +8689,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>86</v>
       </c>
       <c r="D38" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>80</v>
@@ -8629,9 +8703,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B40" t="s">
         <v>22</v>
@@ -8640,7 +8714,7 @@
         <v>83</v>
       </c>
       <c r="D40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>81</v>
@@ -8649,12 +8723,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>81</v>
@@ -8663,12 +8737,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>85</v>
       </c>
       <c r="D42" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>82</v>
@@ -8677,7 +8751,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>291</v>
       </c>
@@ -8688,7 +8762,7 @@
         <v>90</v>
       </c>
       <c r="D44" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>81</v>
@@ -8697,12 +8771,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>83</v>
       </c>
       <c r="D45" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>81</v>
@@ -8711,12 +8785,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>84</v>
       </c>
       <c r="D46" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>80</v>
@@ -8725,9 +8799,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B48" t="s">
         <v>22</v>
@@ -8736,7 +8810,7 @@
         <v>88</v>
       </c>
       <c r="D48" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>81</v>
@@ -8745,12 +8819,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>90</v>
       </c>
       <c r="D49" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>80</v>
@@ -8759,7 +8833,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>295</v>
       </c>
@@ -8770,7 +8844,7 @@
         <v>84</v>
       </c>
       <c r="D51" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>81</v>
@@ -8779,7 +8853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>85</v>
       </c>
@@ -8793,7 +8867,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>299</v>
       </c>
@@ -8804,7 +8878,7 @@
         <v>83</v>
       </c>
       <c r="D54" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>81</v>
@@ -8813,7 +8887,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>84</v>
       </c>
@@ -8827,21 +8901,21 @@
         <v>228</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>85</v>
       </c>
       <c r="D56" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F56" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>301</v>
       </c>
@@ -8852,7 +8926,7 @@
         <v>88</v>
       </c>
       <c r="D58" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>81</v>
@@ -8861,12 +8935,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>90</v>
       </c>
       <c r="D59" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>81</v>
@@ -8875,12 +8949,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>83</v>
       </c>
       <c r="D60" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>81</v>
@@ -8889,12 +8963,12 @@
         <v>226</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>84</v>
       </c>
       <c r="D61" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>81</v>
@@ -8903,12 +8977,12 @@
         <v>225</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>85</v>
       </c>
       <c r="D62" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>81</v>
@@ -8917,7 +8991,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>86</v>
       </c>
@@ -8931,9 +9005,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
@@ -8942,7 +9016,7 @@
         <v>83</v>
       </c>
       <c r="D65" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>81</v>
@@ -8951,12 +9025,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>84</v>
       </c>
       <c r="D66" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>81</v>
@@ -8965,7 +9039,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>85</v>
       </c>
@@ -8979,12 +9053,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>86</v>
       </c>
       <c r="D68" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>81</v>
@@ -8993,12 +9067,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>87</v>
       </c>
       <c r="D69" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>81</v>
@@ -9007,9 +9081,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>344</v>
+        <v>502</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
@@ -9018,7 +9092,7 @@
         <v>83</v>
       </c>
       <c r="D71" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>80</v>
@@ -9027,7 +9101,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>315</v>
       </c>
@@ -9038,7 +9112,7 @@
         <v>88</v>
       </c>
       <c r="D73" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>81</v>
@@ -9047,7 +9121,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>90</v>
       </c>
@@ -9061,7 +9135,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>83</v>
       </c>
@@ -9075,12 +9149,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>84</v>
       </c>
       <c r="D76" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>80</v>
@@ -9089,9 +9163,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -9100,7 +9174,7 @@
         <v>83</v>
       </c>
       <c r="D78" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>81</v>
@@ -9109,12 +9183,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>84</v>
       </c>
       <c r="D79" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>81</v>
@@ -9123,12 +9197,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>85</v>
       </c>
       <c r="D80" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>81</v>
@@ -9137,7 +9211,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>86</v>
       </c>
@@ -9151,7 +9225,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>87</v>
       </c>
@@ -9165,9 +9239,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -9176,7 +9250,7 @@
         <v>90</v>
       </c>
       <c r="D84" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>81</v>
@@ -9185,7 +9259,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>83</v>
       </c>
@@ -9199,7 +9273,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>84</v>
       </c>
@@ -9213,7 +9287,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>256</v>
       </c>
@@ -9233,7 +9307,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>84</v>
       </c>
@@ -9247,7 +9321,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>85</v>
       </c>
@@ -9261,7 +9335,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>86</v>
       </c>
@@ -9275,7 +9349,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>87</v>
       </c>
@@ -9289,9 +9363,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
@@ -9309,12 +9383,12 @@
         <v>211</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>84</v>
       </c>
       <c r="D95" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>82</v>
@@ -9323,15 +9397,15 @@
         <v>252</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D97" t="s">
         <v>292</v>
@@ -9343,9 +9417,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D98" t="s">
         <v>91</v>
@@ -9357,12 +9431,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D99" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>81</v>
@@ -9371,7 +9445,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>86</v>
       </c>
@@ -9385,7 +9459,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>87</v>
       </c>
@@ -9399,15 +9473,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E103" s="6" t="s">
         <v>81</v>
@@ -9416,7 +9490,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
         <v>91</v>
       </c>
@@ -9427,9 +9501,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>81</v>
@@ -9450,23 +9524,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A37" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E80" activeCellId="5" sqref="E20 E32 E44 E56 E60 E80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -9486,7 +9560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -9506,7 +9580,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>90</v>
       </c>
@@ -9520,7 +9594,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>83</v>
       </c>
@@ -9534,7 +9608,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>84</v>
       </c>
@@ -9548,7 +9622,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>85</v>
       </c>
@@ -9562,7 +9636,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>86</v>
       </c>
@@ -9576,7 +9650,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>87</v>
       </c>
@@ -9590,7 +9664,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>336</v>
       </c>
@@ -9610,7 +9684,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>84</v>
       </c>
@@ -9624,26 +9698,26 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>85</v>
       </c>
       <c r="D12" t="s">
+        <v>465</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" t="s">
         <v>466</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>81</v>
@@ -9652,12 +9726,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>81</v>
@@ -9666,9 +9740,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -9677,7 +9751,7 @@
         <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>81</v>
@@ -9686,12 +9760,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>81</v>
@@ -9700,7 +9774,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>84</v>
       </c>
@@ -9714,7 +9788,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>85</v>
       </c>
@@ -9728,7 +9802,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>86</v>
       </c>
@@ -9739,12 +9813,12 @@
         <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -9753,7 +9827,7 @@
         <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>81</v>
@@ -9762,26 +9836,26 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>81</v>
@@ -9790,12 +9864,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>81</v>
@@ -9804,7 +9878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>86</v>
       </c>
@@ -9818,12 +9892,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>81</v>
@@ -9832,9 +9906,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
@@ -9852,12 +9926,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>81</v>
@@ -9866,21 +9940,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>85</v>
       </c>
       <c r="D31" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F31" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>86</v>
       </c>
@@ -9894,9 +9968,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
@@ -9911,15 +9985,15 @@
         <v>81</v>
       </c>
       <c r="F34" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>83</v>
       </c>
       <c r="D35" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>81</v>
@@ -9928,7 +10002,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>84</v>
       </c>
@@ -9939,15 +10013,15 @@
         <v>81</v>
       </c>
       <c r="F36" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>82</v>
@@ -9956,9 +10030,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>
@@ -9967,21 +10041,21 @@
         <v>88</v>
       </c>
       <c r="D39" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F39" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>90</v>
       </c>
       <c r="D40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>81</v>
@@ -9990,49 +10064,49 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F41" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>85</v>
       </c>
       <c r="D43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>86</v>
       </c>
@@ -10043,10 +10117,10 @@
         <v>80</v>
       </c>
       <c r="F44" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>299</v>
       </c>
@@ -10057,72 +10131,72 @@
         <v>83</v>
       </c>
       <c r="D46" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F46" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>84</v>
       </c>
       <c r="D47" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>85</v>
       </c>
       <c r="D48" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F48" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>86</v>
       </c>
       <c r="D49" t="s">
+        <v>484</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" t="s">
         <v>485</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F49" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>87</v>
       </c>
       <c r="D50" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F50" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>301</v>
       </c>
@@ -10133,44 +10207,44 @@
         <v>88</v>
       </c>
       <c r="D52" t="s">
+        <v>490</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52" t="s">
         <v>491</v>
       </c>
-      <c r="E52" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F52" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>90</v>
       </c>
       <c r="D53" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F53" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>83</v>
       </c>
       <c r="D54" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F54" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>84</v>
       </c>
@@ -10181,10 +10255,10 @@
         <v>81</v>
       </c>
       <c r="F55" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>85</v>
       </c>
@@ -10195,7 +10269,407 @@
         <v>80</v>
       </c>
       <c r="F56" t="s">
-        <v>496</v>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" t="s">
+        <v>415</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="C59" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" t="s">
+        <v>503</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="C60" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" t="s">
+        <v>103</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F60" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" t="s">
+        <v>504</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F62" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="C63" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" t="s">
+        <v>505</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F63" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="C64" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" t="s">
+        <v>103</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F64" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="C65" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" t="s">
+        <v>349</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F65" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="C66" t="s">
+        <v>87</v>
+      </c>
+      <c r="D66" t="s">
+        <v>258</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F66" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>315</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" t="s">
+        <v>243</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F68" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>90</v>
+      </c>
+      <c r="D69" t="s">
+        <v>504</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F69" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>83</v>
+      </c>
+      <c r="D70" t="s">
+        <v>387</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F70" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>84</v>
+      </c>
+      <c r="D71" t="s">
+        <v>416</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F71" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>85</v>
+      </c>
+      <c r="D72" t="s">
+        <v>92</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F72" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>86</v>
+      </c>
+      <c r="D73" t="s">
+        <v>385</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F73" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>87</v>
+      </c>
+      <c r="D74" t="s">
+        <v>397</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F74" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>460</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>83</v>
+      </c>
+      <c r="D76" t="s">
+        <v>512</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F76" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" t="s">
+        <v>513</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F77" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>85</v>
+      </c>
+      <c r="D78" t="s">
+        <v>287</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>86</v>
+      </c>
+      <c r="D79" t="s">
+        <v>511</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F79" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>87</v>
+      </c>
+      <c r="D80" t="s">
+        <v>249</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F80" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>463</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82" t="s">
+        <v>517</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F82" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>83</v>
+      </c>
+      <c r="D83" t="s">
+        <v>438</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F83" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>84</v>
+      </c>
+      <c r="D84" t="s">
+        <v>518</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F84" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>85</v>
+      </c>
+      <c r="D85" t="s">
+        <v>519</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>86</v>
+      </c>
+      <c r="D86" t="s">
+        <v>470</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F86" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>87</v>
+      </c>
+      <c r="D87" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F87" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -10212,21 +10686,20 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -10246,7 +10719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -10268,7 +10741,7 @@
       </c>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -10290,7 +10763,7 @@
       </c>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -10311,7 +10784,7 @@
         <v>0.23529411764705882</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -10332,7 +10805,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -10353,7 +10826,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -10374,75 +10847,75 @@
         <v>0.765625</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>0.90476190476190477</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.90769230769230769</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ref="C9:E9" si="1">SUM(C2:C8)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F9" s="3">
         <f>(D9-E9)/D9</f>
-        <v>0.65134099616858232</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.67253521126760563</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>16.428571428571427</v>
+        <v>17.142857142857142</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ref="C10:E10" si="2">AVERAGE(C2:C8)</f>
-        <v>2</v>
+        <v>2.4285714285714284</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="2"/>
-        <v>37.285714285714285</v>
+        <v>40.571428571428569</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>13.285714285714286</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" ref="F10" si="3">(D10-E10)/D10</f>
-        <v>0.65134099616858232</v>
+        <v>0.67253521126760563</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Jannik Sinner.xlsx
+++ b/Tennis/ATP Tour/Jannik Sinner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="292" documentId="13_ncr:1_{CDAADD05-1470-488F-A8B7-54C6C98C696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5445D11D-80D1-45E1-9421-E9C22EB75D24}"/>
+  <xr:revisionPtr revIDLastSave="346" documentId="13_ncr:1_{CDAADD05-1470-488F-A8B7-54C6C98C696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{949A8B2B-9B98-4F8E-B1D0-F8211CA8B557}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1980" yWindow="6135" windowWidth="8625" windowHeight="15285" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="9465" yWindow="2265" windowWidth="28800" windowHeight="15345" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="14" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="521">
   <si>
     <t>6-2 6-3</t>
   </si>
@@ -1595,19 +1595,16 @@
     <t>6-7(6) 6-4 7-6(3)</t>
   </si>
   <si>
-    <t>Taro Daniel</t>
-  </si>
-  <si>
-    <t>(14) Ben Shelton</t>
-  </si>
-  <si>
-    <t>(5) Daniil Medvedev</t>
-  </si>
-  <si>
     <t>6-7(3) 6-4 6-2</t>
   </si>
   <si>
     <t>6-4 7-6(1)</t>
+  </si>
+  <si>
+    <t>7-6(2) 6-2</t>
+  </si>
+  <si>
+    <t>DUBAI OPEN</t>
   </si>
 </sst>
 </file>
@@ -1887,7 +1884,7 @@
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2471,7 +2468,7 @@
                   <c:v>0.765625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.90769230769230769</c:v>
+                  <c:v>0.9178082191780822</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4267,7 +4264,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4389,7 +4386,7 @@
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5416,8 +5413,8 @@
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5981,8 +5978,8 @@
   </sheetPr>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7189,13 +7186,13 @@
   </sheetPr>
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
@@ -7301,7 +7298,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>366</v>
+        <v>520</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -8193,8 +8190,8 @@
   </sheetPr>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9524,10 +9521,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E80" activeCellId="5" sqref="E20 E32 E44 E56 E60 E80"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10593,7 +10590,7 @@
         <v>90</v>
       </c>
       <c r="D82" t="s">
-        <v>517</v>
+        <v>410</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>81</v>
@@ -10613,7 +10610,7 @@
         <v>81</v>
       </c>
       <c r="F83" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -10621,13 +10618,13 @@
         <v>84</v>
       </c>
       <c r="D84" t="s">
+        <v>257</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F84" t="s">
         <v>518</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F84" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -10635,7 +10632,7 @@
         <v>85</v>
       </c>
       <c r="D85" t="s">
-        <v>519</v>
+        <v>92</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>81</v>
@@ -10670,6 +10667,127 @@
       </c>
       <c r="F87" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>406</v>
+      </c>
+      <c r="D89" t="s">
+        <v>355</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F89" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="8"/>
+      <c r="C90" t="s">
+        <v>406</v>
+      </c>
+      <c r="D90" t="s">
+        <v>397</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F90" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="8"/>
+      <c r="C91" t="s">
+        <v>406</v>
+      </c>
+      <c r="D91" t="s">
+        <v>92</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F91" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="8"/>
+      <c r="C92" t="s">
+        <v>86</v>
+      </c>
+      <c r="D92" t="s">
+        <v>351</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F92" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="8"/>
+      <c r="C93" t="s">
+        <v>87</v>
+      </c>
+      <c r="D93" t="s">
+        <v>397</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F93" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" t="s">
+        <v>101</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="8"/>
+      <c r="D96" t="s">
+        <v>355</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F96" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="8"/>
+      <c r="D97" t="s">
+        <v>440</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F97" t="s">
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -10685,8 +10803,8 @@
   </sheetPr>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10852,20 +10970,20 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>0.90769230769230769</v>
+        <v>0.9178082191780822</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -10874,15 +10992,15 @@
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ref="C9:E9" si="1">SUM(C2:C8)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
@@ -10890,7 +11008,7 @@
       </c>
       <c r="F9" s="3">
         <f>(D9-E9)/D9</f>
-        <v>0.67253521126760563</v>
+        <v>0.68150684931506844</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -10899,15 +11017,15 @@
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>17.142857142857142</v>
+        <v>17.428571428571427</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ref="C10:E10" si="2">AVERAGE(C2:C8)</f>
-        <v>2.4285714285714284</v>
+        <v>2.5714285714285716</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="2"/>
-        <v>40.571428571428569</v>
+        <v>41.714285714285715</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
@@ -10915,7 +11033,7 @@
       </c>
       <c r="F10" s="3">
         <f t="shared" ref="F10" si="3">(D10-E10)/D10</f>
-        <v>0.67253521126760563</v>
+        <v>0.68150684931506855</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Jannik Sinner.xlsx
+++ b/Tennis/ATP Tour/Jannik Sinner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="346" documentId="13_ncr:1_{CDAADD05-1470-488F-A8B7-54C6C98C696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{949A8B2B-9B98-4F8E-B1D0-F8211CA8B557}"/>
+  <xr:revisionPtr revIDLastSave="398" documentId="13_ncr:1_{CDAADD05-1470-488F-A8B7-54C6C98C696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DD9DB21-C258-4AE0-A97E-090652A6B56F}"/>
   <bookViews>
-    <workbookView xWindow="9465" yWindow="2265" windowWidth="28800" windowHeight="15345" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3810" yWindow="3810" windowWidth="28800" windowHeight="15285" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="14" r:id="rId1"/>
@@ -20,9 +20,8 @@
     <sheet name="2022" sheetId="18" r:id="rId5"/>
     <sheet name="2023" sheetId="19" r:id="rId6"/>
     <sheet name="2024" sheetId="22" r:id="rId7"/>
-    <sheet name="Stats" sheetId="1" r:id="rId8"/>
-    <sheet name="Wins-Losses" sheetId="23" r:id="rId9"/>
-    <sheet name="Winning Percentile Range" sheetId="24" r:id="rId10"/>
+    <sheet name="2025" sheetId="25" r:id="rId8"/>
+    <sheet name="Stats" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="529">
   <si>
     <t>6-2 6-3</t>
   </si>
@@ -1605,6 +1604,30 @@
   </si>
   <si>
     <t>DUBAI OPEN</t>
+  </si>
+  <si>
+    <t>Tristan Schoolkate (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>Marcos Giron (USA)</t>
+  </si>
+  <si>
+    <t>7-6(2) 7-6(5) 6-1</t>
+  </si>
+  <si>
+    <t>4-6 6-4 6-1 6-3</t>
+  </si>
+  <si>
+    <t>6-3 3-6 6-3 6-2</t>
+  </si>
+  <si>
+    <t>6-3 6-2 6-1</t>
+  </si>
+  <si>
+    <t>7-6(2) 6-2 6-2</t>
+  </si>
+  <si>
+    <t>6-3 7-6(4) 6-3</t>
   </si>
 </sst>
 </file>
@@ -1759,11 +1782,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Jannik</a:t>
+              <a:t>Jannik Sinner (ITALY):</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Sinner (ITALY): Wins-Losses</a:t>
+              <a:t> Wins-Losses</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -1831,10 +1854,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$8</c:f>
+              <c:f>Stats!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -1856,15 +1879,18 @@
                 <c:pt idx="6">
                   <c:v>2024</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>2025</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$D$2:$D$8</c:f>
+              <c:f>Stats!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1886,12 +1912,15 @@
                 <c:pt idx="6">
                   <c:v>73</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0DD7-4435-A8A7-FF93FD940E3F}"/>
+              <c16:uniqueId val="{00000000-22E8-47A1-A022-EA37055F0AFC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1921,10 +1950,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$8</c:f>
+              <c:f>Stats!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -1946,15 +1975,18 @@
                 <c:pt idx="6">
                   <c:v>2024</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>2025</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$E$2:$E$8</c:f>
+              <c:f>Stats!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1976,12 +2008,15 @@
                 <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0DD7-4435-A8A7-FF93FD940E3F}"/>
+              <c16:uniqueId val="{00000001-22E8-47A1-A022-EA37055F0AFC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1995,11 +2030,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="316434320"/>
-        <c:axId val="114624912"/>
+        <c:axId val="1152441280"/>
+        <c:axId val="1152440800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="316434320"/>
+        <c:axId val="1152441280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2097,7 +2132,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114624912"/>
+        <c:crossAx val="1152440800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2105,7 +2140,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114624912"/>
+        <c:axId val="1152440800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2146,7 +2181,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="1"/>
-                  <a:t>NUMBER OF AMTCHES</a:t>
+                  <a:t>NUMBER OF MATCHES</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2211,7 +2246,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316434320"/>
+        <c:crossAx val="1152441280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2283,6 +2318,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2321,8 +2361,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Jannik Sinner (ITALY): Wins-Losses</a:t>
+              <a:t>Jannik</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Sinner (ITALY): Winning Percentile Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2415,10 +2460,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$8</c:f>
+              <c:f>Stats!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -2440,15 +2485,18 @@
                 <c:pt idx="6">
                   <c:v>2024</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>2025</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$F$2:$F$8</c:f>
+              <c:f>Stats!$F$2:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>-2</c:v>
                 </c:pt>
@@ -2470,13 +2518,16 @@
                 <c:pt idx="6">
                   <c:v>0.9178082191780822</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-054F-4B7E-BDAF-D3956BBC21F0}"/>
+              <c16:uniqueId val="{00000000-A277-40BE-8EFF-600983BEDA13}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2490,11 +2541,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1669638160"/>
-        <c:axId val="775370592"/>
+        <c:axId val="1157736768"/>
+        <c:axId val="1157737248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1669638160"/>
+        <c:axId val="1157736768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2592,7 +2643,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="775370592"/>
+        <c:crossAx val="1157737248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2600,7 +2651,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="775370592"/>
+        <c:axId val="1157737248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2706,7 +2757,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1669638160"/>
+        <c:crossAx val="1157736768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2778,6 +2829,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3867,47 +3923,31 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{819B5ABC-0695-43D6-B6C0-D03592E8E2E6}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{DF3713A2-DDB7-4F0B-AC23-31C18C694183}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D00EA0CA-60FE-053D-9C9B-D1B7EFA5188C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B0F7FBC-BA5F-B911-E045-E11A23D9C2CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3920,27 +3960,30 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>185736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97A42A7E-580C-48FA-F0B4-9B4AD4C158C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E4F84CA-55B0-B4AB-8796-B8763BC4CB1F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3948,12 +3991,12 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9523,8 +9566,8 @@
   </sheetPr>
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68:C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10797,14 +10840,165 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1705C3-CBDD-47D9-90C9-78F389025EBC}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>522</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s">
+        <v>431</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
+        <v>355</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
+        <v>349</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" t="s">
+        <v>528</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10876,7 +11070,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" ref="F3:F8" si="0">(D3-E3)/D3</f>
+        <f t="shared" ref="F3:F9" si="0">(D3-E3)/D3</f>
         <v>0.58139534883720934</v>
       </c>
       <c r="N3" s="4"/>
@@ -10987,57 +11181,78 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2">
-        <f>SUM(B2:B8)</f>
-        <v>122</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" ref="C9:E9" si="1">SUM(C2:C8)</f>
-        <v>18</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="1"/>
-        <v>292</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="F9" s="3">
-        <f>(D9-E9)/D9</f>
-        <v>0.68150684931506844</v>
+      <c r="A9">
+        <v>2025</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <f>SUM(B2:B9)</f>
+        <v>123</v>
+      </c>
+      <c r="C10" s="2">
+        <f>SUM(C2:C9)</f>
+        <v>19</v>
+      </c>
+      <c r="D10" s="2">
+        <f>SUM(D2:D9)</f>
+        <v>299</v>
+      </c>
+      <c r="E10" s="2">
+        <f>SUM(E2:E9)</f>
+        <v>93</v>
+      </c>
+      <c r="F10" s="3">
+        <f>(D10-E10)/D10</f>
+        <v>0.68896321070234112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2">
-        <f>AVERAGE(B2:B8)</f>
-        <v>17.428571428571427</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" ref="C10:E10" si="2">AVERAGE(C2:C8)</f>
-        <v>2.5714285714285716</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="2"/>
-        <v>41.714285714285715</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="2"/>
-        <v>13.285714285714286</v>
-      </c>
-      <c r="F10" s="3">
-        <f t="shared" ref="F10" si="3">(D10-E10)/D10</f>
-        <v>0.68150684931506855</v>
+      <c r="B11" s="2">
+        <f>AVERAGE(B2:B9)</f>
+        <v>15.375</v>
+      </c>
+      <c r="C11" s="2">
+        <f>AVERAGE(C2:C9)</f>
+        <v>2.375</v>
+      </c>
+      <c r="D11" s="2">
+        <f>AVERAGE(D2:D9)</f>
+        <v>37.375</v>
+      </c>
+      <c r="E11" s="2">
+        <f>AVERAGE(E2:E9)</f>
+        <v>11.625</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" ref="F11" si="1">(D11-E11)/D11</f>
+        <v>0.68896321070234112</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F8">
+  <conditionalFormatting sqref="F2:F9">
     <cfRule type="iconSet" priority="11">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -11048,5 +11263,6 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tennis/ATP Tour/Jannik Sinner.xlsx
+++ b/Tennis/ATP Tour/Jannik Sinner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="398" documentId="13_ncr:1_{CDAADD05-1470-488F-A8B7-54C6C98C696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DD9DB21-C258-4AE0-A97E-090652A6B56F}"/>
+  <xr:revisionPtr revIDLastSave="498" documentId="13_ncr:1_{CDAADD05-1470-488F-A8B7-54C6C98C696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CDEE82C-91E9-43C7-9D98-CF5EDBC1F3AB}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="3810" windowWidth="28800" windowHeight="15285" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="14" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="546">
   <si>
     <t>6-2 6-3</t>
   </si>
@@ -394,9 +394,6 @@
     <t>4-6 6-1 6-3</t>
   </si>
   <si>
-    <t>Binghamton CH</t>
-  </si>
-  <si>
     <t>7-5 1-6 6-3</t>
   </si>
   <si>
@@ -1054,9 +1051,6 @@
     <t>ROTTERDAM OPEN</t>
   </si>
   <si>
-    <t>Radu Albot (MOLDOVA)</t>
-  </si>
-  <si>
     <t>David Goffin (BELGIUM)</t>
   </si>
   <si>
@@ -1628,6 +1622,63 @@
   </si>
   <si>
     <t>6-3 7-6(4) 6-3</t>
+  </si>
+  <si>
+    <t>Mariano Navone (ARGENTINA)</t>
+  </si>
+  <si>
+    <t>1-6 6-0 6-3</t>
+  </si>
+  <si>
+    <t>7-6(5) 6-1</t>
+  </si>
+  <si>
+    <t>6-4 6-3 7-5</t>
+  </si>
+  <si>
+    <t>6-3 6-0 6-4</t>
+  </si>
+  <si>
+    <t>6-0 6-1 6-2</t>
+  </si>
+  <si>
+    <t>6-1 6-3 6-4</t>
+  </si>
+  <si>
+    <t>6-1 7-5 6-0</t>
+  </si>
+  <si>
+    <t>6-4 7-5 7-6(3)</t>
+  </si>
+  <si>
+    <t>6-4 7-6(4) 4-6 6-7(3) 6-7(2-10)</t>
+  </si>
+  <si>
+    <t>3-6 6-3 6-4</t>
+  </si>
+  <si>
+    <t>Aleksandar Vukic</t>
+  </si>
+  <si>
+    <t>Luca Nardi (ITALY)</t>
+  </si>
+  <si>
+    <t>6-4 6-3 6-0</t>
+  </si>
+  <si>
+    <t>6-1 6-1 6-3</t>
+  </si>
+  <si>
+    <t>6-1 6-3 6-1</t>
+  </si>
+  <si>
+    <t>4-6 6-4 6-4 6-4</t>
+  </si>
+  <si>
+    <t>3-6 5-7 2-2 RETIRED</t>
+  </si>
+  <si>
+    <t>7-6(2) 6-4 6-4</t>
   </si>
 </sst>
 </file>
@@ -1913,7 +1964,7 @@
                   <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2009,7 +2060,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2519,7 +2570,7 @@
                   <c:v>0.9178082191780822</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0.88461538461538458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4000,10 +4051,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4342,7 +4389,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -4351,7 +4398,7 @@
         <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>80</v>
@@ -4362,7 +4409,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -4371,7 +4418,7 @@
         <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>81</v>
@@ -4385,7 +4432,7 @@
         <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>80</v>
@@ -4396,7 +4443,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -4405,7 +4452,7 @@
         <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>80</v>
@@ -4428,14 +4475,14 @@
   </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
@@ -4464,7 +4511,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -4473,7 +4520,7 @@
         <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>81</v>
@@ -4487,7 +4534,7 @@
         <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>81</v>
@@ -4501,7 +4548,7 @@
         <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>81</v>
@@ -4515,7 +4562,7 @@
         <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>81</v>
@@ -4529,7 +4576,7 @@
         <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>81</v>
@@ -4543,7 +4590,7 @@
         <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>81</v>
@@ -4554,7 +4601,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -4563,18 +4610,18 @@
         <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -4583,13 +4630,13 @@
         <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4597,7 +4644,7 @@
         <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>80</v>
@@ -4608,30 +4655,30 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>81</v>
@@ -4645,13 +4692,13 @@
         <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4659,7 +4706,7 @@
         <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>80</v>
@@ -4670,7 +4717,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -4679,7 +4726,7 @@
         <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>81</v>
@@ -4693,7 +4740,7 @@
         <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>81</v>
@@ -4707,7 +4754,7 @@
         <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>81</v>
@@ -4721,7 +4768,7 @@
         <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>81</v>
@@ -4735,13 +4782,13 @@
         <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -4749,7 +4796,7 @@
         <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>80</v>
@@ -4760,7 +4807,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -4769,13 +4816,13 @@
         <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -4783,7 +4830,7 @@
         <v>83</v>
       </c>
       <c r="D27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>80</v>
@@ -4794,7 +4841,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
@@ -4803,13 +4850,13 @@
         <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -4817,7 +4864,7 @@
         <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>80</v>
@@ -4828,30 +4875,30 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B32" t="s">
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>81</v>
@@ -4865,7 +4912,7 @@
         <v>83</v>
       </c>
       <c r="D34" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>80</v>
@@ -4876,47 +4923,47 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B36" t="s">
         <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B38" t="s">
         <v>29</v>
       </c>
       <c r="C38" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B40" t="s">
         <v>22</v>
@@ -4925,13 +4972,13 @@
         <v>83</v>
       </c>
       <c r="D40" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -4939,27 +4986,27 @@
         <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>83</v>
       </c>
       <c r="D43" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>81</v>
@@ -4973,18 +5020,18 @@
         <v>84</v>
       </c>
       <c r="D44" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
@@ -4993,7 +5040,7 @@
         <v>83</v>
       </c>
       <c r="D46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>81</v>
@@ -5007,7 +5054,7 @@
         <v>84</v>
       </c>
       <c r="D47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>81</v>
@@ -5021,7 +5068,7 @@
         <v>85</v>
       </c>
       <c r="D48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>81</v>
@@ -5035,7 +5082,7 @@
         <v>86</v>
       </c>
       <c r="D49" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>81</v>
@@ -5049,7 +5096,7 @@
         <v>87</v>
       </c>
       <c r="D50" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>81</v>
@@ -5060,7 +5107,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -5069,7 +5116,7 @@
         <v>90</v>
       </c>
       <c r="D52" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>81</v>
@@ -5083,7 +5130,7 @@
         <v>83</v>
       </c>
       <c r="D53" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>80</v>
@@ -5094,16 +5141,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D55" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>81</v>
@@ -5114,10 +5161,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>81</v>
@@ -5128,10 +5175,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D57" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>81</v>
@@ -5145,7 +5192,7 @@
         <v>88</v>
       </c>
       <c r="D58" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>80</v>
@@ -5156,7 +5203,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
@@ -5165,7 +5212,7 @@
         <v>83</v>
       </c>
       <c r="D60" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>80</v>
@@ -5176,7 +5223,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
@@ -5185,7 +5232,7 @@
         <v>83</v>
       </c>
       <c r="D62" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>81</v>
@@ -5199,7 +5246,7 @@
         <v>84</v>
       </c>
       <c r="D63" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>80</v>
@@ -5210,7 +5257,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
@@ -5219,7 +5266,7 @@
         <v>83</v>
       </c>
       <c r="D65" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>81</v>
@@ -5233,7 +5280,7 @@
         <v>84</v>
       </c>
       <c r="D66" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>81</v>
@@ -5247,7 +5294,7 @@
         <v>85</v>
       </c>
       <c r="D67" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>81</v>
@@ -5261,7 +5308,7 @@
         <v>86</v>
       </c>
       <c r="D68" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>80</v>
@@ -5272,7 +5319,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
@@ -5281,7 +5328,7 @@
         <v>83</v>
       </c>
       <c r="D70" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>81</v>
@@ -5295,7 +5342,7 @@
         <v>84</v>
       </c>
       <c r="D71" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>81</v>
@@ -5309,7 +5356,7 @@
         <v>85</v>
       </c>
       <c r="D72" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>81</v>
@@ -5323,7 +5370,7 @@
         <v>86</v>
       </c>
       <c r="D73" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>80</v>
@@ -5334,7 +5381,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
@@ -5343,7 +5390,7 @@
         <v>83</v>
       </c>
       <c r="D75" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>81</v>
@@ -5357,7 +5404,7 @@
         <v>84</v>
       </c>
       <c r="D76" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>80</v>
@@ -5368,7 +5415,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -5377,7 +5424,7 @@
         <v>83</v>
       </c>
       <c r="D78" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>81</v>
@@ -5391,7 +5438,7 @@
         <v>84</v>
       </c>
       <c r="D79" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>81</v>
@@ -5405,7 +5452,7 @@
         <v>85</v>
       </c>
       <c r="D80" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>81</v>
@@ -5419,7 +5466,7 @@
         <v>86</v>
       </c>
       <c r="D81" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>81</v>
@@ -5433,7 +5480,7 @@
         <v>87</v>
       </c>
       <c r="D82" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>81</v>
@@ -5454,10 +5501,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5492,7 +5539,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -5501,7 +5548,7 @@
         <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>80</v>
@@ -5512,7 +5559,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -5521,7 +5568,7 @@
         <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>80</v>
@@ -5541,13 +5588,13 @@
         <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5555,18 +5602,18 @@
         <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -5575,7 +5622,7 @@
         <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>80</v>
@@ -5586,426 +5633,412 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>337</v>
-      </c>
-      <c r="E11" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>252</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
+        <v>337</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>339</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
+        <v>338</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>84</v>
       </c>
-      <c r="D12" t="s">
-        <v>338</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" t="s">
-        <v>339</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="D15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>340</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
+        <v>312</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" t="s">
         <v>341</v>
       </c>
-      <c r="B15" t="s">
+      <c r="E18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>500</v>
+      </c>
+      <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D20" t="s">
+        <v>267</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>314</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>342</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
         <v>83</v>
       </c>
-      <c r="D15" t="s">
-        <v>340</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+      <c r="D24" t="s">
+        <v>327</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
         <v>84</v>
       </c>
-      <c r="D16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="D25" t="s">
+        <v>281</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>342</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>290</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" t="s">
+        <v>332</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
         <v>83</v>
       </c>
-      <c r="D18" t="s">
-        <v>313</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" t="s">
-        <v>343</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>502</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>278</v>
-      </c>
-      <c r="D21" t="s">
-        <v>268</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>315</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>344</v>
-      </c>
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" t="s">
-        <v>328</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" t="s">
-        <v>282</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="D28" t="s">
         <v>291</v>
       </c>
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" t="s">
-        <v>333</v>
-      </c>
       <c r="E28" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F28" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>292</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>81</v>
+        <v>343</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="F29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>344</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="s">
+        <v>336</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" t="s">
         <v>345</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>346</v>
-      </c>
-      <c r="B32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" t="s">
-        <v>338</v>
-      </c>
       <c r="E32" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" t="s">
+        <v>348</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>255</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" t="s">
+        <v>349</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
         <v>84</v>
       </c>
-      <c r="D35" t="s">
-        <v>349</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F35" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="D38" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" t="s">
         <v>350</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F36" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>256</v>
-      </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>351</v>
+      </c>
+      <c r="B40" t="s">
         <v>7</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C40" t="s">
         <v>83</v>
       </c>
-      <c r="D38" t="s">
-        <v>351</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
+      <c r="D40" t="s">
+        <v>250</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
         <v>84</v>
       </c>
-      <c r="D39" t="s">
-        <v>103</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="D41" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>353</v>
-      </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" t="s">
-        <v>251</v>
-      </c>
       <c r="E41" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D42" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D43" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>147</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D44" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>87</v>
-      </c>
-      <c r="D45" t="s">
-        <v>357</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -6021,8 +6054,8 @@
   </sheetPr>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55:F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6057,7 +6090,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -6066,7 +6099,7 @@
         <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>81</v>
@@ -6080,13 +6113,13 @@
         <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6094,13 +6127,13 @@
         <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6114,7 +6147,7 @@
         <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6122,7 +6155,7 @@
         <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>81</v>
@@ -6142,18 +6175,18 @@
         <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -6162,18 +6195,18 @@
         <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -6182,13 +6215,13 @@
         <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6196,7 +6229,7 @@
         <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>81</v>
@@ -6221,7 +6254,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -6230,13 +6263,13 @@
         <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -6244,13 +6277,13 @@
         <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -6258,7 +6291,7 @@
         <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>80</v>
@@ -6269,7 +6302,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -6278,7 +6311,7 @@
         <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>81</v>
@@ -6298,7 +6331,7 @@
         <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -6306,7 +6339,7 @@
         <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>81</v>
@@ -6320,13 +6353,13 @@
         <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -6334,7 +6367,7 @@
         <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>81</v>
@@ -6348,7 +6381,7 @@
         <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>80</v>
@@ -6359,7 +6392,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
@@ -6368,7 +6401,7 @@
         <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>81</v>
@@ -6393,7 +6426,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
@@ -6402,7 +6435,7 @@
         <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>81</v>
@@ -6416,13 +6449,13 @@
         <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -6444,7 +6477,7 @@
         <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>80</v>
@@ -6455,7 +6488,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
@@ -6464,13 +6497,13 @@
         <v>90</v>
       </c>
       <c r="D35" t="s">
+        <v>375</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" t="s">
         <v>377</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F35" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -6478,7 +6511,7 @@
         <v>83</v>
       </c>
       <c r="D36" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>80</v>
@@ -6489,7 +6522,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
@@ -6498,7 +6531,7 @@
         <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>81</v>
@@ -6512,7 +6545,7 @@
         <v>83</v>
       </c>
       <c r="D39" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>80</v>
@@ -6523,7 +6556,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B41" t="s">
         <v>22</v>
@@ -6532,13 +6565,13 @@
         <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -6546,18 +6579,18 @@
         <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
@@ -6566,13 +6599,13 @@
         <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -6580,13 +6613,13 @@
         <v>90</v>
       </c>
       <c r="D45" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -6594,13 +6627,13 @@
         <v>83</v>
       </c>
       <c r="D46" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -6608,18 +6641,18 @@
         <v>84</v>
       </c>
       <c r="D47" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B49" t="s">
         <v>29</v>
@@ -6628,18 +6661,18 @@
         <v>83</v>
       </c>
       <c r="D49" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B51" t="s">
         <v>29</v>
@@ -6648,18 +6681,18 @@
         <v>88</v>
       </c>
       <c r="D51" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -6668,7 +6701,7 @@
         <v>84</v>
       </c>
       <c r="D53" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>80</v>
@@ -6679,7 +6712,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -6688,7 +6721,7 @@
         <v>83</v>
       </c>
       <c r="D55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>81</v>
@@ -6702,13 +6735,13 @@
         <v>84</v>
       </c>
       <c r="D56" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -6716,7 +6749,7 @@
         <v>85</v>
       </c>
       <c r="D57" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>81</v>
@@ -6730,13 +6763,13 @@
         <v>86</v>
       </c>
       <c r="D58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -6744,18 +6777,18 @@
         <v>87</v>
       </c>
       <c r="D59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
@@ -6764,7 +6797,7 @@
         <v>83</v>
       </c>
       <c r="D61" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>80</v>
@@ -6775,7 +6808,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
@@ -6784,7 +6817,7 @@
         <v>90</v>
       </c>
       <c r="D63" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>81</v>
@@ -6798,18 +6831,18 @@
         <v>83</v>
       </c>
       <c r="D64" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F64" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
@@ -6818,13 +6851,13 @@
         <v>88</v>
       </c>
       <c r="D66" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F66" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -6832,13 +6865,13 @@
         <v>90</v>
       </c>
       <c r="D67" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F67" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -6846,13 +6879,13 @@
         <v>83</v>
       </c>
       <c r="D68" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F68" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -6860,18 +6893,18 @@
         <v>84</v>
       </c>
       <c r="D69" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
@@ -6880,13 +6913,13 @@
         <v>84</v>
       </c>
       <c r="D71" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -6894,7 +6927,7 @@
         <v>85</v>
       </c>
       <c r="D72" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>81</v>
@@ -6908,7 +6941,7 @@
         <v>86</v>
       </c>
       <c r="D73" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>81</v>
@@ -6922,7 +6955,7 @@
         <v>87</v>
       </c>
       <c r="D74" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>81</v>
@@ -6933,7 +6966,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
@@ -6942,7 +6975,7 @@
         <v>90</v>
       </c>
       <c r="D76" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>81</v>
@@ -6956,13 +6989,13 @@
         <v>83</v>
       </c>
       <c r="D77" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>81</v>
       </c>
       <c r="F77" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -6970,7 +7003,7 @@
         <v>84</v>
       </c>
       <c r="D78" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>80</v>
@@ -6981,7 +7014,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -6990,7 +7023,7 @@
         <v>84</v>
       </c>
       <c r="D80" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>81</v>
@@ -7004,7 +7037,7 @@
         <v>85</v>
       </c>
       <c r="D81" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>81</v>
@@ -7018,7 +7051,7 @@
         <v>86</v>
       </c>
       <c r="D82" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>81</v>
@@ -7032,7 +7065,7 @@
         <v>87</v>
       </c>
       <c r="D83" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>81</v>
@@ -7043,7 +7076,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -7052,7 +7085,7 @@
         <v>83</v>
       </c>
       <c r="D85" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>81</v>
@@ -7066,7 +7099,7 @@
         <v>84</v>
       </c>
       <c r="D86" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>81</v>
@@ -7080,7 +7113,7 @@
         <v>85</v>
       </c>
       <c r="D87" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>81</v>
@@ -7094,7 +7127,7 @@
         <v>86</v>
       </c>
       <c r="D88" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>80</v>
@@ -7105,7 +7138,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -7114,18 +7147,18 @@
         <v>83</v>
       </c>
       <c r="D90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F90" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
@@ -7134,7 +7167,7 @@
         <v>84</v>
       </c>
       <c r="D92" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>80</v>
@@ -7145,13 +7178,13 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D94" t="s">
         <v>92</v>
@@ -7160,15 +7193,15 @@
         <v>80</v>
       </c>
       <c r="F94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D95" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>81</v>
@@ -7179,13 +7212,13 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>81</v>
@@ -7196,7 +7229,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>81</v>
@@ -7207,13 +7240,13 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -7274,13 +7307,13 @@
         <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7288,13 +7321,13 @@
         <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7302,13 +7335,13 @@
         <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7316,13 +7349,13 @@
         <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7330,18 +7363,18 @@
         <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -7350,13 +7383,13 @@
         <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7364,7 +7397,7 @@
         <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>81</v>
@@ -7378,7 +7411,7 @@
         <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>80</v>
@@ -7389,13 +7422,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>81</v>
@@ -7406,7 +7439,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>81</v>
@@ -7417,7 +7450,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -7426,7 +7459,7 @@
         <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>81</v>
@@ -7440,13 +7473,13 @@
         <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -7454,18 +7487,18 @@
         <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>82</v>
       </c>
       <c r="F17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -7474,13 +7507,13 @@
         <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -7488,13 +7521,13 @@
         <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -7502,13 +7535,13 @@
         <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -7516,18 +7549,18 @@
         <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -7536,13 +7569,13 @@
         <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -7550,7 +7583,7 @@
         <v>83</v>
       </c>
       <c r="D25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>81</v>
@@ -7570,7 +7603,7 @@
         <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -7578,18 +7611,18 @@
         <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
@@ -7598,13 +7631,13 @@
         <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -7612,7 +7645,7 @@
         <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>81</v>
@@ -7626,7 +7659,7 @@
         <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>80</v>
@@ -7637,7 +7670,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
@@ -7646,7 +7679,7 @@
         <v>90</v>
       </c>
       <c r="D33" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>81</v>
@@ -7660,13 +7693,13 @@
         <v>83</v>
       </c>
       <c r="D34" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -7674,7 +7707,7 @@
         <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>81</v>
@@ -7688,7 +7721,7 @@
         <v>85</v>
       </c>
       <c r="D36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>80</v>
@@ -7699,7 +7732,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
@@ -7708,13 +7741,13 @@
         <v>88</v>
       </c>
       <c r="D38" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -7722,13 +7755,13 @@
         <v>90</v>
       </c>
       <c r="D39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -7736,13 +7769,13 @@
         <v>83</v>
       </c>
       <c r="D40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -7756,12 +7789,12 @@
         <v>80</v>
       </c>
       <c r="F41" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B43" t="s">
         <v>29</v>
@@ -7770,7 +7803,7 @@
         <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>80</v>
@@ -7781,7 +7814,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B45" t="s">
         <v>29</v>
@@ -7790,13 +7823,13 @@
         <v>88</v>
       </c>
       <c r="D45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -7804,13 +7837,13 @@
         <v>90</v>
       </c>
       <c r="D46" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -7818,13 +7851,13 @@
         <v>83</v>
       </c>
       <c r="D47" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -7832,13 +7865,13 @@
         <v>84</v>
       </c>
       <c r="D48" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -7852,12 +7885,12 @@
         <v>80</v>
       </c>
       <c r="F49" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B51" t="s">
         <v>22</v>
@@ -7866,7 +7899,7 @@
         <v>84</v>
       </c>
       <c r="D51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>81</v>
@@ -7880,13 +7913,13 @@
         <v>85</v>
       </c>
       <c r="D52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -7894,7 +7927,7 @@
         <v>86</v>
       </c>
       <c r="D53" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>81</v>
@@ -7908,18 +7941,18 @@
         <v>87</v>
       </c>
       <c r="D54" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -7928,7 +7961,7 @@
         <v>83</v>
       </c>
       <c r="D56" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>81</v>
@@ -7942,7 +7975,7 @@
         <v>84</v>
       </c>
       <c r="D57" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>80</v>
@@ -7953,7 +7986,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
@@ -7962,13 +7995,13 @@
         <v>90</v>
       </c>
       <c r="D59" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F59" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -7976,13 +8009,13 @@
         <v>83</v>
       </c>
       <c r="D60" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F60" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -7990,18 +8023,18 @@
         <v>84</v>
       </c>
       <c r="D61" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F61" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
@@ -8010,13 +8043,13 @@
         <v>88</v>
       </c>
       <c r="D63" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F63" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -8024,13 +8057,13 @@
         <v>90</v>
       </c>
       <c r="D64" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F64" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -8038,13 +8071,13 @@
         <v>83</v>
       </c>
       <c r="D65" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F65" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -8052,13 +8085,13 @@
         <v>84</v>
       </c>
       <c r="D66" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F66" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -8066,35 +8099,35 @@
         <v>85</v>
       </c>
       <c r="D67" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F67" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F69" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>80</v>
@@ -8105,7 +8138,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
@@ -8114,7 +8147,7 @@
         <v>84</v>
       </c>
       <c r="D72" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>81</v>
@@ -8128,7 +8161,7 @@
         <v>85</v>
       </c>
       <c r="D73" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>81</v>
@@ -8142,18 +8175,18 @@
         <v>86</v>
       </c>
       <c r="D74" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F74" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
@@ -8162,7 +8195,7 @@
         <v>83</v>
       </c>
       <c r="D76" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>81</v>
@@ -8176,7 +8209,7 @@
         <v>84</v>
       </c>
       <c r="D77" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>81</v>
@@ -8201,7 +8234,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -8210,7 +8243,7 @@
         <v>90</v>
       </c>
       <c r="D80" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>80</v>
@@ -8231,10 +8264,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8269,7 +8302,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -8278,7 +8311,7 @@
         <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>81</v>
@@ -8292,7 +8325,7 @@
         <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>81</v>
@@ -8306,7 +8339,7 @@
         <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>80</v>
@@ -8326,13 +8359,13 @@
         <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -8340,13 +8373,13 @@
         <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8354,13 +8387,13 @@
         <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8368,38 +8401,38 @@
         <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>251</v>
-      </c>
-      <c r="E11" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>252</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
         <v>253</v>
@@ -8408,12 +8441,12 @@
         <v>81</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
         <v>254</v>
@@ -8422,1133 +8455,1119 @@
         <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" t="s">
-        <v>255</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>335</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" t="s">
+        <v>345</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>336</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>347</v>
+        <v>437</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F16" t="s">
-        <v>234</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>439</v>
+        <v>318</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>319</v>
+        <v>438</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>393</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" t="s">
+        <v>439</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" t="s">
         <v>440</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>395</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" t="s">
-        <v>441</v>
-      </c>
       <c r="E22" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>442</v>
+        <v>318</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>319</v>
+        <v>395</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>397</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>81</v>
+        <v>248</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" t="s">
-        <v>249</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" t="s">
         <v>66</v>
       </c>
     </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>369</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" t="s">
+        <v>281</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>371</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>282</v>
+        <v>343</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>345</v>
+        <v>103</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>103</v>
+        <v>238</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>249</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>81</v>
+        <v>92</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="F32" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>441</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" t="s">
+        <v>442</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" t="s">
+        <v>444</v>
+      </c>
+    </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>443</v>
-      </c>
-      <c r="B35" t="s">
-        <v>22</v>
-      </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>444</v>
+        <v>368</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F35" t="s">
-        <v>446</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D36" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
-        <v>398</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>81</v>
+        <v>443</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>372</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" t="s">
+        <v>442</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" t="s">
         <v>445</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F38" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>374</v>
-      </c>
-      <c r="B40" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" t="s">
-        <v>444</v>
-      </c>
       <c r="E40" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D41" t="s">
-        <v>447</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>81</v>
+        <v>396</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="F41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" t="s">
-        <v>398</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F42" t="s">
-        <v>252</v>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>290</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" t="s">
+        <v>420</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>291</v>
-      </c>
-      <c r="B44" t="s">
-        <v>22</v>
-      </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D44" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" t="s">
+        <v>426</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>344</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" t="s">
+        <v>447</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" t="s">
+        <v>422</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>294</v>
+      </c>
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" t="s">
+        <v>448</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" t="s">
+        <v>238</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>298</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" t="s">
         <v>83</v>
       </c>
-      <c r="D45" t="s">
-        <v>448</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F45" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
+      <c r="D53" t="s">
+        <v>449</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
         <v>84</v>
       </c>
-      <c r="D46" t="s">
-        <v>428</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F46" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>346</v>
-      </c>
-      <c r="B48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" t="s">
-        <v>88</v>
-      </c>
-      <c r="D48" t="s">
-        <v>449</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F48" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>90</v>
-      </c>
-      <c r="D49" t="s">
-        <v>424</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F49" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>295</v>
-      </c>
-      <c r="B51" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" t="s">
-        <v>450</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>85</v>
-      </c>
-      <c r="D52" t="s">
-        <v>239</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F52" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>299</v>
-      </c>
-      <c r="B54" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" t="s">
-        <v>83</v>
-      </c>
       <c r="D54" t="s">
-        <v>451</v>
+        <v>252</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F54" t="s">
-        <v>48</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D55" t="s">
-        <v>253</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>81</v>
+        <v>448</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="F55" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
-        <v>85</v>
-      </c>
-      <c r="D56" t="s">
         <v>450</v>
       </c>
-      <c r="E56" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F56" t="s">
-        <v>452</v>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>300</v>
+      </c>
+      <c r="B57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" t="s">
+        <v>451</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F57" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>301</v>
-      </c>
-      <c r="B58" t="s">
-        <v>29</v>
-      </c>
       <c r="C58" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D58" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F58" t="s">
-        <v>94</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D59" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F59" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D60" t="s">
-        <v>454</v>
+        <v>406</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F60" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D61" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F61" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D62" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F62" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>387</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" t="s">
+        <v>454</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" t="s">
         <v>455</v>
       </c>
-      <c r="E62" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F62" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
-        <v>86</v>
-      </c>
-      <c r="D63" t="s">
-        <v>91</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F63" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>389</v>
-      </c>
-      <c r="B65" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" t="s">
-        <v>83</v>
-      </c>
-      <c r="D65" t="s">
-        <v>456</v>
-      </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="7" t="s">
         <v>81</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
+        <v>251</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D66" t="s">
-        <v>457</v>
-      </c>
-      <c r="E66" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="E66" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F66" t="s">
-        <v>252</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D67" t="s">
-        <v>327</v>
+        <v>414</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D68" t="s">
-        <v>416</v>
+        <v>353</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F68" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
-        <v>87</v>
-      </c>
-      <c r="D69" t="s">
-        <v>355</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F69" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>502</v>
-      </c>
-      <c r="B71" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>500</v>
+      </c>
+      <c r="B70" t="s">
         <v>7</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C70" t="s">
         <v>83</v>
       </c>
-      <c r="D71" t="s">
-        <v>458</v>
-      </c>
-      <c r="E71" s="5" t="s">
+      <c r="D70" t="s">
+        <v>456</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F70" t="s">
         <v>75</v>
       </c>
     </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>314</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>88</v>
+      </c>
+      <c r="D72" t="s">
+        <v>457</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F72" t="s">
+        <v>221</v>
+      </c>
+    </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>315</v>
-      </c>
-      <c r="B73" t="s">
-        <v>7</v>
-      </c>
       <c r="C73" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D73" t="s">
-        <v>459</v>
+        <v>252</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F73" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D74" t="s">
-        <v>253</v>
+        <v>318</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F74" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" t="s">
+        <v>347</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F75" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>458</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
         <v>83</v>
       </c>
-      <c r="D75" t="s">
-        <v>319</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F75" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
+      <c r="D77" t="s">
+        <v>459</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F77" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
         <v>84</v>
       </c>
-      <c r="D76" t="s">
-        <v>349</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F76" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="D78" t="s">
         <v>460</v>
       </c>
-      <c r="B78" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" t="s">
-        <v>83</v>
-      </c>
-      <c r="D78" t="s">
-        <v>461</v>
-      </c>
       <c r="E78" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F78" t="s">
-        <v>218</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D79" t="s">
-        <v>462</v>
+        <v>343</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F79" t="s">
-        <v>50</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D80" t="s">
-        <v>345</v>
+        <v>248</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F80" t="s">
-        <v>217</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D81" t="s">
-        <v>249</v>
+        <v>92</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
-        <v>87</v>
-      </c>
-      <c r="D82" t="s">
-        <v>92</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F82" t="s">
-        <v>216</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>461</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>90</v>
+      </c>
+      <c r="D83" t="s">
+        <v>462</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F83" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>463</v>
-      </c>
-      <c r="B84" t="s">
-        <v>7</v>
-      </c>
       <c r="C84" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D84" t="s">
-        <v>464</v>
+        <v>101</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F84" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85" t="s">
+        <v>256</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F85" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>255</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
         <v>83</v>
       </c>
-      <c r="D85" t="s">
-        <v>101</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F85" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C86" t="s">
+      <c r="D87" t="s">
+        <v>256</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F87" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
         <v>84</v>
       </c>
-      <c r="D86" t="s">
-        <v>257</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F86" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>256</v>
-      </c>
-      <c r="B88" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" t="s">
-        <v>83</v>
-      </c>
       <c r="D88" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F88" t="s">
-        <v>214</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D89" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F89" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D90" t="s">
-        <v>258</v>
+        <v>103</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>212</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D91" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F91" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C92" t="s">
-        <v>87</v>
-      </c>
-      <c r="D92" t="s">
-        <v>92</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F92" t="s">
-        <v>212</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>401</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>83</v>
+      </c>
+      <c r="D93" t="s">
+        <v>242</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F93" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="C94" t="s">
+        <v>84</v>
+      </c>
+      <c r="D94" t="s">
+        <v>353</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F94" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>403</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B96" t="s">
         <v>7</v>
       </c>
-      <c r="C94" t="s">
-        <v>83</v>
-      </c>
-      <c r="D94" t="s">
-        <v>243</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F94" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C95" t="s">
-        <v>84</v>
-      </c>
-      <c r="D95" t="s">
-        <v>355</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F95" t="s">
-        <v>252</v>
+      <c r="C96" t="s">
+        <v>404</v>
+      </c>
+      <c r="D96" t="s">
+        <v>291</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F96" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>405</v>
-      </c>
-      <c r="B97" t="s">
-        <v>7</v>
-      </c>
       <c r="C97" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D97" t="s">
-        <v>292</v>
+        <v>91</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F97" t="s">
-        <v>25</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D98" t="s">
-        <v>91</v>
+        <v>429</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F98" t="s">
-        <v>210</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
-        <v>406</v>
+        <v>86</v>
       </c>
       <c r="D99" t="s">
-        <v>431</v>
+        <v>92</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F99" t="s">
-        <v>70</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D100" t="s">
-        <v>92</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>81</v>
+        <v>91</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="F100" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C101" t="s">
-        <v>87</v>
-      </c>
-      <c r="D101" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>405</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" t="s">
+        <v>438</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F102" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
         <v>91</v>
       </c>
-      <c r="E101" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F101" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>407</v>
-      </c>
-      <c r="B103" t="s">
-        <v>7</v>
-      </c>
-      <c r="D103" t="s">
-        <v>440</v>
-      </c>
       <c r="E103" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>207</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
-        <v>91</v>
+        <v>353</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D105" t="s">
-        <v>355</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F105" t="s">
         <v>39</v>
       </c>
     </row>
@@ -9566,8 +9585,8 @@
   </sheetPr>
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68:C74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9706,7 +9725,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -9729,7 +9748,7 @@
         <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>81</v>
@@ -9743,13 +9762,13 @@
         <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -9757,7 +9776,7 @@
         <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>81</v>
@@ -9771,7 +9790,7 @@
         <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>81</v>
@@ -9782,7 +9801,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -9791,7 +9810,7 @@
         <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>81</v>
@@ -9805,7 +9824,7 @@
         <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>81</v>
@@ -9819,7 +9838,7 @@
         <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>81</v>
@@ -9833,7 +9852,7 @@
         <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>81</v>
@@ -9847,18 +9866,18 @@
         <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -9867,7 +9886,7 @@
         <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>81</v>
@@ -9881,13 +9900,13 @@
         <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -9895,7 +9914,7 @@
         <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>81</v>
@@ -9909,7 +9928,7 @@
         <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>81</v>
@@ -9937,7 +9956,7 @@
         <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>81</v>
@@ -9948,7 +9967,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
@@ -9957,7 +9976,7 @@
         <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>81</v>
@@ -9971,7 +9990,7 @@
         <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>81</v>
@@ -9985,13 +10004,13 @@
         <v>85</v>
       </c>
       <c r="D31" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F31" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -9999,7 +10018,7 @@
         <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>80</v>
@@ -10010,7 +10029,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
@@ -10019,13 +10038,13 @@
         <v>90</v>
       </c>
       <c r="D34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F34" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -10033,7 +10052,7 @@
         <v>83</v>
       </c>
       <c r="D35" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>81</v>
@@ -10053,7 +10072,7 @@
         <v>81</v>
       </c>
       <c r="F36" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -10061,18 +10080,18 @@
         <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>82</v>
       </c>
       <c r="F37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>
@@ -10081,13 +10100,13 @@
         <v>88</v>
       </c>
       <c r="D39" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F39" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -10095,13 +10114,13 @@
         <v>90</v>
       </c>
       <c r="D40" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -10109,13 +10128,13 @@
         <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F41" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -10123,13 +10142,13 @@
         <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -10137,13 +10156,13 @@
         <v>85</v>
       </c>
       <c r="D43" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -10151,18 +10170,18 @@
         <v>86</v>
       </c>
       <c r="D44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F44" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B46" t="s">
         <v>29</v>
@@ -10171,13 +10190,13 @@
         <v>83</v>
       </c>
       <c r="D46" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F46" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -10185,13 +10204,13 @@
         <v>84</v>
       </c>
       <c r="D47" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -10199,13 +10218,13 @@
         <v>85</v>
       </c>
       <c r="D48" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F48" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -10213,13 +10232,13 @@
         <v>86</v>
       </c>
       <c r="D49" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F49" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -10227,18 +10246,18 @@
         <v>87</v>
       </c>
       <c r="D50" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F50" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B52" t="s">
         <v>29</v>
@@ -10247,13 +10266,13 @@
         <v>88</v>
       </c>
       <c r="D52" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F52" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -10261,13 +10280,13 @@
         <v>90</v>
       </c>
       <c r="D53" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F53" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -10275,13 +10294,13 @@
         <v>83</v>
       </c>
       <c r="D54" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F54" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -10289,13 +10308,13 @@
         <v>84</v>
       </c>
       <c r="D55" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F55" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -10309,12 +10328,12 @@
         <v>80</v>
       </c>
       <c r="F56" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
@@ -10323,7 +10342,7 @@
         <v>83</v>
       </c>
       <c r="D58" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>81</v>
@@ -10338,7 +10357,7 @@
         <v>84</v>
       </c>
       <c r="D59" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>81</v>
@@ -10359,12 +10378,12 @@
         <v>80</v>
       </c>
       <c r="F60" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
@@ -10373,13 +10392,13 @@
         <v>83</v>
       </c>
       <c r="D62" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F62" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -10388,13 +10407,13 @@
         <v>84</v>
       </c>
       <c r="D63" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>81</v>
       </c>
       <c r="F63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -10409,7 +10428,7 @@
         <v>81</v>
       </c>
       <c r="F64" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -10418,13 +10437,13 @@
         <v>86</v>
       </c>
       <c r="D65" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F65" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -10433,18 +10452,18 @@
         <v>87</v>
       </c>
       <c r="D66" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F66" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
@@ -10453,13 +10472,13 @@
         <v>88</v>
       </c>
       <c r="D68" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F68" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -10467,13 +10486,13 @@
         <v>90</v>
       </c>
       <c r="D69" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F69" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -10481,13 +10500,13 @@
         <v>83</v>
       </c>
       <c r="D70" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F70" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -10495,13 +10514,13 @@
         <v>84</v>
       </c>
       <c r="D71" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F71" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -10515,7 +10534,7 @@
         <v>81</v>
       </c>
       <c r="F72" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -10523,13 +10542,13 @@
         <v>86</v>
       </c>
       <c r="D73" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F73" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -10537,18 +10556,18 @@
         <v>87</v>
       </c>
       <c r="D74" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F74" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
@@ -10557,7 +10576,7 @@
         <v>83</v>
       </c>
       <c r="D76" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>81</v>
@@ -10571,13 +10590,13 @@
         <v>84</v>
       </c>
       <c r="D77" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F77" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -10585,7 +10604,7 @@
         <v>85</v>
       </c>
       <c r="D78" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>81</v>
@@ -10599,13 +10618,13 @@
         <v>86</v>
       </c>
       <c r="D79" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F79" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -10613,18 +10632,18 @@
         <v>87</v>
       </c>
       <c r="D80" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F80" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
@@ -10633,7 +10652,7 @@
         <v>90</v>
       </c>
       <c r="D82" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>81</v>
@@ -10647,13 +10666,13 @@
         <v>83</v>
       </c>
       <c r="D83" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F83" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -10661,13 +10680,13 @@
         <v>84</v>
       </c>
       <c r="D84" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F84" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -10689,13 +10708,13 @@
         <v>86</v>
       </c>
       <c r="D86" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F86" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -10714,16 +10733,16 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D89" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>81</v>
@@ -10735,10 +10754,10 @@
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="C90" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D90" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>81</v>
@@ -10750,7 +10769,7 @@
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="C91" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D91" t="s">
         <v>92</v>
@@ -10768,7 +10787,7 @@
         <v>86</v>
       </c>
       <c r="D92" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>81</v>
@@ -10783,7 +10802,7 @@
         <v>87</v>
       </c>
       <c r="D93" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>81</v>
@@ -10794,7 +10813,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
@@ -10812,7 +10831,7 @@
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="D96" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>81</v>
@@ -10824,13 +10843,13 @@
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="D97" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F97" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -10844,10 +10863,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E28" activeCellId="4" sqref="E2:E8 E10:E14 E17:E22 E25 E28:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10855,9 +10874,9 @@
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -10891,13 +10910,13 @@
         <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -10905,13 +10924,13 @@
         <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -10919,13 +10938,13 @@
         <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -10933,13 +10952,13 @@
         <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -10947,13 +10966,13 @@
         <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -10961,13 +10980,13 @@
         <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -10975,13 +10994,345 @@
         <v>87</v>
       </c>
       <c r="D8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" t="s">
+        <v>527</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" t="s">
+        <v>426</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s">
         <v>349</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
+        <v>414</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" t="s">
         <v>528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" t="s">
+        <v>248</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>344</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" t="s">
+        <v>378</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" t="s">
+        <v>449</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>286</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" t="s">
+        <v>365</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" t="s">
+        <v>248</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>298</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" t="s">
+        <v>488</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" t="s">
+        <v>365</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>300</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" t="s">
+        <v>539</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" t="s">
+        <v>538</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" t="s">
+        <v>416</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" t="s">
+        <v>343</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" t="s">
+        <v>256</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" t="s">
+        <v>248</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" t="s">
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -10998,7 +11349,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11143,7 +11494,7 @@
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -11185,20 +11536,20 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.88461538461538458</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -11207,23 +11558,23 @@
       </c>
       <c r="B10" s="2">
         <f>SUM(B2:B9)</f>
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C10" s="2">
         <f>SUM(C2:C9)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2">
         <f>SUM(D2:D9)</f>
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="E10" s="2">
         <f>SUM(E2:E9)</f>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F10" s="3">
         <f>(D10-E10)/D10</f>
-        <v>0.68896321070234112</v>
+        <v>0.69811320754716977</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -11232,23 +11583,23 @@
       </c>
       <c r="B11" s="2">
         <f>AVERAGE(B2:B9)</f>
-        <v>15.375</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2">
         <f>AVERAGE(C2:C9)</f>
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="D11" s="2">
         <f>AVERAGE(D2:D9)</f>
-        <v>37.375</v>
+        <v>39.75</v>
       </c>
       <c r="E11" s="2">
         <f>AVERAGE(E2:E9)</f>
-        <v>11.625</v>
+        <v>12</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" ref="F11" si="1">(D11-E11)/D11</f>
-        <v>0.68896321070234112</v>
+        <v>0.69811320754716977</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Jannik Sinner.xlsx
+++ b/Tennis/ATP Tour/Jannik Sinner.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="498" documentId="13_ncr:1_{CDAADD05-1470-488F-A8B7-54C6C98C696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CDEE82C-91E9-43C7-9D98-CF5EDBC1F3AB}"/>
+  <xr:revisionPtr revIDLastSave="548" documentId="13_ncr:1_{CDAADD05-1470-488F-A8B7-54C6C98C696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3CE89B2-A04B-4EBA-A412-A08991C2CFE8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="560">
   <si>
     <t>6-2 6-3</t>
   </si>
@@ -1679,6 +1679,48 @@
   </si>
   <si>
     <t>7-6(2) 6-4 6-4</t>
+  </si>
+  <si>
+    <t>CINCNINATI MASTERS</t>
+  </si>
+  <si>
+    <t>CINCINNATI MASTERS</t>
+  </si>
+  <si>
+    <t>Gabriel Diallo (CANADA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-1 6-1 </t>
+  </si>
+  <si>
+    <t>6-0 6-2</t>
+  </si>
+  <si>
+    <t>5-0 RETIRED</t>
+  </si>
+  <si>
+    <t>Térence Atmane (FRANCE)</t>
+  </si>
+  <si>
+    <t>Vit Kopriva</t>
+  </si>
+  <si>
+    <t>Alexei Popyrin</t>
+  </si>
+  <si>
+    <t>6-1 6-1 6-2</t>
+  </si>
+  <si>
+    <t>6-1 6-1 6-1</t>
+  </si>
+  <si>
+    <t>6-1 3-6 6-3 6-4</t>
+  </si>
+  <si>
+    <t>5-7 6-4 6-3 6-1</t>
+  </si>
+  <si>
+    <t>6-2 3-6 6-1 6-4</t>
   </si>
 </sst>
 </file>
@@ -1964,7 +2006,7 @@
                   <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2060,7 +2102,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2570,7 +2612,7 @@
                   <c:v>0.9178082191780822</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.88461538461538458</c:v>
+                  <c:v>0.86486486486486491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7262,8 +7304,8 @@
   </sheetPr>
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8266,8 +8308,8 @@
   </sheetPr>
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9585,8 +9627,8 @@
   </sheetPr>
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10382,8 +10424,8 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
-        <v>500</v>
+      <c r="A62" t="s">
+        <v>547</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
@@ -10863,15 +10905,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" activeCellId="4" sqref="E2:E8 E10:E14 E17:E22 E25 E28:E34"/>
+      <selection activeCell="E26" activeCellId="2" sqref="E15 E23 E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
@@ -11307,7 +11349,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>86</v>
       </c>
@@ -11321,7 +11363,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>87</v>
       </c>
@@ -11333,6 +11375,200 @@
       </c>
       <c r="F34" t="s">
         <v>543</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>546</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>406</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" t="s">
+        <v>548</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
+        <v>354</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" t="s">
+        <v>415</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" t="s">
+        <v>552</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" t="s">
+        <v>248</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>314</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" t="s">
+        <v>553</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" t="s">
+        <v>554</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" t="s">
+        <v>361</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" t="s">
+        <v>365</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" t="s">
+        <v>396</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" t="s">
+        <v>415</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" t="s">
+        <v>248</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49" t="s">
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -11349,7 +11585,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11536,20 +11772,20 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="0"/>
-        <v>0.88461538461538458</v>
+        <v>0.86486486486486491</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -11558,7 +11794,7 @@
       </c>
       <c r="B10" s="2">
         <f>SUM(B2:B9)</f>
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C10" s="2">
         <f>SUM(C2:C9)</f>
@@ -11566,15 +11802,15 @@
       </c>
       <c r="D10" s="2">
         <f>SUM(D2:D9)</f>
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="E10" s="2">
         <f>SUM(E2:E9)</f>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F10" s="3">
         <f>(D10-E10)/D10</f>
-        <v>0.69811320754716977</v>
+        <v>0.7021276595744681</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -11583,7 +11819,7 @@
       </c>
       <c r="B11" s="2">
         <f>AVERAGE(B2:B9)</f>
-        <v>16</v>
+        <v>16.25</v>
       </c>
       <c r="C11" s="2">
         <f>AVERAGE(C2:C9)</f>
@@ -11591,15 +11827,15 @@
       </c>
       <c r="D11" s="2">
         <f>AVERAGE(D2:D9)</f>
-        <v>39.75</v>
+        <v>41.125</v>
       </c>
       <c r="E11" s="2">
         <f>AVERAGE(E2:E9)</f>
-        <v>12</v>
+        <v>12.25</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" ref="F11" si="1">(D11-E11)/D11</f>
-        <v>0.69811320754716977</v>
+        <v>0.7021276595744681</v>
       </c>
     </row>
   </sheetData>
